--- a/data/Global_Population_Trends_Cleaned.xlsx
+++ b/data/Global_Population_Trends_Cleaned.xlsx
@@ -504,7 +504,9 @@
       <c r="B2" t="n">
         <v>2018</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>36686784</v>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>9,353,296</t>
@@ -556,7 +558,9 @@
       <c r="B3" t="n">
         <v>2019</v>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>37769499</v>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>9,727,157</t>
@@ -608,7 +612,9 @@
       <c r="B4" t="n">
         <v>2020</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>38972230</v>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>10,142,913</t>
@@ -660,7 +666,9 @@
       <c r="B5" t="n">
         <v>2021</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>40099462</v>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>10,551,772</t>
@@ -712,7 +720,9 @@
       <c r="B6" t="n">
         <v>2018</v>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2866376</v>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>1,728,969</t>
@@ -764,7 +774,9 @@
       <c r="B7" t="n">
         <v>2019</v>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2854191</v>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>1,747,593</t>
@@ -816,7 +828,9 @@
       <c r="B8" t="n">
         <v>2020</v>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>2837849</v>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>1,762,645</t>
@@ -868,7 +882,9 @@
       <c r="B9" t="n">
         <v>2021</v>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>2811666</v>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>1,770,478</t>
@@ -920,7 +936,9 @@
       <c r="B10" t="n">
         <v>2018</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>41927007</v>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>30,451,166</t>
@@ -972,7 +990,9 @@
       <c r="B11" t="n">
         <v>2019</v>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>42705368</v>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>31,255,632</t>
@@ -1024,7 +1044,9 @@
       <c r="B12" t="n">
         <v>2020</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>43451666</v>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>32,038,217</t>
@@ -1076,7 +1098,9 @@
       <c r="B13" t="n">
         <v>2021</v>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>44177969</v>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>32,807,002</t>
@@ -1128,7 +1152,9 @@
       <c r="B14" t="n">
         <v>2018</v>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>48424</v>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>42,203</t>
@@ -1180,7 +1206,9 @@
       <c r="B15" t="n">
         <v>2019</v>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>47321</v>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>41,239</t>
@@ -1232,7 +1260,9 @@
       <c r="B16" t="n">
         <v>2020</v>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>46189</v>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>40,255</t>
@@ -1284,7 +1314,9 @@
       <c r="B17" t="n">
         <v>2021</v>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>45035</v>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>39,257</t>
@@ -1336,7 +1368,9 @@
       <c r="B18" t="n">
         <v>2018</v>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>75013</v>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>66,058</t>
@@ -1388,7 +1422,9 @@
       <c r="B19" t="n">
         <v>2019</v>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>76343</v>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>67,170</t>
@@ -1440,7 +1476,9 @@
       <c r="B20" t="n">
         <v>2020</v>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>77700</v>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>68,311</t>
@@ -1492,7 +1530,9 @@
       <c r="B21" t="n">
         <v>2021</v>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>79034</v>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>69,438</t>
@@ -1544,7 +1584,9 @@
       <c r="B22" t="n">
         <v>2018</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>31273533</v>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>20,488,542</t>
@@ -1596,7 +1638,9 @@
       <c r="B23" t="n">
         <v>2019</v>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>32353588</v>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>21,410,634</t>
@@ -1648,7 +1692,9 @@
       <c r="B24" t="n">
         <v>2020</v>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>33428486</v>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>22,338,586</t>
@@ -1700,7 +1746,9 @@
       <c r="B25" t="n">
         <v>2021</v>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>34503774</v>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>23,276,246</t>
@@ -1752,7 +1800,9 @@
       <c r="B26" t="n">
         <v>2018</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>91626</v>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>22,539</t>
@@ -1804,7 +1854,9 @@
       <c r="B27" t="n">
         <v>2019</v>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>92117</v>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>22,574</t>
@@ -1856,7 +1908,9 @@
       <c r="B28" t="n">
         <v>2020</v>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>92664</v>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>22,641</t>
@@ -1908,7 +1962,9 @@
       <c r="B29" t="n">
         <v>2021</v>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>93219</v>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>22,727</t>
@@ -1960,7 +2016,9 @@
       <c r="B30" t="n">
         <v>2018</v>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>44494502</v>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>40,877,099</t>
@@ -2012,7 +2070,9 @@
       <c r="B31" t="n">
         <v>2019</v>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>44938712</v>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>41,339,571</t>
@@ -2064,7 +2124,9 @@
       <c r="B32" t="n">
         <v>2020</v>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>45376763</v>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>41,796,990</t>
@@ -2116,7 +2178,9 @@
       <c r="B33" t="n">
         <v>2021</v>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>45808747</v>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>42,248,949</t>
@@ -2168,7 +2232,9 @@
       <c r="B34" t="n">
         <v>2018</v>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>2836557</v>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>1,791,257</t>
@@ -2220,7 +2286,9 @@
       <c r="B35" t="n">
         <v>2019</v>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>2820602</v>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>1,783,156</t>
@@ -2272,7 +2340,9 @@
       <c r="B36" t="n">
         <v>2020</v>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>2805608</v>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>1,776,315</t>
@@ -2324,7 +2394,9 @@
       <c r="B37" t="n">
         <v>2021</v>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>2790974</v>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>1,770,343</t>
@@ -2376,7 +2448,9 @@
       <c r="B38" t="n">
         <v>2018</v>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>105962</v>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>45,999</t>
@@ -2428,7 +2502,9 @@
       <c r="B39" t="n">
         <v>2019</v>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>106442</v>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>46,351</t>
@@ -2480,7 +2556,9 @@
       <c r="B40" t="n">
         <v>2020</v>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>106585</v>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>46,574</t>
@@ -2532,7 +2610,9 @@
       <c r="B41" t="n">
         <v>2021</v>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>106537</v>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>46,734</t>
@@ -2584,7 +2664,9 @@
       <c r="B42" t="n">
         <v>2018</v>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>24966643</v>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>21,474,309</t>
@@ -2636,7 +2718,9 @@
       <c r="B43" t="n">
         <v>2019</v>
       </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>25340217</v>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>21,824,008</t>
@@ -2688,7 +2772,9 @@
       <c r="B44" t="n">
         <v>2020</v>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>25655289</v>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>22,125,378</t>
@@ -2740,7 +2826,9 @@
       <c r="B45" t="n">
         <v>2021</v>
       </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>25688079</v>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>22,184,739</t>
@@ -2792,7 +2880,9 @@
       <c r="B46" t="n">
         <v>2018</v>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>8840521</v>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>5,153,759</t>
@@ -2844,7 +2934,9 @@
       <c r="B47" t="n">
         <v>2019</v>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>8879920</v>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>5,196,085</t>
@@ -2896,7 +2988,9 @@
       <c r="B48" t="n">
         <v>2020</v>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>8916864</v>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>5,238,479</t>
@@ -2948,7 +3042,9 @@
       <c r="B49" t="n">
         <v>2021</v>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>8955797</v>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>5,283,472</t>
@@ -3000,7 +3096,9 @@
       <c r="B50" t="n">
         <v>2018</v>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v>9939771</v>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>5,534,464</t>
@@ -3052,7 +3150,9 @@
       <c r="B51" t="n">
         <v>2019</v>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>10024283</v>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>5,616,706</t>
@@ -3104,7 +3204,9 @@
       <c r="B52" t="n">
         <v>2020</v>
       </c>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>10093121</v>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>5,692,217</t>
@@ -3156,7 +3258,9 @@
       <c r="B53" t="n">
         <v>2021</v>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>10137750</v>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>5,755,809</t>
@@ -3208,7 +3312,9 @@
       <c r="B54" t="n">
         <v>2018</v>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="n">
+        <v>401906</v>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>333,682</t>
@@ -3260,7 +3366,9 @@
       <c r="B55" t="n">
         <v>2019</v>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>404557</v>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>336,316</t>
@@ -3312,7 +3420,9 @@
       <c r="B56" t="n">
         <v>2020</v>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="n">
+        <v>406471</v>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>338,367</t>
@@ -3364,7 +3474,9 @@
       <c r="B57" t="n">
         <v>2021</v>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>407906</v>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>340,051</t>
@@ -3416,7 +3528,9 @@
       <c r="B58" t="n">
         <v>2018</v>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="n">
+        <v>1487340</v>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>1,328,001</t>
@@ -3468,7 +3582,9 @@
       <c r="B59" t="n">
         <v>2019</v>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>1494188</v>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>1,335,714</t>
@@ -3520,7 +3636,9 @@
       <c r="B60" t="n">
         <v>2020</v>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>1477469</v>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>1,322,423</t>
@@ -3572,7 +3690,9 @@
       <c r="B61" t="n">
         <v>2021</v>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>1463265</v>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>1,311,407</t>
@@ -3624,7 +3744,9 @@
       <c r="B62" t="n">
         <v>2018</v>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="n">
+        <v>163683958</v>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>59,960,707</t>
@@ -3676,7 +3798,9 @@
       <c r="B63" t="n">
         <v>2019</v>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>165516222</v>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>61,911,343</t>
@@ -3728,7 +3852,9 @@
       <c r="B64" t="n">
         <v>2020</v>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="n">
+        <v>167420951</v>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>63,916,296</t>
@@ -3780,7 +3906,9 @@
       <c r="B65" t="n">
         <v>2021</v>
       </c>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>169356251</v>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>65,957,486</t>
@@ -3832,7 +3960,9 @@
       <c r="B66" t="n">
         <v>2018</v>
       </c>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="n">
+        <v>279688</v>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>87,114</t>
@@ -3884,7 +4014,9 @@
       <c r="B67" t="n">
         <v>2019</v>
       </c>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="n">
+        <v>280180</v>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>87,298</t>
@@ -3936,7 +4068,9 @@
       <c r="B68" t="n">
         <v>2020</v>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>280693</v>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>87,551</t>
@@ -3988,7 +4122,9 @@
       <c r="B69" t="n">
         <v>2021</v>
       </c>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" t="n">
+        <v>281200</v>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>87,864</t>
@@ -4040,7 +4176,9 @@
       <c r="B70" t="n">
         <v>2018</v>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="n">
+        <v>9438785</v>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>7,418,413</t>
@@ -4092,7 +4230,9 @@
       <c r="B71" t="n">
         <v>2019</v>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="n">
+        <v>9419758</v>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>7,445,754</t>
@@ -4144,7 +4284,9 @@
       <c r="B72" t="n">
         <v>2020</v>
       </c>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="n">
+        <v>9379952</v>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>7,455,467</t>
@@ -4196,7 +4338,9 @@
       <c r="B73" t="n">
         <v>2021</v>
       </c>
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" t="n">
+        <v>9302585</v>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>7,433,696</t>
@@ -4248,7 +4392,9 @@
       <c r="B74" t="n">
         <v>2018</v>
       </c>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" t="n">
+        <v>11427054</v>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>11,198,627</t>
@@ -4300,7 +4446,9 @@
       <c r="B75" t="n">
         <v>2019</v>
       </c>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="n">
+        <v>11488980</v>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>11,263,911</t>
@@ -4352,7 +4500,9 @@
       <c r="B76" t="n">
         <v>2020</v>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="n">
+        <v>11538604</v>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>11,316,947</t>
@@ -4404,7 +4554,9 @@
       <c r="B77" t="n">
         <v>2021</v>
       </c>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="n">
+        <v>11592952</v>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>11,374,657</t>
@@ -4456,7 +4608,9 @@
       <c r="B78" t="n">
         <v>2018</v>
       </c>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" t="n">
+        <v>382066</v>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>174,696</t>
@@ -4508,7 +4662,9 @@
       <c r="B79" t="n">
         <v>2019</v>
       </c>
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" t="n">
+        <v>389095</v>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>178,462</t>
@@ -4560,7 +4716,9 @@
       <c r="B80" t="n">
         <v>2020</v>
       </c>
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" t="n">
+        <v>394921</v>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>181,762</t>
@@ -4612,7 +4770,9 @@
       <c r="B81" t="n">
         <v>2021</v>
       </c>
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" t="n">
+        <v>400031</v>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>184,818</t>
@@ -4664,7 +4824,9 @@
       <c r="B82" t="n">
         <v>2018</v>
       </c>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" t="n">
+        <v>11940683</v>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>5,649,376</t>
@@ -4716,7 +4878,9 @@
       <c r="B83" t="n">
         <v>2019</v>
       </c>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>12290444</v>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>5,882,329</t>
@@ -4768,7 +4932,9 @@
       <c r="B84" t="n">
         <v>2020</v>
       </c>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>12643123</v>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>6,121,168</t>
@@ -4820,7 +4986,9 @@
       <c r="B85" t="n">
         <v>2021</v>
       </c>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>12996895</v>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>6,364,839</t>
@@ -4872,7 +5040,9 @@
       <c r="B86" t="n">
         <v>2018</v>
       </c>
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>63918</v>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>63,918</t>
@@ -4924,7 +5094,9 @@
       <c r="B87" t="n">
         <v>2019</v>
       </c>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>63911</v>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>63,911</t>
@@ -4976,7 +5148,9 @@
       <c r="B88" t="n">
         <v>2020</v>
       </c>
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>63893</v>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>63,893</t>
@@ -5028,7 +5202,9 @@
       <c r="B89" t="n">
         <v>2021</v>
       </c>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>63764</v>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>63,764</t>
@@ -5080,7 +5256,9 @@
       <c r="B90" t="n">
         <v>2018</v>
       </c>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>762096</v>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>311,659</t>
@@ -5132,7 +5310,9 @@
       <c r="B91" t="n">
         <v>2019</v>
       </c>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>767459</v>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>319,355</t>
@@ -5184,7 +5364,9 @@
       <c r="B92" t="n">
         <v>2020</v>
       </c>
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>772506</v>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>326,894</t>
@@ -5236,7 +5418,9 @@
       <c r="B93" t="n">
         <v>2021</v>
       </c>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v>777486</v>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>334,381</t>
@@ -5288,7 +5472,9 @@
       <c r="B94" t="n">
         <v>2018</v>
       </c>
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" t="n">
+        <v>11606905</v>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>8,058,094</t>
@@ -5340,7 +5526,9 @@
       <c r="B95" t="n">
         <v>2019</v>
       </c>
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" t="n">
+        <v>11777315</v>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>8,217,386</t>
@@ -5392,7 +5580,9 @@
       <c r="B96" t="n">
         <v>2020</v>
       </c>
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" t="n">
+        <v>11936162</v>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>8,369,995</t>
@@ -5444,7 +5634,9 @@
       <c r="B97" t="n">
         <v>2021</v>
       </c>
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" t="n">
+        <v>12079472</v>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>8,513,008</t>
@@ -5496,7 +5688,9 @@
       <c r="B98" t="n">
         <v>2018</v>
       </c>
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" t="n">
+        <v>3400129</v>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>1,640,392</t>
@@ -5548,7 +5742,9 @@
       <c r="B99" t="n">
         <v>2019</v>
       </c>
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" t="n">
+        <v>3360711</v>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>1,634,179</t>
@@ -5600,7 +5796,9 @@
       <c r="B100" t="n">
         <v>2020</v>
       </c>
-      <c r="C100" t="inlineStr"/>
+      <c r="C100" t="n">
+        <v>3318407</v>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>1,626,683</t>
@@ -5652,7 +5850,9 @@
       <c r="B101" t="n">
         <v>2021</v>
       </c>
-      <c r="C101" t="inlineStr"/>
+      <c r="C101" t="n">
+        <v>3270943</v>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>1,616,664</t>
@@ -5704,7 +5904,9 @@
       <c r="B102" t="n">
         <v>2018</v>
       </c>
-      <c r="C102" t="inlineStr"/>
+      <c r="C102" t="n">
+        <v>2451409</v>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>1,702,405</t>
@@ -5756,7 +5958,9 @@
       <c r="B103" t="n">
         <v>2019</v>
       </c>
-      <c r="C103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>2499702</v>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>1,754,091</t>
@@ -5808,7 +6012,9 @@
       <c r="B104" t="n">
         <v>2020</v>
       </c>
-      <c r="C104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>2546402</v>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>1,804,813</t>
@@ -5860,7 +6066,9 @@
       <c r="B105" t="n">
         <v>2021</v>
       </c>
-      <c r="C105" t="inlineStr"/>
+      <c r="C105" t="n">
+        <v>2588423</v>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>1,852,275</t>
@@ -5912,7 +6120,9 @@
       <c r="B106" t="n">
         <v>2018</v>
       </c>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="n">
+        <v>210166592</v>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>181,939,117</t>
@@ -5964,7 +6174,9 @@
       <c r="B107" t="n">
         <v>2019</v>
       </c>
-      <c r="C107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>211782878</v>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>183,878,366</t>
@@ -6016,7 +6228,9 @@
       <c r="B108" t="n">
         <v>2020</v>
       </c>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v>213196304</v>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>185,636,418</t>
@@ -6068,7 +6282,9 @@
       <c r="B109" t="n">
         <v>2021</v>
       </c>
-      <c r="C109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>214326223</v>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>187,143,228</t>
@@ -6120,7 +6336,9 @@
       <c r="B110" t="n">
         <v>2018</v>
       </c>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>30335</v>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>14,477</t>
@@ -6172,7 +6390,9 @@
       <c r="B111" t="n">
         <v>2019</v>
       </c>
-      <c r="C111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v>30610</v>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>14,728</t>
@@ -6224,7 +6444,9 @@
       <c r="B112" t="n">
         <v>2020</v>
       </c>
-      <c r="C112" t="inlineStr"/>
+      <c r="C112" t="n">
+        <v>30910</v>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>14,996</t>
@@ -6276,7 +6498,9 @@
       <c r="B113" t="n">
         <v>2021</v>
       </c>
-      <c r="C113" t="inlineStr"/>
+      <c r="C113" t="n">
+        <v>31122</v>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>15,225</t>
@@ -6328,7 +6552,9 @@
       <c r="B114" t="n">
         <v>2018</v>
       </c>
-      <c r="C114" t="inlineStr"/>
+      <c r="C114" t="n">
+        <v>434274</v>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>337,123</t>
@@ -6380,7 +6606,9 @@
       <c r="B115" t="n">
         <v>2019</v>
       </c>
-      <c r="C115" t="inlineStr"/>
+      <c r="C115" t="n">
+        <v>438048</v>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>341,423</t>
@@ -6432,7 +6660,9 @@
       <c r="B116" t="n">
         <v>2020</v>
       </c>
-      <c r="C116" t="inlineStr"/>
+      <c r="C116" t="n">
+        <v>441725</v>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>345,650</t>
@@ -6484,7 +6714,9 @@
       <c r="B117" t="n">
         <v>2021</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>445373</v>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>349,858</t>
@@ -6536,7 +6768,9 @@
       <c r="B118" t="n">
         <v>2018</v>
       </c>
-      <c r="C118" t="inlineStr"/>
+      <c r="C118" t="n">
+        <v>7025037</v>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>5,269,340</t>
@@ -6588,7 +6822,9 @@
       <c r="B119" t="n">
         <v>2019</v>
       </c>
-      <c r="C119" t="inlineStr"/>
+      <c r="C119" t="n">
+        <v>6975761</v>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>5,256,027</t>
@@ -6640,7 +6876,9 @@
       <c r="B120" t="n">
         <v>2020</v>
       </c>
-      <c r="C120" t="inlineStr"/>
+      <c r="C120" t="n">
+        <v>6934015</v>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>5,248,079</t>
@@ -6692,7 +6930,9 @@
       <c r="B121" t="n">
         <v>2021</v>
       </c>
-      <c r="C121" t="inlineStr"/>
+      <c r="C121" t="n">
+        <v>6877743</v>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>5,228,804</t>
@@ -6744,7 +6984,9 @@
       <c r="B122" t="n">
         <v>2018</v>
       </c>
-      <c r="C122" t="inlineStr"/>
+      <c r="C122" t="n">
+        <v>20392723</v>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>5,986,896</t>
@@ -6796,7 +7038,9 @@
       <c r="B123" t="n">
         <v>2019</v>
       </c>
-      <c r="C123" t="inlineStr"/>
+      <c r="C123" t="n">
+        <v>20951639</v>
+      </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>6,281,301</t>
@@ -6848,7 +7092,9 @@
       <c r="B124" t="n">
         <v>2020</v>
       </c>
-      <c r="C124" t="inlineStr"/>
+      <c r="C124" t="n">
+        <v>21522626</v>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>6,587,430</t>
@@ -6900,7 +7146,9 @@
       <c r="B125" t="n">
         <v>2021</v>
       </c>
-      <c r="C125" t="inlineStr"/>
+      <c r="C125" t="n">
+        <v>22100683</v>
+      </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>6,904,253</t>
@@ -6952,7 +7200,9 @@
       <c r="B126" t="n">
         <v>2018</v>
       </c>
-      <c r="C126" t="inlineStr"/>
+      <c r="C126" t="n">
+        <v>11493472</v>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>1,497,829</t>
@@ -7004,7 +7254,9 @@
       <c r="B127" t="n">
         <v>2019</v>
       </c>
-      <c r="C127" t="inlineStr"/>
+      <c r="C127" t="n">
+        <v>11874838</v>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>1,587,191</t>
@@ -7056,7 +7308,9 @@
       <c r="B128" t="n">
         <v>2020</v>
       </c>
-      <c r="C128" t="inlineStr"/>
+      <c r="C128" t="n">
+        <v>12220227</v>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>1,675,149</t>
@@ -7108,7 +7362,9 @@
       <c r="B129" t="n">
         <v>2021</v>
       </c>
-      <c r="C129" t="inlineStr"/>
+      <c r="C129" t="n">
+        <v>12551213</v>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>1,764,450</t>
@@ -7160,7 +7416,9 @@
       <c r="B130" t="n">
         <v>2018</v>
       </c>
-      <c r="C130" t="inlineStr"/>
+      <c r="C130" t="n">
+        <v>571202</v>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>375,462</t>
@@ -7212,7 +7470,9 @@
       <c r="B131" t="n">
         <v>2019</v>
       </c>
-      <c r="C131" t="inlineStr"/>
+      <c r="C131" t="n">
+        <v>577030</v>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>381,965</t>
@@ -7264,7 +7524,9 @@
       <c r="B132" t="n">
         <v>2020</v>
       </c>
-      <c r="C132" t="inlineStr"/>
+      <c r="C132" t="n">
+        <v>582640</v>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>388,341</t>
@@ -7316,7 +7578,9 @@
       <c r="B133" t="n">
         <v>2021</v>
       </c>
-      <c r="C133" t="inlineStr"/>
+      <c r="C133" t="n">
+        <v>587925</v>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>394,509</t>
@@ -7368,7 +7632,9 @@
       <c r="B134" t="n">
         <v>2018</v>
       </c>
-      <c r="C134" t="inlineStr"/>
+      <c r="C134" t="n">
+        <v>16025238</v>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>3,747,983</t>
@@ -7420,7 +7686,9 @@
       <c r="B135" t="n">
         <v>2019</v>
       </c>
-      <c r="C135" t="inlineStr"/>
+      <c r="C135" t="n">
+        <v>16207746</v>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>3,858,254</t>
@@ -7472,7 +7740,9 @@
       <c r="B136" t="n">
         <v>2020</v>
       </c>
-      <c r="C136" t="inlineStr"/>
+      <c r="C136" t="n">
+        <v>16396860</v>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>3,973,287</t>
@@ -7524,7 +7794,9 @@
       <c r="B137" t="n">
         <v>2021</v>
       </c>
-      <c r="C137" t="inlineStr"/>
+      <c r="C137" t="n">
+        <v>16589023</v>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>4,092,180</t>
@@ -7576,7 +7848,9 @@
       <c r="B138" t="n">
         <v>2018</v>
       </c>
-      <c r="C138" t="inlineStr"/>
+      <c r="C138" t="n">
+        <v>25076747</v>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>14,136,765</t>
@@ -7628,7 +7902,9 @@
       <c r="B139" t="n">
         <v>2019</v>
       </c>
-      <c r="C139" t="inlineStr"/>
+      <c r="C139" t="n">
+        <v>25782341</v>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>14,687,684</t>
@@ -7680,7 +7956,9 @@
       <c r="B140" t="n">
         <v>2020</v>
       </c>
-      <c r="C140" t="inlineStr"/>
+      <c r="C140" t="n">
+        <v>26491087</v>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>15,248,270</t>
@@ -7732,7 +8010,9 @@
       <c r="B141" t="n">
         <v>2021</v>
       </c>
-      <c r="C141" t="inlineStr"/>
+      <c r="C141" t="n">
+        <v>27198628</v>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>15,815,458</t>
@@ -7784,7 +8064,9 @@
       <c r="B142" t="n">
         <v>2018</v>
       </c>
-      <c r="C142" t="inlineStr"/>
+      <c r="C142" t="n">
+        <v>37065084</v>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>30,175,056</t>
@@ -7836,7 +8118,9 @@
       <c r="B143" t="n">
         <v>2019</v>
       </c>
-      <c r="C143" t="inlineStr"/>
+      <c r="C143" t="n">
+        <v>37601230</v>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>30,638,234</t>
@@ -7888,7 +8172,9 @@
       <c r="B144" t="n">
         <v>2020</v>
       </c>
-      <c r="C144" t="inlineStr"/>
+      <c r="C144" t="n">
+        <v>38007166</v>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>30,999,405</t>
@@ -7940,7 +8226,9 @@
       <c r="B145" t="n">
         <v>2021</v>
       </c>
-      <c r="C145" t="inlineStr"/>
+      <c r="C145" t="n">
+        <v>38226498</v>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>31,213,082</t>
@@ -7992,7 +8280,9 @@
       <c r="B146" t="n">
         <v>2018</v>
       </c>
-      <c r="C146" t="inlineStr"/>
+      <c r="C146" t="n">
+        <v>64884</v>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>64,884</t>
@@ -8044,7 +8334,9 @@
       <c r="B147" t="n">
         <v>2019</v>
       </c>
-      <c r="C147" t="inlineStr"/>
+      <c r="C147" t="n">
+        <v>66134</v>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>66,134</t>
@@ -8096,7 +8388,9 @@
       <c r="B148" t="n">
         <v>2020</v>
       </c>
-      <c r="C148" t="inlineStr"/>
+      <c r="C148" t="n">
+        <v>67311</v>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>67,311</t>
@@ -8148,7 +8442,9 @@
       <c r="B149" t="n">
         <v>2021</v>
       </c>
-      <c r="C149" t="inlineStr"/>
+      <c r="C149" t="n">
+        <v>68136</v>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>68,136</t>
@@ -8200,7 +8496,9 @@
       <c r="B150" t="n">
         <v>2018</v>
       </c>
-      <c r="C150" t="inlineStr"/>
+      <c r="C150" t="n">
+        <v>5094780</v>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>2,107,405</t>
@@ -8252,7 +8550,9 @@
       <c r="B151" t="n">
         <v>2019</v>
       </c>
-      <c r="C151" t="inlineStr"/>
+      <c r="C151" t="n">
+        <v>5209324</v>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>2,175,935</t>
@@ -8304,7 +8604,9 @@
       <c r="B152" t="n">
         <v>2020</v>
       </c>
-      <c r="C152" t="inlineStr"/>
+      <c r="C152" t="n">
+        <v>5343020</v>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>2,254,648</t>
@@ -8356,7 +8658,9 @@
       <c r="B153" t="n">
         <v>2021</v>
       </c>
-      <c r="C153" t="inlineStr"/>
+      <c r="C153" t="n">
+        <v>5457154</v>
+      </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>2,327,367</t>
@@ -8408,7 +8712,9 @@
       <c r="B154" t="n">
         <v>2018</v>
       </c>
-      <c r="C154" t="inlineStr"/>
+      <c r="C154" t="n">
+        <v>15604210</v>
+      </c>
       <c r="D154" t="inlineStr">
         <is>
           <t>3,598,175</t>
@@ -8460,7 +8766,9 @@
       <c r="B155" t="n">
         <v>2019</v>
       </c>
-      <c r="C155" t="inlineStr"/>
+      <c r="C155" t="n">
+        <v>16126866</v>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>3,754,173</t>
@@ -8512,7 +8820,9 @@
       <c r="B156" t="n">
         <v>2020</v>
       </c>
-      <c r="C156" t="inlineStr"/>
+      <c r="C156" t="n">
+        <v>16644701</v>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>3,914,834</t>
@@ -8564,7 +8874,9 @@
       <c r="B157" t="n">
         <v>2021</v>
       </c>
-      <c r="C157" t="inlineStr"/>
+      <c r="C157" t="n">
+        <v>17179740</v>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>4,085,514</t>
@@ -8616,7 +8928,9 @@
       <c r="B158" t="n">
         <v>2018</v>
       </c>
-      <c r="C158" t="inlineStr"/>
+      <c r="C158" t="n">
+        <v>167259</v>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
           <t>51,706</t>
@@ -8668,7 +8982,9 @@
       <c r="B159" t="n">
         <v>2019</v>
       </c>
-      <c r="C159" t="inlineStr"/>
+      <c r="C159" t="n">
+        <v>169410</v>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
           <t>52,400</t>
@@ -8720,7 +9036,9 @@
       <c r="B160" t="n">
         <v>2020</v>
       </c>
-      <c r="C160" t="inlineStr"/>
+      <c r="C160" t="n">
+        <v>171113</v>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>52,982</t>
@@ -8772,7 +9090,9 @@
       <c r="B161" t="n">
         <v>2021</v>
       </c>
-      <c r="C161" t="inlineStr"/>
+      <c r="C161" t="n">
+        <v>172683</v>
+      </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>53,552</t>
@@ -8824,7 +9144,9 @@
       <c r="B162" t="n">
         <v>2018</v>
       </c>
-      <c r="C162" t="inlineStr"/>
+      <c r="C162" t="n">
+        <v>18701450</v>
+      </c>
       <c r="D162" t="inlineStr">
         <is>
           <t>16,375,738</t>
@@ -8876,7 +9198,9 @@
       <c r="B163" t="n">
         <v>2019</v>
       </c>
-      <c r="C163" t="inlineStr"/>
+      <c r="C163" t="n">
+        <v>19039485</v>
+      </c>
       <c r="D163" t="inlineStr">
         <is>
           <t>16,686,776</t>
@@ -8928,7 +9252,9 @@
       <c r="B164" t="n">
         <v>2020</v>
       </c>
-      <c r="C164" t="inlineStr"/>
+      <c r="C164" t="n">
+        <v>19300315</v>
+      </c>
       <c r="D164" t="inlineStr">
         <is>
           <t>16,931,587</t>
@@ -8980,7 +9306,9 @@
       <c r="B165" t="n">
         <v>2021</v>
       </c>
-      <c r="C165" t="inlineStr"/>
+      <c r="C165" t="n">
+        <v>19493184</v>
+      </c>
       <c r="D165" t="inlineStr">
         <is>
           <t>17,118,329</t>
@@ -9032,7 +9360,9 @@
       <c r="B166" t="n">
         <v>2018</v>
       </c>
-      <c r="C166" t="inlineStr"/>
+      <c r="C166" t="n">
+        <v>1402760000</v>
+      </c>
       <c r="D166" t="inlineStr">
         <is>
           <t>829,760,595</t>
@@ -9084,7 +9414,9 @@
       <c r="B167" t="n">
         <v>2019</v>
       </c>
-      <c r="C167" t="inlineStr"/>
+      <c r="C167" t="n">
+        <v>1407745000</v>
+      </c>
       <c r="D167" t="inlineStr">
         <is>
           <t>848,982,855</t>
@@ -9136,7 +9468,9 @@
       <c r="B168" t="n">
         <v>2020</v>
       </c>
-      <c r="C168" t="inlineStr"/>
+      <c r="C168" t="n">
+        <v>1411100000</v>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>866,810,508</t>
@@ -9188,7 +9522,9 @@
       <c r="B169" t="n">
         <v>2021</v>
       </c>
-      <c r="C169" t="inlineStr"/>
+      <c r="C169" t="n">
+        <v>1412360000</v>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>882,894,483</t>
@@ -9240,7 +9576,9 @@
       <c r="B170" t="n">
         <v>2018</v>
       </c>
-      <c r="C170" t="inlineStr"/>
+      <c r="C170" t="n">
+        <v>49276961</v>
+      </c>
       <c r="D170" t="inlineStr">
         <is>
           <t>39,804,944</t>
@@ -9292,7 +9630,9 @@
       <c r="B171" t="n">
         <v>2019</v>
       </c>
-      <c r="C171" t="inlineStr"/>
+      <c r="C171" t="n">
+        <v>50187406</v>
+      </c>
       <c r="D171" t="inlineStr">
         <is>
           <t>40,703,994</t>
@@ -9344,7 +9684,9 @@
       <c r="B172" t="n">
         <v>2020</v>
       </c>
-      <c r="C172" t="inlineStr"/>
+      <c r="C172" t="n">
+        <v>50930662</v>
+      </c>
       <c r="D172" t="inlineStr">
         <is>
           <t>41,470,292</t>
@@ -9396,7 +9738,9 @@
       <c r="B173" t="n">
         <v>2021</v>
       </c>
-      <c r="C173" t="inlineStr"/>
+      <c r="C173" t="n">
+        <v>51516562</v>
+      </c>
       <c r="D173" t="inlineStr">
         <is>
           <t>42,109,638</t>
@@ -9448,7 +9792,9 @@
       <c r="B174" t="n">
         <v>2018</v>
       </c>
-      <c r="C174" t="inlineStr"/>
+      <c r="C174" t="n">
+        <v>776313</v>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
           <t>224,859</t>
@@ -9500,7 +9846,9 @@
       <c r="B175" t="n">
         <v>2019</v>
       </c>
-      <c r="C175" t="inlineStr"/>
+      <c r="C175" t="n">
+        <v>790986</v>
+      </c>
       <c r="D175" t="inlineStr">
         <is>
           <t>230,683</t>
@@ -9552,7 +9900,9 @@
       <c r="B176" t="n">
         <v>2020</v>
       </c>
-      <c r="C176" t="inlineStr"/>
+      <c r="C176" t="n">
+        <v>806166</v>
+      </c>
       <c r="D176" t="inlineStr">
         <is>
           <t>236,852</t>
@@ -9604,7 +9954,9 @@
       <c r="B177" t="n">
         <v>2021</v>
       </c>
-      <c r="C177" t="inlineStr"/>
+      <c r="C177" t="n">
+        <v>821625</v>
+      </c>
       <c r="D177" t="inlineStr">
         <is>
           <t>243,308</t>
@@ -9656,7 +10008,9 @@
       <c r="B178" t="n">
         <v>2018</v>
       </c>
-      <c r="C178" t="inlineStr"/>
+      <c r="C178" t="n">
+        <v>5040734</v>
+      </c>
       <c r="D178" t="inlineStr">
         <is>
           <t>3,999,318</t>
@@ -9708,7 +10062,9 @@
       <c r="B179" t="n">
         <v>2019</v>
       </c>
-      <c r="C179" t="inlineStr"/>
+      <c r="C179" t="n">
+        <v>5084532</v>
+      </c>
       <c r="D179" t="inlineStr">
         <is>
           <t>4,071,490</t>
@@ -9760,7 +10116,9 @@
       <c r="B180" t="n">
         <v>2020</v>
       </c>
-      <c r="C180" t="inlineStr"/>
+      <c r="C180" t="n">
+        <v>5123105</v>
+      </c>
       <c r="D180" t="inlineStr">
         <is>
           <t>4,137,983</t>
@@ -9812,7 +10170,9 @@
       <c r="B181" t="n">
         <v>2021</v>
       </c>
-      <c r="C181" t="inlineStr"/>
+      <c r="C181" t="n">
+        <v>5153957</v>
+      </c>
       <c r="D181" t="inlineStr">
         <is>
           <t>4,196,609</t>
@@ -9864,7 +10224,9 @@
       <c r="B182" t="n">
         <v>2018</v>
       </c>
-      <c r="C182" t="inlineStr"/>
+      <c r="C182" t="n">
+        <v>4087843</v>
+      </c>
       <c r="D182" t="inlineStr">
         <is>
           <t>2,327,904</t>
@@ -9916,7 +10278,9 @@
       <c r="B183" t="n">
         <v>2019</v>
       </c>
-      <c r="C183" t="inlineStr"/>
+      <c r="C183" t="n">
+        <v>4065253</v>
+      </c>
       <c r="D183" t="inlineStr">
         <is>
           <t>2,327,032</t>
@@ -9968,7 +10332,9 @@
       <c r="B184" t="n">
         <v>2020</v>
       </c>
-      <c r="C184" t="inlineStr"/>
+      <c r="C184" t="n">
+        <v>4047680</v>
+      </c>
       <c r="D184" t="inlineStr">
         <is>
           <t>2,329,561</t>
@@ -10020,7 +10386,9 @@
       <c r="B185" t="n">
         <v>2021</v>
       </c>
-      <c r="C185" t="inlineStr"/>
+      <c r="C185" t="n">
+        <v>3879000</v>
+      </c>
       <c r="D185" t="inlineStr">
         <is>
           <t>2,245,088</t>
@@ -10072,7 +10440,9 @@
       <c r="B186" t="n">
         <v>2018</v>
       </c>
-      <c r="C186" t="inlineStr"/>
+      <c r="C186" t="n">
+        <v>11328244</v>
+      </c>
       <c r="D186" t="inlineStr">
         <is>
           <t>8,726,939</t>
@@ -10124,7 +10494,9 @@
       <c r="B187" t="n">
         <v>2019</v>
       </c>
-      <c r="C187" t="inlineStr"/>
+      <c r="C187" t="n">
+        <v>11316697</v>
+      </c>
       <c r="D187" t="inlineStr">
         <is>
           <t>8,726,192</t>
@@ -10176,7 +10548,9 @@
       <c r="B188" t="n">
         <v>2020</v>
       </c>
-      <c r="C188" t="inlineStr"/>
+      <c r="C188" t="n">
+        <v>11300698</v>
+      </c>
       <c r="D188" t="inlineStr">
         <is>
           <t>8,723,461</t>
@@ -10228,7 +10602,9 @@
       <c r="B189" t="n">
         <v>2021</v>
       </c>
-      <c r="C189" t="inlineStr"/>
+      <c r="C189" t="n">
+        <v>11256372</v>
+      </c>
       <c r="D189" t="inlineStr">
         <is>
           <t>8,700,275</t>
@@ -10280,7 +10656,9 @@
       <c r="B190" t="n">
         <v>2018</v>
       </c>
-      <c r="C190" t="inlineStr"/>
+      <c r="C190" t="n">
+        <v>159336</v>
+      </c>
       <c r="D190" t="inlineStr">
         <is>
           <t>142,040</t>
@@ -10332,7 +10710,9 @@
       <c r="B191" t="n">
         <v>2019</v>
       </c>
-      <c r="C191" t="inlineStr"/>
+      <c r="C191" t="n">
+        <v>157441</v>
+      </c>
       <c r="D191" t="inlineStr">
         <is>
           <t>140,277</t>
@@ -10384,7 +10764,9 @@
       <c r="B192" t="n">
         <v>2020</v>
       </c>
-      <c r="C192" t="inlineStr"/>
+      <c r="C192" t="n">
+        <v>154947</v>
+      </c>
       <c r="D192" t="inlineStr">
         <is>
           <t>137,999</t>
@@ -10436,7 +10818,9 @@
       <c r="B193" t="n">
         <v>2021</v>
       </c>
-      <c r="C193" t="inlineStr"/>
+      <c r="C193" t="n">
+        <v>152369</v>
+      </c>
       <c r="D193" t="inlineStr">
         <is>
           <t>135,666</t>
@@ -10488,7 +10872,9 @@
       <c r="B194" t="n">
         <v>2018</v>
       </c>
-      <c r="C194" t="inlineStr"/>
+      <c r="C194" t="n">
+        <v>1218831</v>
+      </c>
       <c r="D194" t="inlineStr">
         <is>
           <t>814,301</t>
@@ -10540,7 +10926,9 @@
       <c r="B195" t="n">
         <v>2019</v>
       </c>
-      <c r="C195" t="inlineStr"/>
+      <c r="C195" t="n">
+        <v>1228836</v>
+      </c>
       <c r="D195" t="inlineStr">
         <is>
           <t>820,924</t>
@@ -10592,7 +10980,9 @@
       <c r="B196" t="n">
         <v>2020</v>
       </c>
-      <c r="C196" t="inlineStr"/>
+      <c r="C196" t="n">
+        <v>1237537</v>
+      </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>826,935</t>
@@ -10644,7 +11034,9 @@
       <c r="B197" t="n">
         <v>2021</v>
       </c>
-      <c r="C197" t="inlineStr"/>
+      <c r="C197" t="n">
+        <v>1244188</v>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>831,814</t>
@@ -10696,7 +11088,9 @@
       <c r="B198" t="n">
         <v>2018</v>
       </c>
-      <c r="C198" t="inlineStr"/>
+      <c r="C198" t="n">
+        <v>10629928</v>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>7,844,036</t>
@@ -10748,7 +11142,9 @@
       <c r="B199" t="n">
         <v>2019</v>
       </c>
-      <c r="C199" t="inlineStr"/>
+      <c r="C199" t="n">
+        <v>10671870</v>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>7,888,753</t>
@@ -10800,7 +11196,9 @@
       <c r="B200" t="n">
         <v>2020</v>
       </c>
-      <c r="C200" t="inlineStr"/>
+      <c r="C200" t="n">
+        <v>10697858</v>
+      </c>
       <c r="D200" t="inlineStr">
         <is>
           <t>7,922,941</t>
@@ -10852,7 +11250,9 @@
       <c r="B201" t="n">
         <v>2021</v>
       </c>
-      <c r="C201" t="inlineStr"/>
+      <c r="C201" t="n">
+        <v>10505772</v>
+      </c>
       <c r="D201" t="inlineStr">
         <is>
           <t>7,796,754</t>
@@ -10904,7 +11304,9 @@
       <c r="B202" t="n">
         <v>2018</v>
       </c>
-      <c r="C202" t="inlineStr"/>
+      <c r="C202" t="n">
+        <v>87087355</v>
+      </c>
       <c r="D202" t="inlineStr">
         <is>
           <t>38,719,038</t>
@@ -10956,7 +11358,9 @@
       <c r="B203" t="n">
         <v>2019</v>
       </c>
-      <c r="C203" t="inlineStr"/>
+      <c r="C203" t="n">
+        <v>89906890</v>
+      </c>
       <c r="D203" t="inlineStr">
         <is>
           <t>40,499,458</t>
@@ -11008,7 +11412,9 @@
       <c r="B204" t="n">
         <v>2020</v>
       </c>
-      <c r="C204" t="inlineStr"/>
+      <c r="C204" t="n">
+        <v>92853164</v>
+      </c>
       <c r="D204" t="inlineStr">
         <is>
           <t>42,376,327</t>
@@ -11060,7 +11466,9 @@
       <c r="B205" t="n">
         <v>2021</v>
       </c>
-      <c r="C205" t="inlineStr"/>
+      <c r="C205" t="n">
+        <v>95894118</v>
+      </c>
       <c r="D205" t="inlineStr">
         <is>
           <t>44,336,645</t>
@@ -11112,7 +11520,9 @@
       <c r="B206" t="n">
         <v>2018</v>
       </c>
-      <c r="C206" t="inlineStr"/>
+      <c r="C206" t="n">
+        <v>5793636</v>
+      </c>
       <c r="D206" t="inlineStr">
         <is>
           <t>5,091,100</t>
@@ -11164,7 +11574,9 @@
       <c r="B207" t="n">
         <v>2019</v>
       </c>
-      <c r="C207" t="inlineStr"/>
+      <c r="C207" t="n">
+        <v>5814422</v>
+      </c>
       <c r="D207" t="inlineStr">
         <is>
           <t>5,116,342</t>
@@ -11216,7 +11628,9 @@
       <c r="B208" t="n">
         <v>2020</v>
       </c>
-      <c r="C208" t="inlineStr"/>
+      <c r="C208" t="n">
+        <v>5831404</v>
+      </c>
       <c r="D208" t="inlineStr">
         <is>
           <t>5,138,400</t>
@@ -11268,7 +11682,9 @@
       <c r="B209" t="n">
         <v>2021</v>
       </c>
-      <c r="C209" t="inlineStr"/>
+      <c r="C209" t="n">
+        <v>5856733</v>
+      </c>
       <c r="D209" t="inlineStr">
         <is>
           <t>5,167,981</t>
@@ -11320,7 +11736,9 @@
       <c r="B210" t="n">
         <v>2018</v>
       </c>
-      <c r="C210" t="inlineStr"/>
+      <c r="C210" t="n">
+        <v>1057198</v>
+      </c>
       <c r="D210" t="inlineStr">
         <is>
           <t>822,257</t>
@@ -11372,7 +11790,9 @@
       <c r="B211" t="n">
         <v>2019</v>
       </c>
-      <c r="C211" t="inlineStr"/>
+      <c r="C211" t="n">
+        <v>1073994</v>
+      </c>
       <c r="D211" t="inlineStr">
         <is>
           <t>836,802</t>
@@ -11424,7 +11844,9 @@
       <c r="B212" t="n">
         <v>2020</v>
       </c>
-      <c r="C212" t="inlineStr"/>
+      <c r="C212" t="n">
+        <v>1090156</v>
+      </c>
       <c r="D212" t="inlineStr">
         <is>
           <t>850,998</t>
@@ -11476,7 +11898,9 @@
       <c r="B213" t="n">
         <v>2021</v>
       </c>
-      <c r="C213" t="inlineStr"/>
+      <c r="C213" t="n">
+        <v>1105557</v>
+      </c>
       <c r="D213" t="inlineStr">
         <is>
           <t>864,734</t>
@@ -11528,7 +11952,9 @@
       <c r="B214" t="n">
         <v>2018</v>
       </c>
-      <c r="C214" t="inlineStr"/>
+      <c r="C214" t="n">
+        <v>70823</v>
+      </c>
       <c r="D214" t="inlineStr">
         <is>
           <t>49,918</t>
@@ -11580,7 +12006,9 @@
       <c r="B215" t="n">
         <v>2019</v>
       </c>
-      <c r="C215" t="inlineStr"/>
+      <c r="C215" t="n">
+        <v>71428</v>
+      </c>
       <c r="D215" t="inlineStr">
         <is>
           <t>50,561</t>
@@ -11632,7 +12060,9 @@
       <c r="B216" t="n">
         <v>2020</v>
       </c>
-      <c r="C216" t="inlineStr"/>
+      <c r="C216" t="n">
+        <v>71995</v>
+      </c>
       <c r="D216" t="inlineStr">
         <is>
           <t>51,181</t>
@@ -11684,7 +12114,9 @@
       <c r="B217" t="n">
         <v>2021</v>
       </c>
-      <c r="C217" t="inlineStr"/>
+      <c r="C217" t="n">
+        <v>72412</v>
+      </c>
       <c r="D217" t="inlineStr">
         <is>
           <t>51,699</t>
@@ -11736,7 +12168,9 @@
       <c r="B218" t="n">
         <v>2018</v>
       </c>
-      <c r="C218" t="inlineStr"/>
+      <c r="C218" t="n">
+        <v>10765531</v>
+      </c>
       <c r="D218" t="inlineStr">
         <is>
           <t>8,728,047</t>
@@ -11788,7 +12222,9 @@
       <c r="B219" t="n">
         <v>2019</v>
       </c>
-      <c r="C219" t="inlineStr"/>
+      <c r="C219" t="n">
+        <v>10881882</v>
+      </c>
       <c r="D219" t="inlineStr">
         <is>
           <t>8,904,426</t>
@@ -11840,7 +12276,9 @@
       <c r="B220" t="n">
         <v>2020</v>
       </c>
-      <c r="C220" t="inlineStr"/>
+      <c r="C220" t="n">
+        <v>10999664</v>
+      </c>
       <c r="D220" t="inlineStr">
         <is>
           <t>9,079,123</t>
@@ -11892,7 +12330,9 @@
       <c r="B221" t="n">
         <v>2021</v>
       </c>
-      <c r="C221" t="inlineStr"/>
+      <c r="C221" t="n">
+        <v>11117873</v>
+      </c>
       <c r="D221" t="inlineStr">
         <is>
           <t>9,251,516</t>
@@ -11944,7 +12384,9 @@
       <c r="B222" t="n">
         <v>2018</v>
       </c>
-      <c r="C222" t="inlineStr"/>
+      <c r="C222" t="n">
+        <v>17015672</v>
+      </c>
       <c r="D222" t="inlineStr">
         <is>
           <t>10,859,572</t>
@@ -11996,7 +12438,9 @@
       <c r="B223" t="n">
         <v>2019</v>
       </c>
-      <c r="C223" t="inlineStr"/>
+      <c r="C223" t="n">
+        <v>17343740</v>
+      </c>
       <c r="D223" t="inlineStr">
         <is>
           <t>11,097,565</t>
@@ -12048,7 +12492,9 @@
       <c r="B224" t="n">
         <v>2020</v>
       </c>
-      <c r="C224" t="inlineStr"/>
+      <c r="C224" t="n">
+        <v>17588595</v>
+      </c>
       <c r="D224" t="inlineStr">
         <is>
           <t>11,285,898</t>
@@ -12100,7 +12546,9 @@
       <c r="B225" t="n">
         <v>2021</v>
       </c>
-      <c r="C225" t="inlineStr"/>
+      <c r="C225" t="n">
+        <v>17797737</v>
+      </c>
       <c r="D225" t="inlineStr">
         <is>
           <t>11,454,802</t>
@@ -12152,7 +12600,9 @@
       <c r="B226" t="n">
         <v>2018</v>
       </c>
-      <c r="C226" t="inlineStr"/>
+      <c r="C226" t="n">
+        <v>103740765</v>
+      </c>
       <c r="D226" t="inlineStr">
         <is>
           <t>44,301,456</t>
@@ -12204,7 +12654,9 @@
       <c r="B227" t="n">
         <v>2019</v>
       </c>
-      <c r="C227" t="inlineStr"/>
+      <c r="C227" t="n">
+        <v>105618671</v>
+      </c>
       <c r="D227" t="inlineStr">
         <is>
           <t>45,130,858</t>
@@ -12256,7 +12708,9 @@
       <c r="B228" t="n">
         <v>2020</v>
       </c>
-      <c r="C228" t="inlineStr"/>
+      <c r="C228" t="n">
+        <v>107465134</v>
+      </c>
       <c r="D228" t="inlineStr">
         <is>
           <t>45,976,808</t>
@@ -12308,7 +12762,9 @@
       <c r="B229" t="n">
         <v>2021</v>
       </c>
-      <c r="C229" t="inlineStr"/>
+      <c r="C229" t="n">
+        <v>109262178</v>
+      </c>
       <c r="D229" t="inlineStr">
         <is>
           <t>46,831,955</t>
@@ -12360,7 +12816,9 @@
       <c r="B230" t="n">
         <v>2018</v>
       </c>
-      <c r="C230" t="inlineStr"/>
+      <c r="C230" t="n">
+        <v>6276342</v>
+      </c>
       <c r="D230" t="inlineStr">
         <is>
           <t>4,520,410</t>
@@ -12412,7 +12870,9 @@
       <c r="B231" t="n">
         <v>2019</v>
       </c>
-      <c r="C231" t="inlineStr"/>
+      <c r="C231" t="n">
+        <v>6280217</v>
+      </c>
       <c r="D231" t="inlineStr">
         <is>
           <t>4,568,607</t>
@@ -12464,7 +12924,9 @@
       <c r="B232" t="n">
         <v>2020</v>
       </c>
-      <c r="C232" t="inlineStr"/>
+      <c r="C232" t="n">
+        <v>6292731</v>
+      </c>
       <c r="D232" t="inlineStr">
         <is>
           <t>4,621,633</t>
@@ -12516,7 +12978,9 @@
       <c r="B233" t="n">
         <v>2021</v>
       </c>
-      <c r="C233" t="inlineStr"/>
+      <c r="C233" t="n">
+        <v>6314167</v>
+      </c>
       <c r="D233" t="inlineStr">
         <is>
           <t>4,679,934</t>
@@ -12568,7 +13032,9 @@
       <c r="B234" t="n">
         <v>2018</v>
       </c>
-      <c r="C234" t="inlineStr"/>
+      <c r="C234" t="n">
+        <v>1502091</v>
+      </c>
       <c r="D234" t="inlineStr">
         <is>
           <t>1,083,654</t>
@@ -12620,7 +13086,9 @@
       <c r="B235" t="n">
         <v>2019</v>
       </c>
-      <c r="C235" t="inlineStr"/>
+      <c r="C235" t="n">
+        <v>1553031</v>
+      </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>1,127,920</t>
@@ -12672,7 +13140,9 @@
       <c r="B236" t="n">
         <v>2020</v>
       </c>
-      <c r="C236" t="inlineStr"/>
+      <c r="C236" t="n">
+        <v>1596049</v>
+      </c>
       <c r="D236" t="inlineStr">
         <is>
           <t>1,166,712</t>
@@ -12724,7 +13194,9 @@
       <c r="B237" t="n">
         <v>2021</v>
       </c>
-      <c r="C237" t="inlineStr"/>
+      <c r="C237" t="n">
+        <v>1634466</v>
+      </c>
       <c r="D237" t="inlineStr">
         <is>
           <t>1,202,330</t>
@@ -12776,7 +13248,9 @@
       <c r="B238" t="n">
         <v>2018</v>
       </c>
-      <c r="C238" t="inlineStr"/>
+      <c r="C238" t="n">
+        <v>3445374</v>
+      </c>
       <c r="D238" t="inlineStr">
         <is>
           <t>1,380,906</t>
@@ -12828,7 +13302,9 @@
       <c r="B239" t="n">
         <v>2019</v>
       </c>
-      <c r="C239" t="inlineStr"/>
+      <c r="C239" t="n">
+        <v>3498818</v>
+      </c>
       <c r="D239" t="inlineStr">
         <is>
           <t>1,424,439</t>
@@ -12880,7 +13356,9 @@
       <c r="B240" t="n">
         <v>2020</v>
       </c>
-      <c r="C240" t="inlineStr"/>
+      <c r="C240" t="n">
+        <v>3555868</v>
+      </c>
       <c r="D240" t="inlineStr">
         <is>
           <t>1,470,245</t>
@@ -12932,7 +13410,9 @@
       <c r="B241" t="n">
         <v>2021</v>
       </c>
-      <c r="C241" t="inlineStr"/>
+      <c r="C241" t="n">
+        <v>3620312</v>
+      </c>
       <c r="D241" t="inlineStr">
         <is>
           <t>1,519,988</t>
@@ -12984,7 +13464,9 @@
       <c r="B242" t="n">
         <v>2018</v>
       </c>
-      <c r="C242" t="inlineStr"/>
+      <c r="C242" t="n">
+        <v>1321977</v>
+      </c>
       <c r="D242" t="inlineStr">
         <is>
           <t>910,578</t>
@@ -13036,7 +13518,9 @@
       <c r="B243" t="n">
         <v>2019</v>
       </c>
-      <c r="C243" t="inlineStr"/>
+      <c r="C243" t="n">
+        <v>1326898</v>
+      </c>
       <c r="D243" t="inlineStr">
         <is>
           <t>916,236</t>
@@ -13088,7 +13572,9 @@
       <c r="B244" t="n">
         <v>2020</v>
       </c>
-      <c r="C244" t="inlineStr"/>
+      <c r="C244" t="n">
+        <v>1329522</v>
+      </c>
       <c r="D244" t="inlineStr">
         <is>
           <t>920,415</t>
@@ -13140,7 +13626,9 @@
       <c r="B245" t="n">
         <v>2021</v>
       </c>
-      <c r="C245" t="inlineStr"/>
+      <c r="C245" t="n">
+        <v>1330932</v>
+      </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>923,866</t>
@@ -13192,7 +13680,9 @@
       <c r="B246" t="n">
         <v>2018</v>
       </c>
-      <c r="C246" t="inlineStr"/>
+      <c r="C246" t="n">
+        <v>1160428</v>
+      </c>
       <c r="D246" t="inlineStr">
         <is>
           <t>276,170</t>
@@ -13244,7 +13734,9 @@
       <c r="B247" t="n">
         <v>2019</v>
       </c>
-      <c r="C247" t="inlineStr"/>
+      <c r="C247" t="n">
+        <v>1169613</v>
+      </c>
       <c r="D247" t="inlineStr">
         <is>
           <t>280,485</t>
@@ -13296,7 +13788,9 @@
       <c r="B248" t="n">
         <v>2020</v>
       </c>
-      <c r="C248" t="inlineStr"/>
+      <c r="C248" t="n">
+        <v>1180655</v>
+      </c>
       <c r="D248" t="inlineStr">
         <is>
           <t>285,376</t>
@@ -13348,7 +13842,9 @@
       <c r="B249" t="n">
         <v>2021</v>
       </c>
-      <c r="C249" t="inlineStr"/>
+      <c r="C249" t="n">
+        <v>1192271</v>
+      </c>
       <c r="D249" t="inlineStr">
         <is>
           <t>290,545</t>
@@ -13400,7 +13896,9 @@
       <c r="B250" t="n">
         <v>2018</v>
       </c>
-      <c r="C250" t="inlineStr"/>
+      <c r="C250" t="n">
+        <v>111129438</v>
+      </c>
       <c r="D250" t="inlineStr">
         <is>
           <t>23,073,805</t>
@@ -13452,7 +13950,9 @@
       <c r="B251" t="n">
         <v>2019</v>
       </c>
-      <c r="C251" t="inlineStr"/>
+      <c r="C251" t="n">
+        <v>114120594</v>
+      </c>
       <c r="D251" t="inlineStr">
         <is>
           <t>24,222,096</t>
@@ -13504,7 +14004,9 @@
       <c r="B252" t="n">
         <v>2020</v>
       </c>
-      <c r="C252" t="inlineStr"/>
+      <c r="C252" t="n">
+        <v>117190911</v>
+      </c>
       <c r="D252" t="inlineStr">
         <is>
           <t>25,424,568</t>
@@ -13556,7 +14058,9 @@
       <c r="B253" t="n">
         <v>2021</v>
       </c>
-      <c r="C253" t="inlineStr"/>
+      <c r="C253" t="n">
+        <v>120283026</v>
+      </c>
       <c r="D253" t="inlineStr">
         <is>
           <t>26,671,558</t>
@@ -13608,7 +14112,9 @@
       <c r="B254" t="n">
         <v>2018</v>
       </c>
-      <c r="C254" t="inlineStr"/>
+      <c r="C254" t="n">
+        <v>50955</v>
+      </c>
       <c r="D254" t="inlineStr">
         <is>
           <t>21,434</t>
@@ -13660,7 +14166,9 @@
       <c r="B255" t="n">
         <v>2019</v>
       </c>
-      <c r="C255" t="inlineStr"/>
+      <c r="C255" t="n">
+        <v>51681</v>
+      </c>
       <c r="D255" t="inlineStr">
         <is>
           <t>21,822</t>
@@ -13712,7 +14220,9 @@
       <c r="B256" t="n">
         <v>2020</v>
       </c>
-      <c r="C256" t="inlineStr"/>
+      <c r="C256" t="n">
+        <v>52415</v>
+      </c>
       <c r="D256" t="inlineStr">
         <is>
           <t>22,223</t>
@@ -13764,7 +14274,9 @@
       <c r="B257" t="n">
         <v>2021</v>
       </c>
-      <c r="C257" t="inlineStr"/>
+      <c r="C257" t="n">
+        <v>52889</v>
+      </c>
       <c r="D257" t="inlineStr">
         <is>
           <t>22,522</t>
@@ -13816,7 +14328,9 @@
       <c r="B258" t="n">
         <v>2018</v>
       </c>
-      <c r="C258" t="inlineStr"/>
+      <c r="C258" t="n">
+        <v>918996</v>
+      </c>
       <c r="D258" t="inlineStr">
         <is>
           <t>516,917</t>
@@ -13868,7 +14382,9 @@
       <c r="B259" t="n">
         <v>2019</v>
       </c>
-      <c r="C259" t="inlineStr"/>
+      <c r="C259" t="n">
+        <v>918465</v>
+      </c>
       <c r="D259" t="inlineStr">
         <is>
           <t>521,229</t>
@@ -13920,7 +14436,9 @@
       <c r="B260" t="n">
         <v>2020</v>
       </c>
-      <c r="C260" t="inlineStr"/>
+      <c r="C260" t="n">
+        <v>920422</v>
+      </c>
       <c r="D260" t="inlineStr">
         <is>
           <t>526,914</t>
@@ -13972,7 +14490,9 @@
       <c r="B261" t="n">
         <v>2021</v>
       </c>
-      <c r="C261" t="inlineStr"/>
+      <c r="C261" t="n">
+        <v>924610</v>
+      </c>
       <c r="D261" t="inlineStr">
         <is>
           <t>533,870</t>
@@ -14024,7 +14544,9 @@
       <c r="B262" t="n">
         <v>2018</v>
       </c>
-      <c r="C262" t="inlineStr"/>
+      <c r="C262" t="n">
+        <v>5515525</v>
+      </c>
       <c r="D262" t="inlineStr">
         <is>
           <t>4,709,266</t>
@@ -14076,7 +14598,9 @@
       <c r="B263" t="n">
         <v>2019</v>
       </c>
-      <c r="C263" t="inlineStr"/>
+      <c r="C263" t="n">
+        <v>5521606</v>
+      </c>
       <c r="D263" t="inlineStr">
         <is>
           <t>4,717,991</t>
@@ -14128,7 +14652,9 @@
       <c r="B264" t="n">
         <v>2020</v>
       </c>
-      <c r="C264" t="inlineStr"/>
+      <c r="C264" t="n">
+        <v>5529543</v>
+      </c>
       <c r="D264" t="inlineStr">
         <is>
           <t>4,728,699</t>
@@ -14180,7 +14706,9 @@
       <c r="B265" t="n">
         <v>2021</v>
       </c>
-      <c r="C265" t="inlineStr"/>
+      <c r="C265" t="n">
+        <v>5541017</v>
+      </c>
       <c r="D265" t="inlineStr">
         <is>
           <t>4,742,889</t>
@@ -14232,7 +14760,9 @@
       <c r="B266" t="n">
         <v>2018</v>
       </c>
-      <c r="C266" t="inlineStr"/>
+      <c r="C266" t="n">
+        <v>67158348</v>
+      </c>
       <c r="D266" t="inlineStr">
         <is>
           <t>54,024,861</t>
@@ -14284,7 +14814,9 @@
       <c r="B267" t="n">
         <v>2019</v>
       </c>
-      <c r="C267" t="inlineStr"/>
+      <c r="C267" t="n">
+        <v>67388001</v>
+      </c>
       <c r="D267" t="inlineStr">
         <is>
           <t>54,388,182</t>
@@ -14336,7 +14868,9 @@
       <c r="B268" t="n">
         <v>2020</v>
       </c>
-      <c r="C268" t="inlineStr"/>
+      <c r="C268" t="n">
+        <v>67571107</v>
+      </c>
       <c r="D268" t="inlineStr">
         <is>
           <t>54,715,704</t>
@@ -14388,7 +14922,9 @@
       <c r="B269" t="n">
         <v>2021</v>
       </c>
-      <c r="C269" t="inlineStr"/>
+      <c r="C269" t="n">
+        <v>67749632</v>
+      </c>
       <c r="D269" t="inlineStr">
         <is>
           <t>55,041,156</t>
@@ -14440,7 +14976,9 @@
       <c r="B270" t="n">
         <v>2018</v>
       </c>
-      <c r="C270" t="inlineStr"/>
+      <c r="C270" t="n">
+        <v>297606</v>
+      </c>
       <c r="D270" t="inlineStr">
         <is>
           <t>184,022</t>
@@ -14492,7 +15030,9 @@
       <c r="B271" t="n">
         <v>2019</v>
       </c>
-      <c r="C271" t="inlineStr"/>
+      <c r="C271" t="n">
+        <v>299717</v>
+      </c>
       <c r="D271" t="inlineStr">
         <is>
           <t>185,516</t>
@@ -14544,7 +15084,9 @@
       <c r="B272" t="n">
         <v>2020</v>
       </c>
-      <c r="C272" t="inlineStr"/>
+      <c r="C272" t="n">
+        <v>301920</v>
+      </c>
       <c r="D272" t="inlineStr">
         <is>
           <t>187,115</t>
@@ -14596,7 +15138,9 @@
       <c r="B273" t="n">
         <v>2021</v>
       </c>
-      <c r="C273" t="inlineStr"/>
+      <c r="C273" t="n">
+        <v>304032</v>
+      </c>
       <c r="D273" t="inlineStr">
         <is>
           <t>188,701</t>
@@ -14648,7 +15192,9 @@
       <c r="B274" t="n">
         <v>2018</v>
       </c>
-      <c r="C274" t="inlineStr"/>
+      <c r="C274" t="n">
+        <v>2192012</v>
+      </c>
       <c r="D274" t="inlineStr">
         <is>
           <t>1,959,001</t>
@@ -14700,7 +15246,9 @@
       <c r="B275" t="n">
         <v>2019</v>
       </c>
-      <c r="C275" t="inlineStr"/>
+      <c r="C275" t="n">
+        <v>2242785</v>
+      </c>
       <c r="D275" t="inlineStr">
         <is>
           <t>2,012,698</t>
@@ -14752,7 +15300,9 @@
       <c r="B276" t="n">
         <v>2020</v>
       </c>
-      <c r="C276" t="inlineStr"/>
+      <c r="C276" t="n">
+        <v>2292573</v>
+      </c>
       <c r="D276" t="inlineStr">
         <is>
           <t>2,065,425</t>
@@ -14804,7 +15354,9 @@
       <c r="B277" t="n">
         <v>2021</v>
       </c>
-      <c r="C277" t="inlineStr"/>
+      <c r="C277" t="n">
+        <v>2341179</v>
+      </c>
       <c r="D277" t="inlineStr">
         <is>
           <t>2,116,964</t>
@@ -14856,7 +15408,9 @@
       <c r="B278" t="n">
         <v>2018</v>
       </c>
-      <c r="C278" t="inlineStr"/>
+      <c r="C278" t="n">
+        <v>2444916</v>
+      </c>
       <c r="D278" t="inlineStr">
         <is>
           <t>1,498,000</t>
@@ -14908,7 +15462,9 @@
       <c r="B279" t="n">
         <v>2019</v>
       </c>
-      <c r="C279" t="inlineStr"/>
+      <c r="C279" t="n">
+        <v>2508883</v>
+      </c>
       <c r="D279" t="inlineStr">
         <is>
           <t>1,553,776</t>
@@ -14960,7 +15516,9 @@
       <c r="B280" t="n">
         <v>2020</v>
       </c>
-      <c r="C280" t="inlineStr"/>
+      <c r="C280" t="n">
+        <v>2573995</v>
+      </c>
       <c r="D280" t="inlineStr">
         <is>
           <t>1,610,858</t>
@@ -15012,7 +15570,9 @@
       <c r="B281" t="n">
         <v>2021</v>
       </c>
-      <c r="C281" t="inlineStr"/>
+      <c r="C281" t="n">
+        <v>2639916</v>
+      </c>
       <c r="D281" t="inlineStr">
         <is>
           <t>1,669,008</t>
@@ -15064,7 +15624,9 @@
       <c r="B282" t="n">
         <v>2018</v>
       </c>
-      <c r="C282" t="inlineStr"/>
+      <c r="C282" t="n">
+        <v>3726549</v>
+      </c>
       <c r="D282" t="inlineStr">
         <is>
           <t>2,184,950</t>
@@ -15116,7 +15678,9 @@
       <c r="B283" t="n">
         <v>2019</v>
       </c>
-      <c r="C283" t="inlineStr"/>
+      <c r="C283" t="n">
+        <v>3720161</v>
+      </c>
       <c r="D283" t="inlineStr">
         <is>
           <t>2,196,346</t>
@@ -15168,7 +15732,9 @@
       <c r="B284" t="n">
         <v>2020</v>
       </c>
-      <c r="C284" t="inlineStr"/>
+      <c r="C284" t="n">
+        <v>3722716</v>
+      </c>
       <c r="D284" t="inlineStr">
         <is>
           <t>2,213,266</t>
@@ -15220,7 +15786,9 @@
       <c r="B285" t="n">
         <v>2021</v>
       </c>
-      <c r="C285" t="inlineStr"/>
+      <c r="C285" t="n">
+        <v>3708610</v>
+      </c>
       <c r="D285" t="inlineStr">
         <is>
           <t>2,220,419</t>
@@ -15272,7 +15840,9 @@
       <c r="B286" t="n">
         <v>2018</v>
       </c>
-      <c r="C286" t="inlineStr"/>
+      <c r="C286" t="n">
+        <v>82905782</v>
+      </c>
       <c r="D286" t="inlineStr">
         <is>
           <t>64,096,118</t>
@@ -15324,7 +15894,9 @@
       <c r="B287" t="n">
         <v>2019</v>
       </c>
-      <c r="C287" t="inlineStr"/>
+      <c r="C287" t="n">
+        <v>83092962</v>
+      </c>
       <c r="D287" t="inlineStr">
         <is>
           <t>64,294,010</t>
@@ -15376,7 +15948,9 @@
       <c r="B288" t="n">
         <v>2020</v>
       </c>
-      <c r="C288" t="inlineStr"/>
+      <c r="C288" t="n">
+        <v>83160871</v>
+      </c>
       <c r="D288" t="inlineStr">
         <is>
           <t>64,410,589</t>
@@ -15428,7 +16002,9 @@
       <c r="B289" t="n">
         <v>2021</v>
       </c>
-      <c r="C289" t="inlineStr"/>
+      <c r="C289" t="n">
+        <v>83196078</v>
+      </c>
       <c r="D289" t="inlineStr">
         <is>
           <t>64,513,567</t>
@@ -15480,7 +16056,9 @@
       <c r="B290" t="n">
         <v>2018</v>
       </c>
-      <c r="C290" t="inlineStr"/>
+      <c r="C290" t="n">
+        <v>30870641</v>
+      </c>
       <c r="D290" t="inlineStr">
         <is>
           <t>17,306,081</t>
@@ -15532,7 +16110,9 @@
       <c r="B291" t="n">
         <v>2019</v>
       </c>
-      <c r="C291" t="inlineStr"/>
+      <c r="C291" t="n">
+        <v>31522290</v>
+      </c>
       <c r="D291" t="inlineStr">
         <is>
           <t>17,875,345</t>
@@ -15584,7 +16164,9 @@
       <c r="B292" t="n">
         <v>2020</v>
       </c>
-      <c r="C292" t="inlineStr"/>
+      <c r="C292" t="n">
+        <v>32180401</v>
+      </c>
       <c r="D292" t="inlineStr">
         <is>
           <t>18,455,138</t>
@@ -15636,7 +16218,9 @@
       <c r="B293" t="n">
         <v>2021</v>
       </c>
-      <c r="C293" t="inlineStr"/>
+      <c r="C293" t="n">
+        <v>32833031</v>
+      </c>
       <c r="D293" t="inlineStr">
         <is>
           <t>19,038,233</t>
@@ -15688,7 +16272,9 @@
       <c r="B294" t="n">
         <v>2018</v>
       </c>
-      <c r="C294" t="inlineStr"/>
+      <c r="C294" t="n">
+        <v>32648</v>
+      </c>
       <c r="D294" t="inlineStr">
         <is>
           <t>32,648</t>
@@ -15740,7 +16326,9 @@
       <c r="B295" t="n">
         <v>2019</v>
       </c>
-      <c r="C295" t="inlineStr"/>
+      <c r="C295" t="n">
+        <v>32685</v>
+      </c>
       <c r="D295" t="inlineStr">
         <is>
           <t>32,685</t>
@@ -15792,7 +16380,9 @@
       <c r="B296" t="n">
         <v>2020</v>
       </c>
-      <c r="C296" t="inlineStr"/>
+      <c r="C296" t="n">
+        <v>32709</v>
+      </c>
       <c r="D296" t="inlineStr">
         <is>
           <t>32,709</t>
@@ -15844,7 +16434,9 @@
       <c r="B297" t="n">
         <v>2021</v>
       </c>
-      <c r="C297" t="inlineStr"/>
+      <c r="C297" t="n">
+        <v>32669</v>
+      </c>
       <c r="D297" t="inlineStr">
         <is>
           <t>32,669</t>
@@ -15896,7 +16488,9 @@
       <c r="B298" t="n">
         <v>2018</v>
       </c>
-      <c r="C298" t="inlineStr"/>
+      <c r="C298" t="n">
+        <v>10732882</v>
+      </c>
       <c r="D298" t="inlineStr">
         <is>
           <t>8,485,202</t>
@@ -15948,7 +16542,9 @@
       <c r="B299" t="n">
         <v>2019</v>
       </c>
-      <c r="C299" t="inlineStr"/>
+      <c r="C299" t="n">
+        <v>10721582</v>
+      </c>
       <c r="D299" t="inlineStr">
         <is>
           <t>8,511,650</t>
@@ -16000,7 +16596,9 @@
       <c r="B300" t="n">
         <v>2020</v>
       </c>
-      <c r="C300" t="inlineStr"/>
+      <c r="C300" t="n">
+        <v>10698599</v>
+      </c>
       <c r="D300" t="inlineStr">
         <is>
           <t>8,528,388</t>
@@ -16052,7 +16650,9 @@
       <c r="B301" t="n">
         <v>2021</v>
       </c>
-      <c r="C301" t="inlineStr"/>
+      <c r="C301" t="n">
+        <v>10641221</v>
+      </c>
       <c r="D301" t="inlineStr">
         <is>
           <t>8,517,020</t>
@@ -16104,7 +16704,9 @@
       <c r="B302" t="n">
         <v>2018</v>
       </c>
-      <c r="C302" t="inlineStr"/>
+      <c r="C302" t="n">
+        <v>56023</v>
+      </c>
       <c r="D302" t="inlineStr">
         <is>
           <t>48,637</t>
@@ -16156,7 +16758,9 @@
       <c r="B303" t="n">
         <v>2019</v>
       </c>
-      <c r="C303" t="inlineStr"/>
+      <c r="C303" t="n">
+        <v>56225</v>
+      </c>
       <c r="D303" t="inlineStr">
         <is>
           <t>48,945</t>
@@ -16208,7 +16812,9 @@
       <c r="B304" t="n">
         <v>2020</v>
       </c>
-      <c r="C304" t="inlineStr"/>
+      <c r="C304" t="n">
+        <v>56367</v>
+      </c>
       <c r="D304" t="inlineStr">
         <is>
           <t>49,198</t>
@@ -16260,7 +16866,9 @@
       <c r="B305" t="n">
         <v>2021</v>
       </c>
-      <c r="C305" t="inlineStr"/>
+      <c r="C305" t="n">
+        <v>56653</v>
+      </c>
       <c r="D305" t="inlineStr">
         <is>
           <t>49,575</t>
@@ -16312,7 +16920,9 @@
       <c r="B306" t="n">
         <v>2018</v>
       </c>
-      <c r="C306" t="inlineStr"/>
+      <c r="C306" t="n">
+        <v>121838</v>
+      </c>
       <c r="D306" t="inlineStr">
         <is>
           <t>44,193</t>
@@ -16364,7 +16974,9 @@
       <c r="B307" t="n">
         <v>2019</v>
       </c>
-      <c r="C307" t="inlineStr"/>
+      <c r="C307" t="n">
+        <v>122724</v>
+      </c>
       <c r="D307" t="inlineStr">
         <is>
           <t>44,667</t>
@@ -16416,7 +17028,9 @@
       <c r="B308" t="n">
         <v>2020</v>
       </c>
-      <c r="C308" t="inlineStr"/>
+      <c r="C308" t="n">
+        <v>123663</v>
+      </c>
       <c r="D308" t="inlineStr">
         <is>
           <t>45,183</t>
@@ -16468,7 +17082,9 @@
       <c r="B309" t="n">
         <v>2021</v>
       </c>
-      <c r="C309" t="inlineStr"/>
+      <c r="C309" t="n">
+        <v>124610</v>
+      </c>
       <c r="D309" t="inlineStr">
         <is>
           <t>45,724</t>
@@ -16520,7 +17136,9 @@
       <c r="B310" t="n">
         <v>2018</v>
       </c>
-      <c r="C310" t="inlineStr"/>
+      <c r="C310" t="n">
+        <v>168678</v>
+      </c>
       <c r="D310" t="inlineStr">
         <is>
           <t>159,873</t>
@@ -16572,7 +17190,9 @@
       <c r="B311" t="n">
         <v>2019</v>
       </c>
-      <c r="C311" t="inlineStr"/>
+      <c r="C311" t="n">
+        <v>168624</v>
+      </c>
       <c r="D311" t="inlineStr">
         <is>
           <t>159,955</t>
@@ -16624,7 +17244,9 @@
       <c r="B312" t="n">
         <v>2020</v>
       </c>
-      <c r="C312" t="inlineStr"/>
+      <c r="C312" t="n">
+        <v>169231</v>
+      </c>
       <c r="D312" t="inlineStr">
         <is>
           <t>160,665</t>
@@ -16676,7 +17298,9 @@
       <c r="B313" t="n">
         <v>2021</v>
       </c>
-      <c r="C313" t="inlineStr"/>
+      <c r="C313" t="n">
+        <v>170534</v>
+      </c>
       <c r="D313" t="inlineStr">
         <is>
           <t>162,033</t>
@@ -16728,7 +17352,9 @@
       <c r="B314" t="n">
         <v>2018</v>
       </c>
-      <c r="C314" t="inlineStr"/>
+      <c r="C314" t="n">
+        <v>16346950</v>
+      </c>
       <c r="D314" t="inlineStr">
         <is>
           <t>8,345,772</t>
@@ -16780,7 +17406,9 @@
       <c r="B315" t="n">
         <v>2019</v>
       </c>
-      <c r="C315" t="inlineStr"/>
+      <c r="C315" t="n">
+        <v>16604026</v>
+      </c>
       <c r="D315" t="inlineStr">
         <is>
           <t>8,540,945</t>
@@ -16832,7 +17460,9 @@
       <c r="B316" t="n">
         <v>2020</v>
       </c>
-      <c r="C316" t="inlineStr"/>
+      <c r="C316" t="n">
+        <v>16858333</v>
+      </c>
       <c r="D316" t="inlineStr">
         <is>
           <t>8,738,685</t>
@@ -16884,7 +17514,9 @@
       <c r="B317" t="n">
         <v>2021</v>
       </c>
-      <c r="C317" t="inlineStr"/>
+      <c r="C317" t="n">
+        <v>17109746</v>
+      </c>
       <c r="D317" t="inlineStr">
         <is>
           <t>8,938,987</t>
@@ -16936,7 +17568,9 @@
       <c r="B318" t="n">
         <v>2018</v>
       </c>
-      <c r="C318" t="inlineStr"/>
+      <c r="C318" t="n">
+        <v>12554864</v>
+      </c>
       <c r="D318" t="inlineStr">
         <is>
           <t>4,537,328</t>
@@ -16988,7 +17622,9 @@
       <c r="B319" t="n">
         <v>2019</v>
       </c>
-      <c r="C319" t="inlineStr"/>
+      <c r="C319" t="n">
+        <v>12877539</v>
+      </c>
       <c r="D319" t="inlineStr">
         <is>
           <t>4,700,302</t>
@@ -17040,7 +17676,9 @@
       <c r="B320" t="n">
         <v>2020</v>
       </c>
-      <c r="C320" t="inlineStr"/>
+      <c r="C320" t="n">
+        <v>13205153</v>
+      </c>
       <c r="D320" t="inlineStr">
         <is>
           <t>4,869,400</t>
@@ -17092,7 +17730,9 @@
       <c r="B321" t="n">
         <v>2021</v>
       </c>
-      <c r="C321" t="inlineStr"/>
+      <c r="C321" t="n">
+        <v>13531906</v>
+      </c>
       <c r="D321" t="inlineStr">
         <is>
           <t>5,042,529</t>
@@ -17144,7 +17784,9 @@
       <c r="B322" t="n">
         <v>2018</v>
       </c>
-      <c r="C322" t="inlineStr"/>
+      <c r="C322" t="n">
+        <v>1924955</v>
+      </c>
       <c r="D322" t="inlineStr">
         <is>
           <t>834,660</t>
@@ -17196,7 +17838,9 @@
       <c r="B323" t="n">
         <v>2019</v>
       </c>
-      <c r="C323" t="inlineStr"/>
+      <c r="C323" t="n">
+        <v>1970457</v>
+      </c>
       <c r="D323" t="inlineStr">
         <is>
           <t>862,607</t>
@@ -17248,7 +17892,9 @@
       <c r="B324" t="n">
         <v>2020</v>
       </c>
-      <c r="C324" t="inlineStr"/>
+      <c r="C324" t="n">
+        <v>2015828</v>
+      </c>
       <c r="D324" t="inlineStr">
         <is>
           <t>890,915</t>
@@ -17300,7 +17946,9 @@
       <c r="B325" t="n">
         <v>2021</v>
       </c>
-      <c r="C325" t="inlineStr"/>
+      <c r="C325" t="n">
+        <v>2060721</v>
+      </c>
       <c r="D325" t="inlineStr">
         <is>
           <t>919,432</t>
@@ -17352,7 +18000,9 @@
       <c r="B326" t="n">
         <v>2018</v>
       </c>
-      <c r="C326" t="inlineStr"/>
+      <c r="C326" t="n">
+        <v>785514</v>
+      </c>
       <c r="D326" t="inlineStr">
         <is>
           <t>208,994</t>
@@ -17404,7 +18054,9 @@
       <c r="B327" t="n">
         <v>2019</v>
       </c>
-      <c r="C327" t="inlineStr"/>
+      <c r="C327" t="n">
+        <v>798753</v>
+      </c>
       <c r="D327" t="inlineStr">
         <is>
           <t>213,179</t>
@@ -17456,7 +18108,9 @@
       <c r="B328" t="n">
         <v>2020</v>
       </c>
-      <c r="C328" t="inlineStr"/>
+      <c r="C328" t="n">
+        <v>797202</v>
+      </c>
       <c r="D328" t="inlineStr">
         <is>
           <t>213,539</t>
@@ -17508,7 +18162,9 @@
       <c r="B329" t="n">
         <v>2021</v>
       </c>
-      <c r="C329" t="inlineStr"/>
+      <c r="C329" t="n">
+        <v>804567</v>
+      </c>
       <c r="D329" t="inlineStr">
         <is>
           <t>216,404</t>
@@ -17560,7 +18216,9 @@
       <c r="B330" t="n">
         <v>2018</v>
       </c>
-      <c r="C330" t="inlineStr"/>
+      <c r="C330" t="n">
+        <v>11012421</v>
+      </c>
       <c r="D330" t="inlineStr">
         <is>
           <t>6,087,446</t>
@@ -17612,7 +18270,9 @@
       <c r="B331" t="n">
         <v>2019</v>
       </c>
-      <c r="C331" t="inlineStr"/>
+      <c r="C331" t="n">
+        <v>11160438</v>
+      </c>
       <c r="D331" t="inlineStr">
         <is>
           <t>6,271,273</t>
@@ -17664,7 +18324,9 @@
       <c r="B332" t="n">
         <v>2020</v>
       </c>
-      <c r="C332" t="inlineStr"/>
+      <c r="C332" t="n">
+        <v>11306801</v>
+      </c>
       <c r="D332" t="inlineStr">
         <is>
           <t>6,454,827</t>
@@ -17716,7 +18378,9 @@
       <c r="B333" t="n">
         <v>2021</v>
       </c>
-      <c r="C333" t="inlineStr"/>
+      <c r="C333" t="n">
+        <v>11447569</v>
+      </c>
       <c r="D333" t="inlineStr">
         <is>
           <t>6,635,469</t>
@@ -17768,7 +18432,9 @@
       <c r="B334" t="n">
         <v>2018</v>
       </c>
-      <c r="C334" t="inlineStr"/>
+      <c r="C334" t="n">
+        <v>9792850</v>
+      </c>
       <c r="D334" t="inlineStr">
         <is>
           <t>5,591,326</t>
@@ -17820,7 +18486,9 @@
       <c r="B335" t="n">
         <v>2019</v>
       </c>
-      <c r="C335" t="inlineStr"/>
+      <c r="C335" t="n">
+        <v>9958829</v>
+      </c>
       <c r="D335" t="inlineStr">
         <is>
           <t>5,749,232</t>
@@ -17872,7 +18540,9 @@
       <c r="B336" t="n">
         <v>2020</v>
       </c>
-      <c r="C336" t="inlineStr"/>
+      <c r="C336" t="n">
+        <v>10121763</v>
+      </c>
       <c r="D336" t="inlineStr">
         <is>
           <t>5,906,960</t>
@@ -17924,7 +18594,9 @@
       <c r="B337" t="n">
         <v>2021</v>
       </c>
-      <c r="C337" t="inlineStr"/>
+      <c r="C337" t="n">
+        <v>10278345</v>
+      </c>
       <c r="D337" t="inlineStr">
         <is>
           <t>6,062,373</t>
@@ -17976,7 +18648,9 @@
       <c r="B338" t="n">
         <v>2018</v>
       </c>
-      <c r="C338" t="inlineStr"/>
+      <c r="C338" t="n">
+        <v>7452600</v>
+      </c>
       <c r="D338" t="inlineStr">
         <is>
           <t>7,452,600</t>
@@ -18028,7 +18702,9 @@
       <c r="B339" t="n">
         <v>2019</v>
       </c>
-      <c r="C339" t="inlineStr"/>
+      <c r="C339" t="n">
+        <v>7507900</v>
+      </c>
       <c r="D339" t="inlineStr">
         <is>
           <t>7,507,900</t>
@@ -18080,7 +18756,9 @@
       <c r="B340" t="n">
         <v>2020</v>
       </c>
-      <c r="C340" t="inlineStr"/>
+      <c r="C340" t="n">
+        <v>7481000</v>
+      </c>
       <c r="D340" t="inlineStr">
         <is>
           <t>7,481,000</t>
@@ -18132,7 +18810,9 @@
       <c r="B341" t="n">
         <v>2021</v>
       </c>
-      <c r="C341" t="inlineStr"/>
+      <c r="C341" t="n">
+        <v>7413100</v>
+      </c>
       <c r="D341" t="inlineStr">
         <is>
           <t>7,413,100</t>
@@ -18184,7 +18864,9 @@
       <c r="B342" t="n">
         <v>2018</v>
       </c>
-      <c r="C342" t="inlineStr"/>
+      <c r="C342" t="n">
+        <v>9775564</v>
+      </c>
       <c r="D342" t="inlineStr">
         <is>
           <t>6,974,963</t>
@@ -18236,7 +18918,9 @@
       <c r="B343" t="n">
         <v>2019</v>
       </c>
-      <c r="C343" t="inlineStr"/>
+      <c r="C343" t="n">
+        <v>9771141</v>
+      </c>
       <c r="D343" t="inlineStr">
         <is>
           <t>7,000,436</t>
@@ -18288,7 +18972,9 @@
       <c r="B344" t="n">
         <v>2020</v>
       </c>
-      <c r="C344" t="inlineStr"/>
+      <c r="C344" t="n">
+        <v>9750149</v>
+      </c>
       <c r="D344" t="inlineStr">
         <is>
           <t>7,014,452</t>
@@ -18340,7 +19026,9 @@
       <c r="B345" t="n">
         <v>2021</v>
       </c>
-      <c r="C345" t="inlineStr"/>
+      <c r="C345" t="n">
+        <v>9709891</v>
+      </c>
       <c r="D345" t="inlineStr">
         <is>
           <t>7,014,911</t>
@@ -18392,7 +19080,9 @@
       <c r="B346" t="n">
         <v>2018</v>
       </c>
-      <c r="C346" t="inlineStr"/>
+      <c r="C346" t="n">
+        <v>352721</v>
+      </c>
       <c r="D346" t="inlineStr">
         <is>
           <t>330,898</t>
@@ -18444,7 +19134,9 @@
       <c r="B347" t="n">
         <v>2019</v>
       </c>
-      <c r="C347" t="inlineStr"/>
+      <c r="C347" t="n">
+        <v>360563</v>
+      </c>
       <c r="D347" t="inlineStr">
         <is>
           <t>338,406</t>
@@ -18496,7 +19188,9 @@
       <c r="B348" t="n">
         <v>2020</v>
       </c>
-      <c r="C348" t="inlineStr"/>
+      <c r="C348" t="n">
+        <v>366463</v>
+      </c>
       <c r="D348" t="inlineStr">
         <is>
           <t>344,101</t>
@@ -18548,7 +19242,9 @@
       <c r="B349" t="n">
         <v>2021</v>
       </c>
-      <c r="C349" t="inlineStr"/>
+      <c r="C349" t="n">
+        <v>372520</v>
+      </c>
       <c r="D349" t="inlineStr">
         <is>
           <t>349,960</t>
@@ -18600,7 +19296,9 @@
       <c r="B350" t="n">
         <v>2018</v>
       </c>
-      <c r="C350" t="inlineStr"/>
+      <c r="C350" t="n">
+        <v>1369003306</v>
+      </c>
       <c r="D350" t="inlineStr">
         <is>
           <t>465,871,825</t>
@@ -18652,7 +19350,9 @@
       <c r="B351" t="n">
         <v>2019</v>
       </c>
-      <c r="C351" t="inlineStr"/>
+      <c r="C351" t="n">
+        <v>1383112050</v>
+      </c>
       <c r="D351" t="inlineStr">
         <is>
           <t>476,786,386</t>
@@ -18704,7 +19404,9 @@
       <c r="B352" t="n">
         <v>2020</v>
       </c>
-      <c r="C352" t="inlineStr"/>
+      <c r="C352" t="n">
+        <v>1396387127</v>
+      </c>
       <c r="D352" t="inlineStr">
         <is>
           <t>487,702,168</t>
@@ -18756,7 +19458,9 @@
       <c r="B353" t="n">
         <v>2021</v>
       </c>
-      <c r="C353" t="inlineStr"/>
+      <c r="C353" t="n">
+        <v>1407563842</v>
+      </c>
       <c r="D353" t="inlineStr">
         <is>
           <t>498,179,071</t>
@@ -18808,7 +19512,9 @@
       <c r="B354" t="n">
         <v>2018</v>
       </c>
-      <c r="C354" t="inlineStr"/>
+      <c r="C354" t="n">
+        <v>267066843</v>
+      </c>
       <c r="D354" t="inlineStr">
         <is>
           <t>147,754,731</t>
@@ -18860,7 +19566,9 @@
       <c r="B355" t="n">
         <v>2019</v>
       </c>
-      <c r="C355" t="inlineStr"/>
+      <c r="C355" t="n">
+        <v>269582878</v>
+      </c>
       <c r="D355" t="inlineStr">
         <is>
           <t>150,925,974</t>
@@ -18912,7 +19620,9 @@
       <c r="B356" t="n">
         <v>2020</v>
       </c>
-      <c r="C356" t="inlineStr"/>
+      <c r="C356" t="n">
+        <v>271857970</v>
+      </c>
       <c r="D356" t="inlineStr">
         <is>
           <t>153,983,073</t>
@@ -18964,7 +19674,9 @@
       <c r="B357" t="n">
         <v>2021</v>
       </c>
-      <c r="C357" t="inlineStr"/>
+      <c r="C357" t="n">
+        <v>273753191</v>
+      </c>
       <c r="D357" t="inlineStr">
         <is>
           <t>156,833,203</t>
@@ -19016,7 +19728,9 @@
       <c r="B358" t="n">
         <v>2018</v>
       </c>
-      <c r="C358" t="inlineStr"/>
+      <c r="C358" t="n">
+        <v>85617562</v>
+      </c>
       <c r="D358" t="inlineStr">
         <is>
           <t>64,125,842</t>
@@ -19068,7 +19782,9 @@
       <c r="B359" t="n">
         <v>2019</v>
       </c>
-      <c r="C359" t="inlineStr"/>
+      <c r="C359" t="n">
+        <v>86564202</v>
+      </c>
       <c r="D359" t="inlineStr">
         <is>
           <t>65,261,618</t>
@@ -19120,7 +19836,9 @@
       <c r="B360" t="n">
         <v>2020</v>
       </c>
-      <c r="C360" t="inlineStr"/>
+      <c r="C360" t="n">
+        <v>87290193</v>
+      </c>
       <c r="D360" t="inlineStr">
         <is>
           <t>66,230,561</t>
@@ -19172,7 +19890,9 @@
       <c r="B361" t="n">
         <v>2021</v>
       </c>
-      <c r="C361" t="inlineStr"/>
+      <c r="C361" t="n">
+        <v>87923432</v>
+      </c>
       <c r="D361" t="inlineStr">
         <is>
           <t>67,125,144</t>
@@ -19224,7 +19944,9 @@
       <c r="B362" t="n">
         <v>2018</v>
       </c>
-      <c r="C362" t="inlineStr"/>
+      <c r="C362" t="n">
+        <v>40590700</v>
+      </c>
       <c r="D362" t="inlineStr">
         <is>
           <t>28,605,484</t>
@@ -19276,7 +19998,9 @@
       <c r="B363" t="n">
         <v>2019</v>
       </c>
-      <c r="C363" t="inlineStr"/>
+      <c r="C363" t="n">
+        <v>41563520</v>
+      </c>
       <c r="D363" t="inlineStr">
         <is>
           <t>29,376,265</t>
@@ -19328,7 +20052,9 @@
       <c r="B364" t="n">
         <v>2020</v>
       </c>
-      <c r="C364" t="inlineStr"/>
+      <c r="C364" t="n">
+        <v>42556984</v>
+      </c>
       <c r="D364" t="inlineStr">
         <is>
           <t>30,169,923</t>
@@ -19380,7 +20106,9 @@
       <c r="B365" t="n">
         <v>2021</v>
       </c>
-      <c r="C365" t="inlineStr"/>
+      <c r="C365" t="n">
+        <v>43533592</v>
+      </c>
       <c r="D365" t="inlineStr">
         <is>
           <t>30,960,655</t>
@@ -19432,7 +20160,9 @@
       <c r="B366" t="n">
         <v>2018</v>
       </c>
-      <c r="C366" t="inlineStr"/>
+      <c r="C366" t="n">
+        <v>4867316</v>
+      </c>
       <c r="D366" t="inlineStr">
         <is>
           <t>3,074,684</t>
@@ -19484,7 +20214,9 @@
       <c r="B367" t="n">
         <v>2019</v>
       </c>
-      <c r="C367" t="inlineStr"/>
+      <c r="C367" t="n">
+        <v>4934340</v>
+      </c>
       <c r="D367" t="inlineStr">
         <is>
           <t>3,128,618</t>
@@ -19536,7 +20268,9 @@
       <c r="B368" t="n">
         <v>2020</v>
       </c>
-      <c r="C368" t="inlineStr"/>
+      <c r="C368" t="n">
+        <v>4985382</v>
+      </c>
       <c r="D368" t="inlineStr">
         <is>
           <t>3,173,345</t>
@@ -19588,7 +20322,9 @@
       <c r="B369" t="n">
         <v>2021</v>
       </c>
-      <c r="C369" t="inlineStr"/>
+      <c r="C369" t="n">
+        <v>5033165</v>
+      </c>
       <c r="D369" t="inlineStr">
         <is>
           <t>3,216,796</t>
@@ -19640,7 +20376,9 @@
       <c r="B370" t="n">
         <v>2018</v>
       </c>
-      <c r="C370" t="inlineStr"/>
+      <c r="C370" t="n">
+        <v>83775</v>
+      </c>
       <c r="D370" t="inlineStr">
         <is>
           <t>44,056</t>
@@ -19692,7 +20430,9 @@
       <c r="B371" t="n">
         <v>2019</v>
       </c>
-      <c r="C371" t="inlineStr"/>
+      <c r="C371" t="n">
+        <v>83933</v>
+      </c>
       <c r="D371" t="inlineStr">
         <is>
           <t>44,262</t>
@@ -19744,7 +20484,9 @@
       <c r="B372" t="n">
         <v>2020</v>
       </c>
-      <c r="C372" t="inlineStr"/>
+      <c r="C372" t="n">
+        <v>84046</v>
+      </c>
       <c r="D372" t="inlineStr">
         <is>
           <t>44,459</t>
@@ -19796,7 +20538,9 @@
       <c r="B373" t="n">
         <v>2021</v>
       </c>
-      <c r="C373" t="inlineStr"/>
+      <c r="C373" t="n">
+        <v>84263</v>
+      </c>
       <c r="D373" t="inlineStr">
         <is>
           <t>44,723</t>
@@ -19848,7 +20592,9 @@
       <c r="B374" t="n">
         <v>2018</v>
       </c>
-      <c r="C374" t="inlineStr"/>
+      <c r="C374" t="n">
+        <v>8882800</v>
+      </c>
       <c r="D374" t="inlineStr">
         <is>
           <t>8,209,306</t>
@@ -19900,7 +20646,9 @@
       <c r="B375" t="n">
         <v>2019</v>
       </c>
-      <c r="C375" t="inlineStr"/>
+      <c r="C375" t="n">
+        <v>9054000</v>
+      </c>
       <c r="D375" t="inlineStr">
         <is>
           <t>8,375,041</t>
@@ -19952,7 +20700,9 @@
       <c r="B376" t="n">
         <v>2020</v>
       </c>
-      <c r="C376" t="inlineStr"/>
+      <c r="C376" t="n">
+        <v>9215100</v>
+      </c>
       <c r="D376" t="inlineStr">
         <is>
           <t>8,531,985</t>
@@ -20004,7 +20754,9 @@
       <c r="B377" t="n">
         <v>2021</v>
       </c>
-      <c r="C377" t="inlineStr"/>
+      <c r="C377" t="n">
+        <v>9364700</v>
+      </c>
       <c r="D377" t="inlineStr">
         <is>
           <t>8,678,642</t>
@@ -20056,7 +20808,9 @@
       <c r="B378" t="n">
         <v>2018</v>
       </c>
-      <c r="C378" t="inlineStr"/>
+      <c r="C378" t="n">
+        <v>60421760</v>
+      </c>
       <c r="D378" t="inlineStr">
         <is>
           <t>42,559,879</t>
@@ -20108,7 +20862,9 @@
       <c r="B379" t="n">
         <v>2019</v>
       </c>
-      <c r="C379" t="inlineStr"/>
+      <c r="C379" t="n">
+        <v>59729081</v>
+      </c>
       <c r="D379" t="inlineStr">
         <is>
           <t>42,249,963</t>
@@ -20160,7 +20916,9 @@
       <c r="B380" t="n">
         <v>2020</v>
       </c>
-      <c r="C380" t="inlineStr"/>
+      <c r="C380" t="n">
+        <v>59438851</v>
+      </c>
       <c r="D380" t="inlineStr">
         <is>
           <t>42,224,765</t>
@@ -20212,7 +20970,9 @@
       <c r="B381" t="n">
         <v>2021</v>
       </c>
-      <c r="C381" t="inlineStr"/>
+      <c r="C381" t="n">
+        <v>59109668</v>
+      </c>
       <c r="D381" t="inlineStr">
         <is>
           <t>42,172,384</t>
@@ -20264,7 +21024,9 @@
       <c r="B382" t="n">
         <v>2018</v>
       </c>
-      <c r="C382" t="inlineStr"/>
+      <c r="C382" t="n">
+        <v>2811835</v>
+      </c>
       <c r="D382" t="inlineStr">
         <is>
           <t>1,565,461</t>
@@ -20316,7 +21078,9 @@
       <c r="B383" t="n">
         <v>2019</v>
       </c>
-      <c r="C383" t="inlineStr"/>
+      <c r="C383" t="n">
+        <v>2813773</v>
+      </c>
       <c r="D383" t="inlineStr">
         <is>
           <t>1,575,291</t>
@@ -20368,7 +21132,9 @@
       <c r="B384" t="n">
         <v>2020</v>
       </c>
-      <c r="C384" t="inlineStr"/>
+      <c r="C384" t="n">
+        <v>2820436</v>
+      </c>
       <c r="D384" t="inlineStr">
         <is>
           <t>1,588,216</t>
@@ -20420,7 +21186,9 @@
       <c r="B385" t="n">
         <v>2021</v>
       </c>
-      <c r="C385" t="inlineStr"/>
+      <c r="C385" t="n">
+        <v>2827695</v>
+      </c>
       <c r="D385" t="inlineStr">
         <is>
           <t>1,601,946</t>
@@ -20472,7 +21240,9 @@
       <c r="B386" t="n">
         <v>2018</v>
       </c>
-      <c r="C386" t="inlineStr"/>
+      <c r="C386" t="n">
+        <v>126811000</v>
+      </c>
       <c r="D386" t="inlineStr">
         <is>
           <t>116,179,166</t>
@@ -20524,7 +21294,9 @@
       <c r="B387" t="n">
         <v>2019</v>
       </c>
-      <c r="C387" t="inlineStr"/>
+      <c r="C387" t="n">
+        <v>126633000</v>
+      </c>
       <c r="D387" t="inlineStr">
         <is>
           <t>116,119,928</t>
@@ -20576,7 +21348,9 @@
       <c r="B388" t="n">
         <v>2020</v>
       </c>
-      <c r="C388" t="inlineStr"/>
+      <c r="C388" t="n">
+        <v>126261000</v>
+      </c>
       <c r="D388" t="inlineStr">
         <is>
           <t>115,884,871</t>
@@ -20628,7 +21402,9 @@
       <c r="B389" t="n">
         <v>2021</v>
       </c>
-      <c r="C389" t="inlineStr"/>
+      <c r="C389" t="n">
+        <v>125681593</v>
+      </c>
       <c r="D389" t="inlineStr">
         <is>
           <t>115,459,909</t>
@@ -20680,7 +21456,9 @@
       <c r="B390" t="n">
         <v>2018</v>
       </c>
-      <c r="C390" t="inlineStr"/>
+      <c r="C390" t="n">
+        <v>10459865</v>
+      </c>
       <c r="D390" t="inlineStr">
         <is>
           <t>9,516,281</t>
@@ -20732,7 +21510,9 @@
       <c r="B391" t="n">
         <v>2019</v>
       </c>
-      <c r="C391" t="inlineStr"/>
+      <c r="C391" t="n">
+        <v>10698683</v>
+      </c>
       <c r="D391" t="inlineStr">
         <is>
           <t>9,757,520</t>
@@ -20784,7 +21564,9 @@
       <c r="B392" t="n">
         <v>2020</v>
       </c>
-      <c r="C392" t="inlineStr"/>
+      <c r="C392" t="n">
+        <v>10928721</v>
+      </c>
       <c r="D392" t="inlineStr">
         <is>
           <t>9,990,818</t>
@@ -20836,7 +21618,9 @@
       <c r="B393" t="n">
         <v>2021</v>
       </c>
-      <c r="C393" t="inlineStr"/>
+      <c r="C393" t="n">
+        <v>11148278</v>
+      </c>
       <c r="D393" t="inlineStr">
         <is>
           <t>10,214,721</t>
@@ -20888,7 +21672,9 @@
       <c r="B394" t="n">
         <v>2018</v>
       </c>
-      <c r="C394" t="inlineStr"/>
+      <c r="C394" t="n">
+        <v>18276452</v>
+      </c>
       <c r="D394" t="inlineStr">
         <is>
           <t>10,495,801</t>
@@ -20940,7 +21726,9 @@
       <c r="B395" t="n">
         <v>2019</v>
       </c>
-      <c r="C395" t="inlineStr"/>
+      <c r="C395" t="n">
+        <v>18513673</v>
+      </c>
       <c r="D395" t="inlineStr">
         <is>
           <t>10,652,767</t>
@@ -20992,7 +21780,9 @@
       <c r="B396" t="n">
         <v>2020</v>
       </c>
-      <c r="C396" t="inlineStr"/>
+      <c r="C396" t="n">
+        <v>18755666</v>
+      </c>
       <c r="D396" t="inlineStr">
         <is>
           <t>10,816,580</t>
@@ -21044,7 +21834,9 @@
       <c r="B397" t="n">
         <v>2021</v>
       </c>
-      <c r="C397" t="inlineStr"/>
+      <c r="C397" t="n">
+        <v>19000988</v>
+      </c>
       <c r="D397" t="inlineStr">
         <is>
           <t>10,986,561</t>
@@ -21096,7 +21888,9 @@
       <c r="B398" t="n">
         <v>2018</v>
       </c>
-      <c r="C398" t="inlineStr"/>
+      <c r="C398" t="n">
+        <v>49953304</v>
+      </c>
       <c r="D398" t="inlineStr">
         <is>
           <t>13,502,378</t>
@@ -21148,7 +21942,9 @@
       <c r="B399" t="n">
         <v>2019</v>
       </c>
-      <c r="C399" t="inlineStr"/>
+      <c r="C399" t="n">
+        <v>50951450</v>
+      </c>
       <c r="D399" t="inlineStr">
         <is>
           <t>14,015,215</t>
@@ -21200,7 +21996,9 @@
       <c r="B400" t="n">
         <v>2020</v>
       </c>
-      <c r="C400" t="inlineStr"/>
+      <c r="C400" t="n">
+        <v>51985780</v>
+      </c>
       <c r="D400" t="inlineStr">
         <is>
           <t>14,553,419</t>
@@ -21252,7 +22050,9 @@
       <c r="B401" t="n">
         <v>2021</v>
       </c>
-      <c r="C401" t="inlineStr"/>
+      <c r="C401" t="n">
+        <v>53005614</v>
+      </c>
       <c r="D401" t="inlineStr">
         <is>
           <t>15,102,890</t>
@@ -21304,7 +22104,9 @@
       <c r="B402" t="n">
         <v>2018</v>
       </c>
-      <c r="C402" t="inlineStr"/>
+      <c r="C402" t="n">
+        <v>122261</v>
+      </c>
       <c r="D402" t="inlineStr">
         <is>
           <t>66,091</t>
@@ -21356,7 +22158,9 @@
       <c r="B403" t="n">
         <v>2019</v>
       </c>
-      <c r="C403" t="inlineStr"/>
+      <c r="C403" t="n">
+        <v>124241</v>
+      </c>
       <c r="D403" t="inlineStr">
         <is>
           <t>68,128</t>
@@ -21408,7 +22212,9 @@
       <c r="B404" t="n">
         <v>2020</v>
       </c>
-      <c r="C404" t="inlineStr"/>
+      <c r="C404" t="n">
+        <v>126463</v>
+      </c>
       <c r="D404" t="inlineStr">
         <is>
           <t>70,306</t>
@@ -21460,7 +22266,9 @@
       <c r="B405" t="n">
         <v>2021</v>
       </c>
-      <c r="C405" t="inlineStr"/>
+      <c r="C405" t="n">
+        <v>128874</v>
+      </c>
       <c r="D405" t="inlineStr">
         <is>
           <t>72,601</t>
@@ -21512,7 +22320,9 @@
       <c r="B406" t="n">
         <v>2018</v>
       </c>
-      <c r="C406" t="inlineStr"/>
+      <c r="C406" t="n">
+        <v>1797085</v>
+      </c>
       <c r="D406" t="inlineStr">
         <is>
           <t>-</t>
@@ -21564,7 +22374,9 @@
       <c r="B407" t="n">
         <v>2019</v>
       </c>
-      <c r="C407" t="inlineStr"/>
+      <c r="C407" t="n">
+        <v>1788878</v>
+      </c>
       <c r="D407" t="inlineStr">
         <is>
           <t>-</t>
@@ -21616,7 +22428,9 @@
       <c r="B408" t="n">
         <v>2020</v>
       </c>
-      <c r="C408" t="inlineStr"/>
+      <c r="C408" t="n">
+        <v>1790133</v>
+      </c>
       <c r="D408" t="inlineStr">
         <is>
           <t>-</t>
@@ -21668,7 +22482,9 @@
       <c r="B409" t="n">
         <v>2021</v>
       </c>
-      <c r="C409" t="inlineStr"/>
+      <c r="C409" t="n">
+        <v>1786038</v>
+      </c>
       <c r="D409" t="inlineStr">
         <is>
           <t>-</t>
@@ -21720,7 +22536,9 @@
       <c r="B410" t="n">
         <v>2018</v>
       </c>
-      <c r="C410" t="inlineStr"/>
+      <c r="C410" t="n">
+        <v>4317185</v>
+      </c>
       <c r="D410" t="inlineStr">
         <is>
           <t>4,317,185</t>
@@ -21772,7 +22590,9 @@
       <c r="B411" t="n">
         <v>2019</v>
       </c>
-      <c r="C411" t="inlineStr"/>
+      <c r="C411" t="n">
+        <v>4441100</v>
+      </c>
       <c r="D411" t="inlineStr">
         <is>
           <t>4,441,100</t>
@@ -21824,7 +22644,9 @@
       <c r="B412" t="n">
         <v>2020</v>
       </c>
-      <c r="C412" t="inlineStr"/>
+      <c r="C412" t="n">
+        <v>4360444</v>
+      </c>
       <c r="D412" t="inlineStr">
         <is>
           <t>4,360,444</t>
@@ -21876,7 +22698,9 @@
       <c r="B413" t="n">
         <v>2021</v>
       </c>
-      <c r="C413" t="inlineStr"/>
+      <c r="C413" t="n">
+        <v>4250114</v>
+      </c>
       <c r="D413" t="inlineStr">
         <is>
           <t>4,250,114</t>
@@ -21928,7 +22752,9 @@
       <c r="B414" t="n">
         <v>2018</v>
       </c>
-      <c r="C414" t="inlineStr"/>
+      <c r="C414" t="n">
+        <v>6322800</v>
+      </c>
       <c r="D414" t="inlineStr">
         <is>
           <t>2,298,401</t>
@@ -21980,7 +22806,9 @@
       <c r="B415" t="n">
         <v>2019</v>
       </c>
-      <c r="C415" t="inlineStr"/>
+      <c r="C415" t="n">
+        <v>6456200</v>
+      </c>
       <c r="D415" t="inlineStr">
         <is>
           <t>2,362,388</t>
@@ -22032,7 +22860,9 @@
       <c r="B416" t="n">
         <v>2020</v>
       </c>
-      <c r="C416" t="inlineStr"/>
+      <c r="C416" t="n">
+        <v>6579900</v>
+      </c>
       <c r="D416" t="inlineStr">
         <is>
           <t>2,425,088</t>
@@ -22084,7 +22914,9 @@
       <c r="B417" t="n">
         <v>2021</v>
       </c>
-      <c r="C417" t="inlineStr"/>
+      <c r="C417" t="n">
+        <v>6691800</v>
+      </c>
       <c r="D417" t="inlineStr">
         <is>
           <t>2,485,736</t>
@@ -22136,7 +22968,9 @@
       <c r="B418" t="n">
         <v>2018</v>
       </c>
-      <c r="C418" t="inlineStr"/>
+      <c r="C418" t="n">
+        <v>7105006</v>
+      </c>
       <c r="D418" t="inlineStr">
         <is>
           <t>2,487,036</t>
@@ -22188,7 +23022,9 @@
       <c r="B419" t="n">
         <v>2019</v>
       </c>
-      <c r="C419" t="inlineStr"/>
+      <c r="C419" t="n">
+        <v>7212053</v>
+      </c>
       <c r="D419" t="inlineStr">
         <is>
           <t>2,570,736</t>
@@ -22240,7 +23076,9 @@
       <c r="B420" t="n">
         <v>2020</v>
       </c>
-      <c r="C420" t="inlineStr"/>
+      <c r="C420" t="n">
+        <v>7319399</v>
+      </c>
       <c r="D420" t="inlineStr">
         <is>
           <t>2,656,210</t>
@@ -22292,7 +23130,9 @@
       <c r="B421" t="n">
         <v>2021</v>
       </c>
-      <c r="C421" t="inlineStr"/>
+      <c r="C421" t="n">
+        <v>7425057</v>
+      </c>
       <c r="D421" t="inlineStr">
         <is>
           <t>2,742,742</t>
@@ -22344,7 +23184,9 @@
       <c r="B422" t="n">
         <v>2018</v>
       </c>
-      <c r="C422" t="inlineStr"/>
+      <c r="C422" t="n">
+        <v>1927174</v>
+      </c>
       <c r="D422" t="inlineStr">
         <is>
           <t>1,313,215</t>
@@ -22396,7 +23238,9 @@
       <c r="B423" t="n">
         <v>2019</v>
       </c>
-      <c r="C423" t="inlineStr"/>
+      <c r="C423" t="n">
+        <v>1913822</v>
+      </c>
       <c r="D423" t="inlineStr">
         <is>
           <t>1,305,648</t>
@@ -22448,7 +23292,9 @@
       <c r="B424" t="n">
         <v>2020</v>
       </c>
-      <c r="C424" t="inlineStr"/>
+      <c r="C424" t="n">
+        <v>1900449</v>
+      </c>
       <c r="D424" t="inlineStr">
         <is>
           <t>1,298,292</t>
@@ -22500,7 +23346,9 @@
       <c r="B425" t="n">
         <v>2021</v>
       </c>
-      <c r="C425" t="inlineStr"/>
+      <c r="C425" t="n">
+        <v>1884490</v>
+      </c>
       <c r="D425" t="inlineStr">
         <is>
           <t>1,289,387</t>
@@ -22552,7 +23400,9 @@
       <c r="B426" t="n">
         <v>2018</v>
       </c>
-      <c r="C426" t="inlineStr"/>
+      <c r="C426" t="n">
+        <v>5950839</v>
+      </c>
       <c r="D426" t="inlineStr">
         <is>
           <t>5,272,027</t>
@@ -22604,7 +23454,9 @@
       <c r="B427" t="n">
         <v>2019</v>
       </c>
-      <c r="C427" t="inlineStr"/>
+      <c r="C427" t="n">
+        <v>5781907</v>
+      </c>
       <c r="D427" t="inlineStr">
         <is>
           <t>5,131,905</t>
@@ -22656,7 +23508,9 @@
       <c r="B428" t="n">
         <v>2020</v>
       </c>
-      <c r="C428" t="inlineStr"/>
+      <c r="C428" t="n">
+        <v>5662923</v>
+      </c>
       <c r="D428" t="inlineStr">
         <is>
           <t>5,035,754</t>
@@ -22708,7 +23562,9 @@
       <c r="B429" t="n">
         <v>2021</v>
       </c>
-      <c r="C429" t="inlineStr"/>
+      <c r="C429" t="n">
+        <v>5592631</v>
+      </c>
       <c r="D429" t="inlineStr">
         <is>
           <t>4,982,643</t>
@@ -22760,7 +23616,9 @@
       <c r="B430" t="n">
         <v>2018</v>
       </c>
-      <c r="C430" t="inlineStr"/>
+      <c r="C430" t="n">
+        <v>2198017</v>
+      </c>
       <c r="D430" t="inlineStr">
         <is>
           <t>618,808</t>
@@ -22812,7 +23670,9 @@
       <c r="B431" t="n">
         <v>2019</v>
       </c>
-      <c r="C431" t="inlineStr"/>
+      <c r="C431" t="n">
+        <v>2225702</v>
+      </c>
       <c r="D431" t="inlineStr">
         <is>
           <t>636,217</t>
@@ -22864,7 +23724,9 @@
       <c r="B432" t="n">
         <v>2020</v>
       </c>
-      <c r="C432" t="inlineStr"/>
+      <c r="C432" t="n">
+        <v>2254100</v>
+      </c>
       <c r="D432" t="inlineStr">
         <is>
           <t>654,320</t>
@@ -22916,7 +23778,9 @@
       <c r="B433" t="n">
         <v>2021</v>
       </c>
-      <c r="C433" t="inlineStr"/>
+      <c r="C433" t="n">
+        <v>2281454</v>
+      </c>
       <c r="D433" t="inlineStr">
         <is>
           <t>672,573</t>
@@ -22968,7 +23832,9 @@
       <c r="B434" t="n">
         <v>2018</v>
       </c>
-      <c r="C434" t="inlineStr"/>
+      <c r="C434" t="n">
+        <v>4889391</v>
+      </c>
       <c r="D434" t="inlineStr">
         <is>
           <t>2,500,972</t>
@@ -23020,7 +23886,9 @@
       <c r="B435" t="n">
         <v>2019</v>
       </c>
-      <c r="C435" t="inlineStr"/>
+      <c r="C435" t="n">
+        <v>4985289</v>
+      </c>
       <c r="D435" t="inlineStr">
         <is>
           <t>2,573,157</t>
@@ -23072,7 +23940,9 @@
       <c r="B436" t="n">
         <v>2020</v>
       </c>
-      <c r="C436" t="inlineStr"/>
+      <c r="C436" t="n">
+        <v>5087584</v>
+      </c>
       <c r="D436" t="inlineStr">
         <is>
           <t>2,650,072</t>
@@ -23124,7 +23994,9 @@
       <c r="B437" t="n">
         <v>2021</v>
       </c>
-      <c r="C437" t="inlineStr"/>
+      <c r="C437" t="n">
+        <v>5193416</v>
+      </c>
       <c r="D437" t="inlineStr">
         <is>
           <t>2,730,335</t>
@@ -23176,7 +24048,9 @@
       <c r="B438" t="n">
         <v>2018</v>
       </c>
-      <c r="C438" t="inlineStr"/>
+      <c r="C438" t="n">
+        <v>6477793</v>
+      </c>
       <c r="D438" t="inlineStr">
         <is>
           <t>5,188,842</t>
@@ -23228,7 +24102,9 @@
       <c r="B439" t="n">
         <v>2019</v>
       </c>
-      <c r="C439" t="inlineStr"/>
+      <c r="C439" t="n">
+        <v>6569088</v>
+      </c>
       <c r="D439" t="inlineStr">
         <is>
           <t>5,281,087</t>
@@ -23280,7 +24156,9 @@
       <c r="B440" t="n">
         <v>2020</v>
       </c>
-      <c r="C440" t="inlineStr"/>
+      <c r="C440" t="n">
+        <v>6653942</v>
+      </c>
       <c r="D440" t="inlineStr">
         <is>
           <t>5,369,132</t>
@@ -23332,7 +24210,9 @@
       <c r="B441" t="n">
         <v>2021</v>
       </c>
-      <c r="C441" t="inlineStr"/>
+      <c r="C441" t="n">
+        <v>6735277</v>
+      </c>
       <c r="D441" t="inlineStr">
         <is>
           <t>5,455,170</t>
@@ -23384,7 +24264,9 @@
       <c r="B442" t="n">
         <v>2018</v>
       </c>
-      <c r="C442" t="inlineStr"/>
+      <c r="C442" t="n">
+        <v>38181</v>
+      </c>
       <c r="D442" t="inlineStr">
         <is>
           <t>5,474</t>
@@ -23436,7 +24318,9 @@
       <c r="B443" t="n">
         <v>2019</v>
       </c>
-      <c r="C443" t="inlineStr"/>
+      <c r="C443" t="n">
+        <v>38482</v>
+      </c>
       <c r="D443" t="inlineStr">
         <is>
           <t>5,530</t>
@@ -23488,7 +24372,9 @@
       <c r="B444" t="n">
         <v>2020</v>
       </c>
-      <c r="C444" t="inlineStr"/>
+      <c r="C444" t="n">
+        <v>38756</v>
+      </c>
       <c r="D444" t="inlineStr">
         <is>
           <t>5,587</t>
@@ -23540,7 +24426,9 @@
       <c r="B445" t="n">
         <v>2021</v>
       </c>
-      <c r="C445" t="inlineStr"/>
+      <c r="C445" t="n">
+        <v>39039</v>
+      </c>
       <c r="D445" t="inlineStr">
         <is>
           <t>5,649</t>
@@ -23592,7 +24480,9 @@
       <c r="B446" t="n">
         <v>2018</v>
       </c>
-      <c r="C446" t="inlineStr"/>
+      <c r="C446" t="n">
+        <v>2801543</v>
+      </c>
       <c r="D446" t="inlineStr">
         <is>
           <t>1,896,056</t>
@@ -23644,7 +24534,9 @@
       <c r="B447" t="n">
         <v>2019</v>
       </c>
-      <c r="C447" t="inlineStr"/>
+      <c r="C447" t="n">
+        <v>2794137</v>
+      </c>
       <c r="D447" t="inlineStr">
         <is>
           <t>1,895,962</t>
@@ -23696,7 +24588,9 @@
       <c r="B448" t="n">
         <v>2020</v>
       </c>
-      <c r="C448" t="inlineStr"/>
+      <c r="C448" t="n">
+        <v>2794885</v>
+      </c>
       <c r="D448" t="inlineStr">
         <is>
           <t>1,901,807</t>
@@ -23748,7 +24642,9 @@
       <c r="B449" t="n">
         <v>2021</v>
       </c>
-      <c r="C449" t="inlineStr"/>
+      <c r="C449" t="n">
+        <v>2800839</v>
+      </c>
       <c r="D449" t="inlineStr">
         <is>
           <t>1,911,545</t>
@@ -23800,7 +24696,9 @@
       <c r="B450" t="n">
         <v>2018</v>
       </c>
-      <c r="C450" t="inlineStr"/>
+      <c r="C450" t="n">
+        <v>607950</v>
+      </c>
       <c r="D450" t="inlineStr">
         <is>
           <t>553,119</t>
@@ -23852,7 +24750,9 @@
       <c r="B451" t="n">
         <v>2019</v>
       </c>
-      <c r="C451" t="inlineStr"/>
+      <c r="C451" t="n">
+        <v>620001</v>
+      </c>
       <c r="D451" t="inlineStr">
         <is>
           <t>565,584</t>
@@ -23904,7 +24804,9 @@
       <c r="B452" t="n">
         <v>2020</v>
       </c>
-      <c r="C452" t="inlineStr"/>
+      <c r="C452" t="n">
+        <v>630419</v>
+      </c>
       <c r="D452" t="inlineStr">
         <is>
           <t>576,537</t>
@@ -23956,7 +24858,9 @@
       <c r="B453" t="n">
         <v>2021</v>
       </c>
-      <c r="C453" t="inlineStr"/>
+      <c r="C453" t="n">
+        <v>640064</v>
+      </c>
       <c r="D453" t="inlineStr">
         <is>
           <t>586,759</t>
@@ -24008,7 +24912,9 @@
       <c r="B454" t="n">
         <v>2018</v>
       </c>
-      <c r="C454" t="inlineStr"/>
+      <c r="C454" t="n">
+        <v>650991</v>
+      </c>
       <c r="D454" t="inlineStr">
         <is>
           <t>650,991</t>
@@ -24060,7 +24966,9 @@
       <c r="B455" t="n">
         <v>2019</v>
       </c>
-      <c r="C455" t="inlineStr"/>
+      <c r="C455" t="n">
+        <v>663653</v>
+      </c>
       <c r="D455" t="inlineStr">
         <is>
           <t>663,653</t>
@@ -24112,7 +25020,9 @@
       <c r="B456" t="n">
         <v>2020</v>
       </c>
-      <c r="C456" t="inlineStr"/>
+      <c r="C456" t="n">
+        <v>676283</v>
+      </c>
       <c r="D456" t="inlineStr">
         <is>
           <t>676,283</t>
@@ -24164,7 +25074,9 @@
       <c r="B457" t="n">
         <v>2021</v>
       </c>
-      <c r="C457" t="inlineStr"/>
+      <c r="C457" t="n">
+        <v>686607</v>
+      </c>
       <c r="D457" t="inlineStr">
         <is>
           <t>686,607</t>
@@ -24216,7 +25128,9 @@
       <c r="B458" t="n">
         <v>2018</v>
       </c>
-      <c r="C458" t="inlineStr"/>
+      <c r="C458" t="n">
+        <v>26846541</v>
+      </c>
       <c r="D458" t="inlineStr">
         <is>
           <t>9,984,497</t>
@@ -24268,7 +25182,9 @@
       <c r="B459" t="n">
         <v>2019</v>
       </c>
-      <c r="C459" t="inlineStr"/>
+      <c r="C459" t="n">
+        <v>27533134</v>
+      </c>
       <c r="D459" t="inlineStr">
         <is>
           <t>10,424,320</t>
@@ -24320,7 +25236,9 @@
       <c r="B460" t="n">
         <v>2020</v>
       </c>
-      <c r="C460" t="inlineStr"/>
+      <c r="C460" t="n">
+        <v>28225177</v>
+      </c>
       <c r="D460" t="inlineStr">
         <is>
           <t>10,876,290</t>
@@ -24372,7 +25290,9 @@
       <c r="B461" t="n">
         <v>2021</v>
       </c>
-      <c r="C461" t="inlineStr"/>
+      <c r="C461" t="n">
+        <v>28915653</v>
+      </c>
       <c r="D461" t="inlineStr">
         <is>
           <t>11,336,960</t>
@@ -24424,7 +25344,9 @@
       <c r="B462" t="n">
         <v>2018</v>
       </c>
-      <c r="C462" t="inlineStr"/>
+      <c r="C462" t="n">
+        <v>18367883</v>
+      </c>
       <c r="D462" t="inlineStr">
         <is>
           <t>3,110,968</t>
@@ -24476,7 +25398,9 @@
       <c r="B463" t="n">
         <v>2019</v>
       </c>
-      <c r="C463" t="inlineStr"/>
+      <c r="C463" t="n">
+        <v>18867337</v>
+      </c>
       <c r="D463" t="inlineStr">
         <is>
           <t>3,240,276</t>
@@ -24528,7 +25452,9 @@
       <c r="B464" t="n">
         <v>2020</v>
       </c>
-      <c r="C464" t="inlineStr"/>
+      <c r="C464" t="n">
+        <v>19377061</v>
+      </c>
       <c r="D464" t="inlineStr">
         <is>
           <t>3,376,840</t>
@@ -24580,7 +25506,9 @@
       <c r="B465" t="n">
         <v>2021</v>
       </c>
-      <c r="C465" t="inlineStr"/>
+      <c r="C465" t="n">
+        <v>19889742</v>
+      </c>
       <c r="D465" t="inlineStr">
         <is>
           <t>3,519,490</t>
@@ -24632,7 +25560,9 @@
       <c r="B466" t="n">
         <v>2018</v>
       </c>
-      <c r="C466" t="inlineStr"/>
+      <c r="C466" t="n">
+        <v>32399271</v>
+      </c>
       <c r="D466" t="inlineStr">
         <is>
           <t>24,635,110</t>
@@ -24684,7 +25614,9 @@
       <c r="B467" t="n">
         <v>2019</v>
       </c>
-      <c r="C467" t="inlineStr"/>
+      <c r="C467" t="n">
+        <v>32804020</v>
+      </c>
       <c r="D467" t="inlineStr">
         <is>
           <t>25,130,176</t>
@@ -24736,7 +25668,9 @@
       <c r="B468" t="n">
         <v>2020</v>
       </c>
-      <c r="C468" t="inlineStr"/>
+      <c r="C468" t="n">
+        <v>33199993</v>
+      </c>
       <c r="D468" t="inlineStr">
         <is>
           <t>25,617,115</t>
@@ -24788,7 +25722,9 @@
       <c r="B469" t="n">
         <v>2021</v>
       </c>
-      <c r="C469" t="inlineStr"/>
+      <c r="C469" t="n">
+        <v>33573874</v>
+      </c>
       <c r="D469" t="inlineStr">
         <is>
           <t>26,085,557</t>
@@ -24840,7 +25776,9 @@
       <c r="B470" t="n">
         <v>2018</v>
       </c>
-      <c r="C470" t="inlineStr"/>
+      <c r="C470" t="n">
+        <v>489758</v>
+      </c>
       <c r="D470" t="inlineStr">
         <is>
           <t>194,963</t>
@@ -24892,7 +25830,9 @@
       <c r="B471" t="n">
         <v>2019</v>
       </c>
-      <c r="C471" t="inlineStr"/>
+      <c r="C471" t="n">
+        <v>504508</v>
+      </c>
       <c r="D471" t="inlineStr">
         <is>
           <t>203,004</t>
@@ -24944,7 +25884,9 @@
       <c r="B472" t="n">
         <v>2020</v>
       </c>
-      <c r="C472" t="inlineStr"/>
+      <c r="C472" t="n">
+        <v>514438</v>
+      </c>
       <c r="D472" t="inlineStr">
         <is>
           <t>209,217</t>
@@ -24996,7 +25938,9 @@
       <c r="B473" t="n">
         <v>2021</v>
       </c>
-      <c r="C473" t="inlineStr"/>
+      <c r="C473" t="n">
+        <v>521457</v>
+      </c>
       <c r="D473" t="inlineStr">
         <is>
           <t>214,329</t>
@@ -25048,7 +25992,9 @@
       <c r="B474" t="n">
         <v>2018</v>
       </c>
-      <c r="C474" t="inlineStr"/>
+      <c r="C474" t="n">
+        <v>19934298</v>
+      </c>
       <c r="D474" t="inlineStr">
         <is>
           <t>8,443,371</t>
@@ -25100,7 +26046,9 @@
       <c r="B475" t="n">
         <v>2019</v>
       </c>
-      <c r="C475" t="inlineStr"/>
+      <c r="C475" t="n">
+        <v>20567424</v>
+      </c>
       <c r="D475" t="inlineStr">
         <is>
           <t>8,871,964</t>
@@ -25152,7 +26100,9 @@
       <c r="B476" t="n">
         <v>2020</v>
       </c>
-      <c r="C476" t="inlineStr"/>
+      <c r="C476" t="n">
+        <v>21224040</v>
+      </c>
       <c r="D476" t="inlineStr">
         <is>
           <t>9,319,264</t>
@@ -25204,7 +26154,9 @@
       <c r="B477" t="n">
         <v>2021</v>
       </c>
-      <c r="C477" t="inlineStr"/>
+      <c r="C477" t="n">
+        <v>21904983</v>
+      </c>
       <c r="D477" t="inlineStr">
         <is>
           <t>9,786,489</t>
@@ -25256,7 +26208,9 @@
       <c r="B478" t="n">
         <v>2018</v>
       </c>
-      <c r="C478" t="inlineStr"/>
+      <c r="C478" t="n">
+        <v>484630</v>
+      </c>
       <c r="D478" t="inlineStr">
         <is>
           <t>458,518</t>
@@ -25308,7 +26262,9 @@
       <c r="B479" t="n">
         <v>2019</v>
       </c>
-      <c r="C479" t="inlineStr"/>
+      <c r="C479" t="n">
+        <v>504062</v>
+      </c>
       <c r="D479" t="inlineStr">
         <is>
           <t>477,236</t>
@@ -25360,7 +26316,9 @@
       <c r="B480" t="n">
         <v>2020</v>
       </c>
-      <c r="C480" t="inlineStr"/>
+      <c r="C480" t="n">
+        <v>515332</v>
+      </c>
       <c r="D480" t="inlineStr">
         <is>
           <t>488,246</t>
@@ -25412,7 +26370,9 @@
       <c r="B481" t="n">
         <v>2021</v>
       </c>
-      <c r="C481" t="inlineStr"/>
+      <c r="C481" t="n">
+        <v>518536</v>
+      </c>
       <c r="D481" t="inlineStr">
         <is>
           <t>491,624</t>
@@ -25464,7 +26424,9 @@
       <c r="B482" t="n">
         <v>2018</v>
       </c>
-      <c r="C482" t="inlineStr"/>
+      <c r="C482" t="n">
+        <v>45989</v>
+      </c>
       <c r="D482" t="inlineStr">
         <is>
           <t>35,426</t>
@@ -25516,7 +26478,9 @@
       <c r="B483" t="n">
         <v>2019</v>
       </c>
-      <c r="C483" t="inlineStr"/>
+      <c r="C483" t="n">
+        <v>44728</v>
+      </c>
       <c r="D483" t="inlineStr">
         <is>
           <t>34,627</t>
@@ -25568,7 +26532,9 @@
       <c r="B484" t="n">
         <v>2020</v>
       </c>
-      <c r="C484" t="inlineStr"/>
+      <c r="C484" t="n">
+        <v>43413</v>
+      </c>
       <c r="D484" t="inlineStr">
         <is>
           <t>33,773</t>
@@ -25620,7 +26586,9 @@
       <c r="B485" t="n">
         <v>2021</v>
       </c>
-      <c r="C485" t="inlineStr"/>
+      <c r="C485" t="n">
+        <v>42050</v>
+      </c>
       <c r="D485" t="inlineStr">
         <is>
           <t>32,867</t>
@@ -25672,7 +26640,9 @@
       <c r="B486" t="n">
         <v>2018</v>
       </c>
-      <c r="C486" t="inlineStr"/>
+      <c r="C486" t="n">
+        <v>4270712</v>
+      </c>
       <c r="D486" t="inlineStr">
         <is>
           <t>2,292,177</t>
@@ -25724,7 +26694,9 @@
       <c r="B487" t="n">
         <v>2019</v>
       </c>
-      <c r="C487" t="inlineStr"/>
+      <c r="C487" t="n">
+        <v>4383849</v>
+      </c>
       <c r="D487" t="inlineStr">
         <is>
           <t>2,389,505</t>
@@ -25776,7 +26748,9 @@
       <c r="B488" t="n">
         <v>2020</v>
       </c>
-      <c r="C488" t="inlineStr"/>
+      <c r="C488" t="n">
+        <v>4498604</v>
+      </c>
       <c r="D488" t="inlineStr">
         <is>
           <t>2,488,943</t>
@@ -25828,7 +26802,9 @@
       <c r="B489" t="n">
         <v>2021</v>
       </c>
-      <c r="C489" t="inlineStr"/>
+      <c r="C489" t="n">
+        <v>4614974</v>
+      </c>
       <c r="D489" t="inlineStr">
         <is>
           <t>2,590,523</t>
@@ -25880,7 +26856,9 @@
       <c r="B490" t="n">
         <v>2018</v>
       </c>
-      <c r="C490" t="inlineStr"/>
+      <c r="C490" t="n">
+        <v>1265577</v>
+      </c>
       <c r="D490" t="inlineStr">
         <is>
           <t>516,267</t>
@@ -25932,7 +26910,9 @@
       <c r="B491" t="n">
         <v>2019</v>
       </c>
-      <c r="C491" t="inlineStr"/>
+      <c r="C491" t="n">
+        <v>1265985</v>
+      </c>
       <c r="D491" t="inlineStr">
         <is>
           <t>516,091</t>
@@ -25984,7 +26964,9 @@
       <c r="B492" t="n">
         <v>2020</v>
       </c>
-      <c r="C492" t="inlineStr"/>
+      <c r="C492" t="n">
+        <v>1266014</v>
+      </c>
       <c r="D492" t="inlineStr">
         <is>
           <t>516,027</t>
@@ -26036,7 +27018,9 @@
       <c r="B493" t="n">
         <v>2021</v>
       </c>
-      <c r="C493" t="inlineStr"/>
+      <c r="C493" t="n">
+        <v>1266334</v>
+      </c>
       <c r="D493" t="inlineStr">
         <is>
           <t>516,348</t>
@@ -26088,7 +27072,9 @@
       <c r="B494" t="n">
         <v>2018</v>
       </c>
-      <c r="C494" t="inlineStr"/>
+      <c r="C494" t="n">
+        <v>124013861</v>
+      </c>
       <c r="D494" t="inlineStr">
         <is>
           <t>99,404,550</t>
@@ -26140,7 +27126,9 @@
       <c r="B495" t="n">
         <v>2019</v>
       </c>
-      <c r="C495" t="inlineStr"/>
+      <c r="C495" t="n">
+        <v>125085311</v>
+      </c>
       <c r="D495" t="inlineStr">
         <is>
           <t>100,623,628</t>
@@ -26192,7 +27180,9 @@
       <c r="B496" t="n">
         <v>2020</v>
       </c>
-      <c r="C496" t="inlineStr"/>
+      <c r="C496" t="n">
+        <v>125998302</v>
+      </c>
       <c r="D496" t="inlineStr">
         <is>
           <t>101,719,689</t>
@@ -26244,7 +27234,9 @@
       <c r="B497" t="n">
         <v>2021</v>
       </c>
-      <c r="C497" t="inlineStr"/>
+      <c r="C497" t="n">
+        <v>126705138</v>
+      </c>
       <c r="D497" t="inlineStr">
         <is>
           <t>102,651,435</t>
@@ -26296,7 +27288,9 @@
       <c r="B498" t="n">
         <v>2018</v>
       </c>
-      <c r="C498" t="inlineStr"/>
+      <c r="C498" t="n">
+        <v>110929</v>
+      </c>
       <c r="D498" t="inlineStr">
         <is>
           <t>25,184</t>
@@ -26348,7 +27342,9 @@
       <c r="B499" t="n">
         <v>2019</v>
       </c>
-      <c r="C499" t="inlineStr"/>
+      <c r="C499" t="n">
+        <v>111379</v>
+      </c>
       <c r="D499" t="inlineStr">
         <is>
           <t>25,408</t>
@@ -26400,7 +27396,9 @@
       <c r="B500" t="n">
         <v>2020</v>
       </c>
-      <c r="C500" t="inlineStr"/>
+      <c r="C500" t="n">
+        <v>112106</v>
+      </c>
       <c r="D500" t="inlineStr">
         <is>
           <t>25,709</t>
@@ -26452,7 +27450,9 @@
       <c r="B501" t="n">
         <v>2021</v>
       </c>
-      <c r="C501" t="inlineStr"/>
+      <c r="C501" t="n">
+        <v>113131</v>
+      </c>
       <c r="D501" t="inlineStr">
         <is>
           <t>26,097</t>
@@ -26504,7 +27504,9 @@
       <c r="B502" t="n">
         <v>2018</v>
       </c>
-      <c r="C502" t="inlineStr"/>
+      <c r="C502" t="n">
+        <v>2707203</v>
+      </c>
       <c r="D502" t="inlineStr">
         <is>
           <t>1,154,054</t>
@@ -26556,7 +27558,9 @@
       <c r="B503" t="n">
         <v>2019</v>
       </c>
-      <c r="C503" t="inlineStr"/>
+      <c r="C503" t="n">
+        <v>2664224</v>
+      </c>
       <c r="D503" t="inlineStr">
         <is>
           <t>1,138,316</t>
@@ -26608,7 +27612,9 @@
       <c r="B504" t="n">
         <v>2020</v>
       </c>
-      <c r="C504" t="inlineStr"/>
+      <c r="C504" t="n">
+        <v>2635130</v>
+      </c>
       <c r="D504" t="inlineStr">
         <is>
           <t>1,129,127</t>
@@ -26660,7 +27666,9 @@
       <c r="B505" t="n">
         <v>2021</v>
       </c>
-      <c r="C505" t="inlineStr"/>
+      <c r="C505" t="n">
+        <v>2615199</v>
+      </c>
       <c r="D505" t="inlineStr">
         <is>
           <t>1,124,483</t>
@@ -26712,7 +27720,9 @@
       <c r="B506" t="n">
         <v>2018</v>
       </c>
-      <c r="C506" t="inlineStr"/>
+      <c r="C506" t="n">
+        <v>37029</v>
+      </c>
       <c r="D506" t="inlineStr">
         <is>
           <t>37,029</t>
@@ -26764,7 +27774,9 @@
       <c r="B507" t="n">
         <v>2019</v>
       </c>
-      <c r="C507" t="inlineStr"/>
+      <c r="C507" t="n">
+        <v>37034</v>
+      </c>
       <c r="D507" t="inlineStr">
         <is>
           <t>37,034</t>
@@ -26816,7 +27828,9 @@
       <c r="B508" t="n">
         <v>2020</v>
       </c>
-      <c r="C508" t="inlineStr"/>
+      <c r="C508" t="n">
+        <v>36922</v>
+      </c>
       <c r="D508" t="inlineStr">
         <is>
           <t>36,922</t>
@@ -26868,7 +27882,9 @@
       <c r="B509" t="n">
         <v>2021</v>
       </c>
-      <c r="C509" t="inlineStr"/>
+      <c r="C509" t="n">
+        <v>36686</v>
+      </c>
       <c r="D509" t="inlineStr">
         <is>
           <t>36,686</t>
@@ -26920,7 +27936,9 @@
       <c r="B510" t="n">
         <v>2018</v>
       </c>
-      <c r="C510" t="inlineStr"/>
+      <c r="C510" t="n">
+        <v>3163991</v>
+      </c>
       <c r="D510" t="inlineStr">
         <is>
           <t>2,165,594</t>
@@ -26972,7 +27990,9 @@
       <c r="B511" t="n">
         <v>2019</v>
       </c>
-      <c r="C511" t="inlineStr"/>
+      <c r="C511" t="n">
+        <v>3232430</v>
+      </c>
       <c r="D511" t="inlineStr">
         <is>
           <t>2,215,604</t>
@@ -27024,7 +28044,9 @@
       <c r="B512" t="n">
         <v>2020</v>
       </c>
-      <c r="C512" t="inlineStr"/>
+      <c r="C512" t="n">
+        <v>3294335</v>
+      </c>
       <c r="D512" t="inlineStr">
         <is>
           <t>2,261,792</t>
@@ -27076,7 +28098,9 @@
       <c r="B513" t="n">
         <v>2021</v>
       </c>
-      <c r="C513" t="inlineStr"/>
+      <c r="C513" t="n">
+        <v>3347782</v>
+      </c>
       <c r="D513" t="inlineStr">
         <is>
           <t>2,302,772</t>
@@ -27128,7 +28152,9 @@
       <c r="B514" t="n">
         <v>2018</v>
       </c>
-      <c r="C514" t="inlineStr"/>
+      <c r="C514" t="n">
+        <v>622227</v>
+      </c>
       <c r="D514" t="inlineStr">
         <is>
           <t>415,729</t>
@@ -27180,7 +28206,9 @@
       <c r="B515" t="n">
         <v>2019</v>
       </c>
-      <c r="C515" t="inlineStr"/>
+      <c r="C515" t="n">
+        <v>622028</v>
+      </c>
       <c r="D515" t="inlineStr">
         <is>
           <t>417,692</t>
@@ -27232,7 +28260,9 @@
       <c r="B516" t="n">
         <v>2020</v>
       </c>
-      <c r="C516" t="inlineStr"/>
+      <c r="C516" t="n">
+        <v>621306</v>
+      </c>
       <c r="D516" t="inlineStr">
         <is>
           <t>419,307</t>
@@ -27284,7 +28314,9 @@
       <c r="B517" t="n">
         <v>2021</v>
       </c>
-      <c r="C517" t="inlineStr"/>
+      <c r="C517" t="n">
+        <v>619211</v>
+      </c>
       <c r="D517" t="inlineStr">
         <is>
           <t>419,986</t>
@@ -27336,7 +28368,9 @@
       <c r="B518" t="n">
         <v>2018</v>
       </c>
-      <c r="C518" t="inlineStr"/>
+      <c r="C518" t="n">
+        <v>35927511</v>
+      </c>
       <c r="D518" t="inlineStr">
         <is>
           <t>22,437,808</t>
@@ -27388,7 +28422,9 @@
       <c r="B519" t="n">
         <v>2019</v>
       </c>
-      <c r="C519" t="inlineStr"/>
+      <c r="C519" t="n">
+        <v>36304408</v>
+      </c>
       <c r="D519" t="inlineStr">
         <is>
           <t>22,869,599</t>
@@ -27440,7 +28476,9 @@
       <c r="B520" t="n">
         <v>2020</v>
       </c>
-      <c r="C520" t="inlineStr"/>
+      <c r="C520" t="n">
+        <v>36688772</v>
+      </c>
       <c r="D520" t="inlineStr">
         <is>
           <t>23,309,111</t>
@@ -27492,7 +28530,9 @@
       <c r="B521" t="n">
         <v>2021</v>
       </c>
-      <c r="C521" t="inlineStr"/>
+      <c r="C521" t="n">
+        <v>37076584</v>
+      </c>
       <c r="D521" t="inlineStr">
         <is>
           <t>23,753,114</t>
@@ -27544,7 +28584,9 @@
       <c r="B522" t="n">
         <v>2018</v>
       </c>
-      <c r="C522" t="inlineStr"/>
+      <c r="C522" t="n">
+        <v>29423878</v>
+      </c>
       <c r="D522" t="inlineStr">
         <is>
           <t>10,589,065</t>
@@ -27596,7 +28638,9 @@
       <c r="B523" t="n">
         <v>2019</v>
       </c>
-      <c r="C523" t="inlineStr"/>
+      <c r="C523" t="n">
+        <v>30285595</v>
+      </c>
       <c r="D523" t="inlineStr">
         <is>
           <t>11,062,722</t>
@@ -27648,7 +28692,9 @@
       <c r="B524" t="n">
         <v>2020</v>
       </c>
-      <c r="C524" t="inlineStr"/>
+      <c r="C524" t="n">
+        <v>31178239</v>
+      </c>
       <c r="D524" t="inlineStr">
         <is>
           <t>11,559,020</t>
@@ -27700,7 +28746,9 @@
       <c r="B525" t="n">
         <v>2021</v>
       </c>
-      <c r="C525" t="inlineStr"/>
+      <c r="C525" t="n">
+        <v>32077072</v>
+      </c>
       <c r="D525" t="inlineStr">
         <is>
           <t>12,069,961</t>
@@ -27752,7 +28800,9 @@
       <c r="B526" t="n">
         <v>2018</v>
       </c>
-      <c r="C526" t="inlineStr"/>
+      <c r="C526" t="n">
+        <v>52666014</v>
+      </c>
       <c r="D526" t="inlineStr">
         <is>
           <t>16,104,740</t>
@@ -27804,7 +28854,9 @@
       <c r="B527" t="n">
         <v>2019</v>
       </c>
-      <c r="C527" t="inlineStr"/>
+      <c r="C527" t="n">
+        <v>53040212</v>
+      </c>
       <c r="D527" t="inlineStr">
         <is>
           <t>16,363,966</t>
@@ -27856,7 +28908,9 @@
       <c r="B528" t="n">
         <v>2020</v>
       </c>
-      <c r="C528" t="inlineStr"/>
+      <c r="C528" t="n">
+        <v>53423198</v>
+      </c>
       <c r="D528" t="inlineStr">
         <is>
           <t>16,636,518</t>
@@ -27908,7 +28962,9 @@
       <c r="B529" t="n">
         <v>2021</v>
       </c>
-      <c r="C529" t="inlineStr"/>
+      <c r="C529" t="n">
+        <v>53798084</v>
+      </c>
       <c r="D529" t="inlineStr">
         <is>
           <t>16,918,421</t>
@@ -27960,7 +29016,9 @@
       <c r="B530" t="n">
         <v>2018</v>
       </c>
-      <c r="C530" t="inlineStr"/>
+      <c r="C530" t="n">
+        <v>2405680</v>
+      </c>
       <c r="D530" t="inlineStr">
         <is>
           <t>1,203,610</t>
@@ -28012,7 +29070,9 @@
       <c r="B531" t="n">
         <v>2019</v>
       </c>
-      <c r="C531" t="inlineStr"/>
+      <c r="C531" t="n">
+        <v>2446644</v>
+      </c>
       <c r="D531" t="inlineStr">
         <is>
           <t>1,248,816</t>
@@ -28064,7 +29124,9 @@
       <c r="B532" t="n">
         <v>2020</v>
       </c>
-      <c r="C532" t="inlineStr"/>
+      <c r="C532" t="n">
+        <v>2489098</v>
+      </c>
       <c r="D532" t="inlineStr">
         <is>
           <t>1,295,152</t>
@@ -28116,7 +29178,9 @@
       <c r="B533" t="n">
         <v>2021</v>
       </c>
-      <c r="C533" t="inlineStr"/>
+      <c r="C533" t="n">
+        <v>2530151</v>
+      </c>
       <c r="D533" t="inlineStr">
         <is>
           <t>1,341,107</t>
@@ -28168,7 +29232,9 @@
       <c r="B534" t="n">
         <v>2018</v>
       </c>
-      <c r="C534" t="inlineStr"/>
+      <c r="C534" t="n">
+        <v>11924</v>
+      </c>
       <c r="D534" t="inlineStr">
         <is>
           <t>11,924</t>
@@ -28220,7 +29286,9 @@
       <c r="B535" t="n">
         <v>2019</v>
       </c>
-      <c r="C535" t="inlineStr"/>
+      <c r="C535" t="n">
+        <v>12132</v>
+      </c>
       <c r="D535" t="inlineStr">
         <is>
           <t>12,132</t>
@@ -28272,7 +29340,9 @@
       <c r="B536" t="n">
         <v>2020</v>
       </c>
-      <c r="C536" t="inlineStr"/>
+      <c r="C536" t="n">
+        <v>12315</v>
+      </c>
       <c r="D536" t="inlineStr">
         <is>
           <t>12,315</t>
@@ -28324,7 +29394,9 @@
       <c r="B537" t="n">
         <v>2021</v>
       </c>
-      <c r="C537" t="inlineStr"/>
+      <c r="C537" t="n">
+        <v>12511</v>
+      </c>
       <c r="D537" t="inlineStr">
         <is>
           <t>12,511</t>
@@ -28376,7 +29448,9 @@
       <c r="B538" t="n">
         <v>2018</v>
       </c>
-      <c r="C538" t="inlineStr"/>
+      <c r="C538" t="n">
+        <v>28506712</v>
+      </c>
       <c r="D538" t="inlineStr">
         <is>
           <t>5,627,225</t>
@@ -28428,7 +29502,9 @@
       <c r="B539" t="n">
         <v>2019</v>
       </c>
-      <c r="C539" t="inlineStr"/>
+      <c r="C539" t="n">
+        <v>28832496</v>
+      </c>
       <c r="D539" t="inlineStr">
         <is>
           <t>5,810,613</t>
@@ -28480,7 +29556,9 @@
       <c r="B540" t="n">
         <v>2020</v>
       </c>
-      <c r="C540" t="inlineStr"/>
+      <c r="C540" t="n">
+        <v>29348627</v>
+      </c>
       <c r="D540" t="inlineStr">
         <is>
           <t>6,038,773</t>
@@ -28532,7 +29610,9 @@
       <c r="B541" t="n">
         <v>2021</v>
       </c>
-      <c r="C541" t="inlineStr"/>
+      <c r="C541" t="n">
+        <v>30034989</v>
+      </c>
       <c r="D541" t="inlineStr">
         <is>
           <t>6,309,750</t>
@@ -28584,7 +29664,9 @@
       <c r="B542" t="n">
         <v>2018</v>
       </c>
-      <c r="C542" t="inlineStr"/>
+      <c r="C542" t="n">
+        <v>17231624</v>
+      </c>
       <c r="D542" t="inlineStr">
         <is>
           <t>15,765,213</t>
@@ -28636,7 +29718,9 @@
       <c r="B543" t="n">
         <v>2019</v>
       </c>
-      <c r="C543" t="inlineStr"/>
+      <c r="C543" t="n">
+        <v>17344874</v>
+      </c>
       <c r="D543" t="inlineStr">
         <is>
           <t>15,935,776</t>
@@ -28688,7 +29772,9 @@
       <c r="B544" t="n">
         <v>2020</v>
       </c>
-      <c r="C544" t="inlineStr"/>
+      <c r="C544" t="n">
+        <v>17441500</v>
+      </c>
       <c r="D544" t="inlineStr">
         <is>
           <t>16,087,342</t>
@@ -28740,7 +29826,9 @@
       <c r="B545" t="n">
         <v>2021</v>
       </c>
-      <c r="C545" t="inlineStr"/>
+      <c r="C545" t="n">
+        <v>17533044</v>
+      </c>
       <c r="D545" t="inlineStr">
         <is>
           <t>16,230,689</t>
@@ -28792,7 +29880,9 @@
       <c r="B546" t="n">
         <v>2018</v>
       </c>
-      <c r="C546" t="inlineStr"/>
+      <c r="C546" t="n">
+        <v>271170</v>
+      </c>
       <c r="D546" t="inlineStr">
         <is>
           <t>191,671</t>
@@ -28844,7 +29934,9 @@
       <c r="B547" t="n">
         <v>2019</v>
       </c>
-      <c r="C547" t="inlineStr"/>
+      <c r="C547" t="n">
+        <v>271240</v>
+      </c>
       <c r="D547" t="inlineStr">
         <is>
           <t>192,862</t>
@@ -28896,7 +29988,9 @@
       <c r="B548" t="n">
         <v>2020</v>
       </c>
-      <c r="C548" t="inlineStr"/>
+      <c r="C548" t="n">
+        <v>272460</v>
+      </c>
       <c r="D548" t="inlineStr">
         <is>
           <t>194,858</t>
@@ -28948,7 +30042,9 @@
       <c r="B549" t="n">
         <v>2021</v>
       </c>
-      <c r="C549" t="inlineStr"/>
+      <c r="C549" t="n">
+        <v>274660</v>
+      </c>
       <c r="D549" t="inlineStr">
         <is>
           <t>197,549</t>
@@ -29000,7 +30096,9 @@
       <c r="B550" t="n">
         <v>2018</v>
       </c>
-      <c r="C550" t="inlineStr"/>
+      <c r="C550" t="n">
+        <v>4900600</v>
+      </c>
       <c r="D550" t="inlineStr">
         <is>
           <t>4,240,881</t>
@@ -29052,7 +30150,9 @@
       <c r="B551" t="n">
         <v>2019</v>
       </c>
-      <c r="C551" t="inlineStr"/>
+      <c r="C551" t="n">
+        <v>4979200</v>
+      </c>
       <c r="D551" t="inlineStr">
         <is>
           <t>4,312,734</t>
@@ -29104,7 +30204,9 @@
       <c r="B552" t="n">
         <v>2020</v>
       </c>
-      <c r="C552" t="inlineStr"/>
+      <c r="C552" t="n">
+        <v>5090200</v>
+      </c>
       <c r="D552" t="inlineStr">
         <is>
           <t>4,413,152</t>
@@ -29156,7 +30258,9 @@
       <c r="B553" t="n">
         <v>2021</v>
       </c>
-      <c r="C553" t="inlineStr"/>
+      <c r="C553" t="n">
+        <v>5111400</v>
+      </c>
       <c r="D553" t="inlineStr">
         <is>
           <t>4,436,133</t>
@@ -29208,7 +30312,9 @@
       <c r="B554" t="n">
         <v>2018</v>
       </c>
-      <c r="C554" t="inlineStr"/>
+      <c r="C554" t="n">
+        <v>6572233</v>
+      </c>
       <c r="D554" t="inlineStr">
         <is>
           <t>3,846,202</t>
@@ -29260,7 +30366,9 @@
       <c r="B555" t="n">
         <v>2019</v>
       </c>
-      <c r="C555" t="inlineStr"/>
+      <c r="C555" t="n">
+        <v>6663924</v>
+      </c>
       <c r="D555" t="inlineStr">
         <is>
           <t>3,915,722</t>
@@ -29312,7 +30420,9 @@
       <c r="B556" t="n">
         <v>2020</v>
       </c>
-      <c r="C556" t="inlineStr"/>
+      <c r="C556" t="n">
+        <v>6755895</v>
+      </c>
       <c r="D556" t="inlineStr">
         <is>
           <t>3,986,789</t>
@@ -29364,7 +30474,9 @@
       <c r="B557" t="n">
         <v>2021</v>
       </c>
-      <c r="C557" t="inlineStr"/>
+      <c r="C557" t="n">
+        <v>6850540</v>
+      </c>
       <c r="D557" t="inlineStr">
         <is>
           <t>4,060,795</t>
@@ -29416,7 +30528,9 @@
       <c r="B558" t="n">
         <v>2018</v>
       </c>
-      <c r="C558" t="inlineStr"/>
+      <c r="C558" t="n">
+        <v>22577058</v>
+      </c>
       <c r="D558" t="inlineStr">
         <is>
           <t>3,708,282</t>
@@ -29468,7 +30582,9 @@
       <c r="B559" t="n">
         <v>2019</v>
       </c>
-      <c r="C559" t="inlineStr"/>
+      <c r="C559" t="n">
+        <v>23443393</v>
+      </c>
       <c r="D559" t="inlineStr">
         <is>
           <t>3,872,145</t>
@@ -29520,7 +30636,9 @@
       <c r="B560" t="n">
         <v>2020</v>
       </c>
-      <c r="C560" t="inlineStr"/>
+      <c r="C560" t="n">
+        <v>24333639</v>
+      </c>
       <c r="D560" t="inlineStr">
         <is>
           <t>4,045,711</t>
@@ -29572,7 +30690,9 @@
       <c r="B561" t="n">
         <v>2021</v>
       </c>
-      <c r="C561" t="inlineStr"/>
+      <c r="C561" t="n">
+        <v>25252722</v>
+      </c>
       <c r="D561" t="inlineStr">
         <is>
           <t>4,230,083</t>
@@ -29624,7 +30744,9 @@
       <c r="B562" t="n">
         <v>2018</v>
       </c>
-      <c r="C562" t="inlineStr"/>
+      <c r="C562" t="n">
+        <v>198387623</v>
+      </c>
       <c r="D562" t="inlineStr">
         <is>
           <t>99,876,265</t>
@@ -29676,7 +30798,9 @@
       <c r="B563" t="n">
         <v>2019</v>
       </c>
-      <c r="C563" t="inlineStr"/>
+      <c r="C563" t="n">
+        <v>203304492</v>
+      </c>
       <c r="D563" t="inlineStr">
         <is>
           <t>104,004,479</t>
@@ -29728,7 +30852,9 @@
       <c r="B564" t="n">
         <v>2020</v>
       </c>
-      <c r="C564" t="inlineStr"/>
+      <c r="C564" t="n">
+        <v>208327405</v>
+      </c>
       <c r="D564" t="inlineStr">
         <is>
           <t>108,242,753</t>
@@ -29780,7 +30906,9 @@
       <c r="B565" t="n">
         <v>2021</v>
       </c>
-      <c r="C565" t="inlineStr"/>
+      <c r="C565" t="n">
+        <v>213401323</v>
+      </c>
       <c r="D565" t="inlineStr">
         <is>
           <t>112,560,662</t>
@@ -29832,7 +30960,9 @@
       <c r="B566" t="n">
         <v>2018</v>
       </c>
-      <c r="C566" t="inlineStr"/>
+      <c r="C566" t="n">
+        <v>25638149</v>
+      </c>
       <c r="D566" t="inlineStr">
         <is>
           <t>15,869,758</t>
@@ -29884,7 +31014,9 @@
       <c r="B567" t="n">
         <v>2019</v>
       </c>
-      <c r="C567" t="inlineStr"/>
+      <c r="C567" t="n">
+        <v>25755441</v>
+      </c>
       <c r="D567" t="inlineStr">
         <is>
           <t>16,002,886</t>
@@ -29936,7 +31068,9 @@
       <c r="B568" t="n">
         <v>2020</v>
       </c>
-      <c r="C568" t="inlineStr"/>
+      <c r="C568" t="n">
+        <v>25867467</v>
+      </c>
       <c r="D568" t="inlineStr">
         <is>
           <t>16,136,385</t>
@@ -29988,7 +31122,9 @@
       <c r="B569" t="n">
         <v>2021</v>
       </c>
-      <c r="C569" t="inlineStr"/>
+      <c r="C569" t="n">
+        <v>25971909</v>
+      </c>
       <c r="D569" t="inlineStr">
         <is>
           <t>16,269,323</t>
@@ -30040,7 +31176,9 @@
       <c r="B570" t="n">
         <v>2018</v>
       </c>
-      <c r="C570" t="inlineStr"/>
+      <c r="C570" t="n">
+        <v>2076217</v>
+      </c>
       <c r="D570" t="inlineStr">
         <is>
           <t>1,203,438</t>
@@ -30092,7 +31230,9 @@
       <c r="B571" t="n">
         <v>2019</v>
       </c>
-      <c r="C571" t="inlineStr"/>
+      <c r="C571" t="n">
+        <v>2076694</v>
+      </c>
       <c r="D571" t="inlineStr">
         <is>
           <t>1,208,802</t>
@@ -30144,7 +31284,9 @@
       <c r="B572" t="n">
         <v>2020</v>
       </c>
-      <c r="C572" t="inlineStr"/>
+      <c r="C572" t="n">
+        <v>2072531</v>
+      </c>
       <c r="D572" t="inlineStr">
         <is>
           <t>1,212,058</t>
@@ -30196,7 +31338,9 @@
       <c r="B573" t="n">
         <v>2021</v>
       </c>
-      <c r="C573" t="inlineStr"/>
+      <c r="C573" t="n">
+        <v>2065092</v>
+      </c>
       <c r="D573" t="inlineStr">
         <is>
           <t>1,213,985</t>
@@ -30248,7 +31392,9 @@
       <c r="B574" t="n">
         <v>2018</v>
       </c>
-      <c r="C574" t="inlineStr"/>
+      <c r="C574" t="n">
+        <v>50304</v>
+      </c>
       <c r="D574" t="inlineStr">
         <is>
           <t>46,088</t>
@@ -30300,7 +31446,9 @@
       <c r="B575" t="n">
         <v>2019</v>
       </c>
-      <c r="C575" t="inlineStr"/>
+      <c r="C575" t="n">
+        <v>49858</v>
+      </c>
       <c r="D575" t="inlineStr">
         <is>
           <t>45,724</t>
@@ -30352,7 +31500,9 @@
       <c r="B576" t="n">
         <v>2020</v>
       </c>
-      <c r="C576" t="inlineStr"/>
+      <c r="C576" t="n">
+        <v>49587</v>
+      </c>
       <c r="D576" t="inlineStr">
         <is>
           <t>45,520</t>
@@ -30404,7 +31554,9 @@
       <c r="B577" t="n">
         <v>2021</v>
       </c>
-      <c r="C577" t="inlineStr"/>
+      <c r="C577" t="n">
+        <v>49481</v>
+      </c>
       <c r="D577" t="inlineStr">
         <is>
           <t>45,468</t>
@@ -30456,7 +31608,9 @@
       <c r="B578" t="n">
         <v>2018</v>
       </c>
-      <c r="C578" t="inlineStr"/>
+      <c r="C578" t="n">
+        <v>5311916</v>
+      </c>
       <c r="D578" t="inlineStr">
         <is>
           <t>4,368,945</t>
@@ -30508,7 +31662,9 @@
       <c r="B579" t="n">
         <v>2019</v>
       </c>
-      <c r="C579" t="inlineStr"/>
+      <c r="C579" t="n">
+        <v>5347896</v>
+      </c>
       <c r="D579" t="inlineStr">
         <is>
           <t>4,418,218</t>
@@ -30560,7 +31716,9 @@
       <c r="B580" t="n">
         <v>2020</v>
       </c>
-      <c r="C580" t="inlineStr"/>
+      <c r="C580" t="n">
+        <v>5379475</v>
+      </c>
       <c r="D580" t="inlineStr">
         <is>
           <t>4,463,566</t>
@@ -30612,7 +31770,9 @@
       <c r="B581" t="n">
         <v>2021</v>
       </c>
-      <c r="C581" t="inlineStr"/>
+      <c r="C581" t="n">
+        <v>5408320</v>
+      </c>
       <c r="D581" t="inlineStr">
         <is>
           <t>4,506,374</t>
@@ -30664,7 +31824,9 @@
       <c r="B582" t="n">
         <v>2018</v>
       </c>
-      <c r="C582" t="inlineStr"/>
+      <c r="C582" t="n">
+        <v>4601157</v>
+      </c>
       <c r="D582" t="inlineStr">
         <is>
           <t>3,889,772</t>
@@ -30716,7 +31878,9 @@
       <c r="B583" t="n">
         <v>2019</v>
       </c>
-      <c r="C583" t="inlineStr"/>
+      <c r="C583" t="n">
+        <v>4602768</v>
+      </c>
       <c r="D583" t="inlineStr">
         <is>
           <t>3,932,743</t>
@@ -30768,7 +31932,9 @@
       <c r="B584" t="n">
         <v>2020</v>
       </c>
-      <c r="C584" t="inlineStr"/>
+      <c r="C584" t="n">
+        <v>4543399</v>
+      </c>
       <c r="D584" t="inlineStr">
         <is>
           <t>3,919,863</t>
@@ -30820,7 +31986,9 @@
       <c r="B585" t="n">
         <v>2021</v>
       </c>
-      <c r="C585" t="inlineStr"/>
+      <c r="C585" t="n">
+        <v>4520471</v>
+      </c>
       <c r="D585" t="inlineStr">
         <is>
           <t>3,934,799</t>
@@ -30872,7 +32040,9 @@
       <c r="B586" t="n">
         <v>2018</v>
       </c>
-      <c r="C586" t="inlineStr"/>
+      <c r="C586" t="n">
+        <v>219731479</v>
+      </c>
       <c r="D586" t="inlineStr">
         <is>
           <t>80,566,744</t>
@@ -30924,7 +32094,9 @@
       <c r="B587" t="n">
         <v>2019</v>
       </c>
-      <c r="C587" t="inlineStr"/>
+      <c r="C587" t="n">
+        <v>223293280</v>
+      </c>
       <c r="D587" t="inlineStr">
         <is>
           <t>82,410,851</t>
@@ -30976,7 +32148,9 @@
       <c r="B588" t="n">
         <v>2020</v>
       </c>
-      <c r="C588" t="inlineStr"/>
+      <c r="C588" t="n">
+        <v>227196741</v>
+      </c>
       <c r="D588" t="inlineStr">
         <is>
           <t>84,437,669</t>
@@ -31028,7 +32202,9 @@
       <c r="B589" t="n">
         <v>2021</v>
       </c>
-      <c r="C589" t="inlineStr"/>
+      <c r="C589" t="n">
+        <v>231402117</v>
+      </c>
       <c r="D589" t="inlineStr">
         <is>
           <t>86,636,953</t>
@@ -31080,7 +32256,9 @@
       <c r="B590" t="n">
         <v>2018</v>
       </c>
-      <c r="C590" t="inlineStr"/>
+      <c r="C590" t="n">
+        <v>17864</v>
+      </c>
       <c r="D590" t="inlineStr">
         <is>
           <t>14,279</t>
@@ -31132,7 +32310,9 @@
       <c r="B591" t="n">
         <v>2019</v>
       </c>
-      <c r="C591" t="inlineStr"/>
+      <c r="C591" t="n">
+        <v>17916</v>
+      </c>
       <c r="D591" t="inlineStr">
         <is>
           <t>14,417</t>
@@ -31184,7 +32364,9 @@
       <c r="B592" t="n">
         <v>2020</v>
       </c>
-      <c r="C592" t="inlineStr"/>
+      <c r="C592" t="n">
+        <v>17972</v>
+      </c>
       <c r="D592" t="inlineStr">
         <is>
           <t>14,555</t>
@@ -31236,7 +32418,9 @@
       <c r="B593" t="n">
         <v>2021</v>
       </c>
-      <c r="C593" t="inlineStr"/>
+      <c r="C593" t="n">
+        <v>18024</v>
+      </c>
       <c r="D593" t="inlineStr">
         <is>
           <t>14,686</t>
@@ -31288,7 +32472,9 @@
       <c r="B594" t="n">
         <v>2018</v>
       </c>
-      <c r="C594" t="inlineStr"/>
+      <c r="C594" t="n">
+        <v>4165255</v>
+      </c>
       <c r="D594" t="inlineStr">
         <is>
           <t>2,820,253</t>
@@ -31340,7 +32526,9 @@
       <c r="B595" t="n">
         <v>2019</v>
       </c>
-      <c r="C595" t="inlineStr"/>
+      <c r="C595" t="n">
+        <v>4232532</v>
+      </c>
       <c r="D595" t="inlineStr">
         <is>
           <t>2,880,619</t>
@@ -31392,7 +32580,9 @@
       <c r="B596" t="n">
         <v>2020</v>
       </c>
-      <c r="C596" t="inlineStr"/>
+      <c r="C596" t="n">
+        <v>4294396</v>
+      </c>
       <c r="D596" t="inlineStr">
         <is>
           <t>2,937,968</t>
@@ -31444,7 +32634,9 @@
       <c r="B597" t="n">
         <v>2021</v>
       </c>
-      <c r="C597" t="inlineStr"/>
+      <c r="C597" t="n">
+        <v>4351267</v>
+      </c>
       <c r="D597" t="inlineStr">
         <is>
           <t>2,992,584</t>
@@ -31496,7 +32688,9 @@
       <c r="B598" t="n">
         <v>2018</v>
       </c>
-      <c r="C598" t="inlineStr"/>
+      <c r="C598" t="n">
+        <v>9329227</v>
+      </c>
       <c r="D598" t="inlineStr">
         <is>
           <t>1,228,566</t>
@@ -31548,7 +32742,9 @@
       <c r="B599" t="n">
         <v>2019</v>
       </c>
-      <c r="C599" t="inlineStr"/>
+      <c r="C599" t="n">
+        <v>9542486</v>
+      </c>
       <c r="D599" t="inlineStr">
         <is>
           <t>1,264,379</t>
@@ -31600,7 +32796,9 @@
       <c r="B600" t="n">
         <v>2020</v>
       </c>
-      <c r="C600" t="inlineStr"/>
+      <c r="C600" t="n">
+        <v>9749640</v>
+      </c>
       <c r="D600" t="inlineStr">
         <is>
           <t>1,301,089</t>
@@ -31652,7 +32850,9 @@
       <c r="B601" t="n">
         <v>2021</v>
       </c>
-      <c r="C601" t="inlineStr"/>
+      <c r="C601" t="n">
+        <v>9949437</v>
+      </c>
       <c r="D601" t="inlineStr">
         <is>
           <t>1,338,796</t>
@@ -31704,7 +32904,9 @@
       <c r="B602" t="n">
         <v>2018</v>
       </c>
-      <c r="C602" t="inlineStr"/>
+      <c r="C602" t="n">
+        <v>6443328</v>
+      </c>
       <c r="D602" t="inlineStr">
         <is>
           <t>3,968,124</t>
@@ -31756,7 +32958,9 @@
       <c r="B603" t="n">
         <v>2019</v>
       </c>
-      <c r="C603" t="inlineStr"/>
+      <c r="C603" t="n">
+        <v>6530026</v>
+      </c>
       <c r="D603" t="inlineStr">
         <is>
           <t>4,040,715</t>
@@ -31808,7 +33012,9 @@
       <c r="B604" t="n">
         <v>2020</v>
       </c>
-      <c r="C604" t="inlineStr"/>
+      <c r="C604" t="n">
+        <v>6618695</v>
+      </c>
       <c r="D604" t="inlineStr">
         <is>
           <t>4,115,703</t>
@@ -31860,7 +33066,9 @@
       <c r="B605" t="n">
         <v>2021</v>
       </c>
-      <c r="C605" t="inlineStr"/>
+      <c r="C605" t="n">
+        <v>6703799</v>
+      </c>
       <c r="D605" t="inlineStr">
         <is>
           <t>4,189,606</t>
@@ -31912,7 +33120,9 @@
       <c r="B606" t="n">
         <v>2018</v>
       </c>
-      <c r="C606" t="inlineStr"/>
+      <c r="C606" t="n">
+        <v>32203944</v>
+      </c>
       <c r="D606" t="inlineStr">
         <is>
           <t>25,089,127</t>
@@ -31964,7 +33174,9 @@
       <c r="B607" t="n">
         <v>2019</v>
       </c>
-      <c r="C607" t="inlineStr"/>
+      <c r="C607" t="n">
+        <v>32824861</v>
+      </c>
       <c r="D607" t="inlineStr">
         <is>
           <t>25,635,888</t>
@@ -32016,7 +33228,9 @@
       <c r="B608" t="n">
         <v>2020</v>
       </c>
-      <c r="C608" t="inlineStr"/>
+      <c r="C608" t="n">
+        <v>33304756</v>
+      </c>
       <c r="D608" t="inlineStr">
         <is>
           <t>26,076,625</t>
@@ -32068,7 +33282,9 @@
       <c r="B609" t="n">
         <v>2021</v>
       </c>
-      <c r="C609" t="inlineStr"/>
+      <c r="C609" t="n">
+        <v>33715471</v>
+      </c>
       <c r="D609" t="inlineStr">
         <is>
           <t>26,466,645</t>
@@ -32120,7 +33336,9 @@
       <c r="B610" t="n">
         <v>2018</v>
       </c>
-      <c r="C610" t="inlineStr"/>
+      <c r="C610" t="n">
+        <v>108568836</v>
+      </c>
       <c r="D610" t="inlineStr">
         <is>
           <t>50,926,384</t>
@@ -32172,7 +33390,9 @@
       <c r="B611" t="n">
         <v>2019</v>
       </c>
-      <c r="C611" t="inlineStr"/>
+      <c r="C611" t="n">
+        <v>110380804</v>
+      </c>
       <c r="D611" t="inlineStr">
         <is>
           <t>52,043,445</t>
@@ -32224,7 +33444,9 @@
       <c r="B612" t="n">
         <v>2020</v>
       </c>
-      <c r="C612" t="inlineStr"/>
+      <c r="C612" t="n">
+        <v>112190977</v>
+      </c>
       <c r="D612" t="inlineStr">
         <is>
           <t>53,187,498</t>
@@ -32276,7 +33498,9 @@
       <c r="B613" t="n">
         <v>2021</v>
       </c>
-      <c r="C613" t="inlineStr"/>
+      <c r="C613" t="n">
+        <v>113880328</v>
+      </c>
       <c r="D613" t="inlineStr">
         <is>
           <t>54,302,696</t>
@@ -32328,7 +33552,9 @@
       <c r="B614" t="n">
         <v>2018</v>
       </c>
-      <c r="C614" t="inlineStr"/>
+      <c r="C614" t="n">
+        <v>37974750</v>
+      </c>
       <c r="D614" t="inlineStr">
         <is>
           <t>22,806,875</t>
@@ -32380,7 +33606,9 @@
       <c r="B615" t="n">
         <v>2019</v>
       </c>
-      <c r="C615" t="inlineStr"/>
+      <c r="C615" t="n">
+        <v>37965475</v>
+      </c>
       <c r="D615" t="inlineStr">
         <is>
           <t>22,793,332</t>
@@ -32432,7 +33660,9 @@
       <c r="B616" t="n">
         <v>2020</v>
       </c>
-      <c r="C616" t="inlineStr"/>
+      <c r="C616" t="n">
+        <v>37899070</v>
+      </c>
       <c r="D616" t="inlineStr">
         <is>
           <t>22,755,739</t>
@@ -32484,7 +33714,9 @@
       <c r="B617" t="n">
         <v>2021</v>
       </c>
-      <c r="C617" t="inlineStr"/>
+      <c r="C617" t="n">
+        <v>37747124</v>
+      </c>
       <c r="D617" t="inlineStr">
         <is>
           <t>22,676,585</t>
@@ -32536,7 +33768,9 @@
       <c r="B618" t="n">
         <v>2018</v>
       </c>
-      <c r="C618" t="inlineStr"/>
+      <c r="C618" t="n">
+        <v>10283822</v>
+      </c>
       <c r="D618" t="inlineStr">
         <is>
           <t>6,706,183</t>
@@ -32588,7 +33822,9 @@
       <c r="B619" t="n">
         <v>2019</v>
       </c>
-      <c r="C619" t="inlineStr"/>
+      <c r="C619" t="n">
+        <v>10286263</v>
+      </c>
       <c r="D619" t="inlineStr">
         <is>
           <t>6,764,658</t>
@@ -32640,7 +33876,9 @@
       <c r="B620" t="n">
         <v>2020</v>
       </c>
-      <c r="C620" t="inlineStr"/>
+      <c r="C620" t="n">
+        <v>10297081</v>
+      </c>
       <c r="D620" t="inlineStr">
         <is>
           <t>6,827,994</t>
@@ -32692,7 +33930,9 @@
       <c r="B621" t="n">
         <v>2021</v>
       </c>
-      <c r="C621" t="inlineStr"/>
+      <c r="C621" t="n">
+        <v>10325147</v>
+      </c>
       <c r="D621" t="inlineStr">
         <is>
           <t>6,902,258</t>
@@ -32744,7 +33984,9 @@
       <c r="B622" t="n">
         <v>2018</v>
       </c>
-      <c r="C622" t="inlineStr"/>
+      <c r="C622" t="n">
+        <v>3193354</v>
+      </c>
       <c r="D622" t="inlineStr">
         <is>
           <t>2,988,277</t>
@@ -32796,7 +34038,9 @@
       <c r="B623" t="n">
         <v>2019</v>
       </c>
-      <c r="C623" t="inlineStr"/>
+      <c r="C623" t="n">
+        <v>3193694</v>
+      </c>
       <c r="D623" t="inlineStr">
         <is>
           <t>2,988,531</t>
@@ -32848,7 +34092,9 @@
       <c r="B624" t="n">
         <v>2020</v>
       </c>
-      <c r="C624" t="inlineStr"/>
+      <c r="C624" t="n">
+        <v>3281557</v>
+      </c>
       <c r="D624" t="inlineStr">
         <is>
           <t>3,070,914</t>
@@ -32900,7 +34146,9 @@
       <c r="B625" t="n">
         <v>2021</v>
       </c>
-      <c r="C625" t="inlineStr"/>
+      <c r="C625" t="n">
+        <v>3262693</v>
+      </c>
       <c r="D625" t="inlineStr">
         <is>
           <t>3,053,620</t>
@@ -32952,7 +34200,9 @@
       <c r="B626" t="n">
         <v>2018</v>
       </c>
-      <c r="C626" t="inlineStr"/>
+      <c r="C626" t="n">
+        <v>2766732</v>
+      </c>
       <c r="D626" t="inlineStr">
         <is>
           <t>2,742,800</t>
@@ -33004,7 +34254,9 @@
       <c r="B627" t="n">
         <v>2019</v>
       </c>
-      <c r="C627" t="inlineStr"/>
+      <c r="C627" t="n">
+        <v>2807235</v>
+      </c>
       <c r="D627" t="inlineStr">
         <is>
           <t>2,784,440</t>
@@ -33056,7 +34308,9 @@
       <c r="B628" t="n">
         <v>2020</v>
       </c>
-      <c r="C628" t="inlineStr"/>
+      <c r="C628" t="n">
+        <v>2760385</v>
+      </c>
       <c r="D628" t="inlineStr">
         <is>
           <t>2,739,268</t>
@@ -33108,7 +34362,9 @@
       <c r="B629" t="n">
         <v>2021</v>
       </c>
-      <c r="C629" t="inlineStr"/>
+      <c r="C629" t="n">
+        <v>2688235</v>
+      </c>
       <c r="D629" t="inlineStr">
         <is>
           <t>2,668,826</t>
@@ -33160,7 +34416,9 @@
       <c r="B630" t="n">
         <v>2018</v>
       </c>
-      <c r="C630" t="inlineStr"/>
+      <c r="C630" t="n">
+        <v>5441062</v>
+      </c>
       <c r="D630" t="inlineStr">
         <is>
           <t>3,640,941</t>
@@ -33212,7 +34470,9 @@
       <c r="B631" t="n">
         <v>2019</v>
       </c>
-      <c r="C631" t="inlineStr"/>
+      <c r="C631" t="n">
+        <v>5570733</v>
+      </c>
       <c r="D631" t="inlineStr">
         <is>
           <t>3,753,170</t>
@@ -33264,7 +34524,9 @@
       <c r="B632" t="n">
         <v>2020</v>
       </c>
-      <c r="C632" t="inlineStr"/>
+      <c r="C632" t="n">
+        <v>5702174</v>
+      </c>
       <c r="D632" t="inlineStr">
         <is>
           <t>3,867,728</t>
@@ -33316,7 +34578,9 @@
       <c r="B633" t="n">
         <v>2021</v>
       </c>
-      <c r="C633" t="inlineStr"/>
+      <c r="C633" t="n">
+        <v>5835806</v>
+      </c>
       <c r="D633" t="inlineStr">
         <is>
           <t>3,984,863</t>
@@ -33368,7 +34632,9 @@
       <c r="B634" t="n">
         <v>2018</v>
       </c>
-      <c r="C634" t="inlineStr"/>
+      <c r="C634" t="n">
+        <v>19473970</v>
+      </c>
       <c r="D634" t="inlineStr">
         <is>
           <t>10,515,554</t>
@@ -33420,7 +34686,9 @@
       <c r="B635" t="n">
         <v>2019</v>
       </c>
-      <c r="C635" t="inlineStr"/>
+      <c r="C635" t="n">
+        <v>19371648</v>
+      </c>
       <c r="D635" t="inlineStr">
         <is>
           <t>10,476,962</t>
@@ -33472,7 +34740,9 @@
       <c r="B636" t="n">
         <v>2020</v>
       </c>
-      <c r="C636" t="inlineStr"/>
+      <c r="C636" t="n">
+        <v>19265250</v>
+      </c>
       <c r="D636" t="inlineStr">
         <is>
           <t>10,440,610</t>
@@ -33524,7 +34794,9 @@
       <c r="B637" t="n">
         <v>2021</v>
       </c>
-      <c r="C637" t="inlineStr"/>
+      <c r="C637" t="n">
+        <v>19119880</v>
+      </c>
       <c r="D637" t="inlineStr">
         <is>
           <t>10,387,640</t>
@@ -33576,7 +34848,9 @@
       <c r="B638" t="n">
         <v>2018</v>
       </c>
-      <c r="C638" t="inlineStr"/>
+      <c r="C638" t="n">
+        <v>144477859</v>
+      </c>
       <c r="D638" t="inlineStr">
         <is>
           <t>107,539,205</t>
@@ -33628,7 +34902,9 @@
       <c r="B639" t="n">
         <v>2019</v>
       </c>
-      <c r="C639" t="inlineStr"/>
+      <c r="C639" t="n">
+        <v>144406261</v>
+      </c>
       <c r="D639" t="inlineStr">
         <is>
           <t>107,708,298</t>
@@ -33680,7 +34956,9 @@
       <c r="B640" t="n">
         <v>2020</v>
       </c>
-      <c r="C640" t="inlineStr"/>
+      <c r="C640" t="n">
+        <v>144073139</v>
+      </c>
       <c r="D640" t="inlineStr">
         <is>
           <t>107,700,434</t>
@@ -33732,7 +35010,9 @@
       <c r="B641" t="n">
         <v>2021</v>
       </c>
-      <c r="C641" t="inlineStr"/>
+      <c r="C641" t="n">
+        <v>143449286</v>
+      </c>
       <c r="D641" t="inlineStr">
         <is>
           <t>107,492,288</t>
@@ -33784,7 +35064,9 @@
       <c r="B642" t="n">
         <v>2018</v>
       </c>
-      <c r="C642" t="inlineStr"/>
+      <c r="C642" t="n">
+        <v>12531808</v>
+      </c>
       <c r="D642" t="inlineStr">
         <is>
           <t>2,156,849</t>
@@ -33836,7 +35118,9 @@
       <c r="B643" t="n">
         <v>2019</v>
       </c>
-      <c r="C643" t="inlineStr"/>
+      <c r="C643" t="n">
+        <v>12835028</v>
+      </c>
       <c r="D643" t="inlineStr">
         <is>
           <t>2,222,128</t>
@@ -33888,7 +35172,9 @@
       <c r="B644" t="n">
         <v>2020</v>
       </c>
-      <c r="C644" t="inlineStr"/>
+      <c r="C644" t="n">
+        <v>13146362</v>
+      </c>
       <c r="D644" t="inlineStr">
         <is>
           <t>2,291,674</t>
@@ -33940,7 +35226,9 @@
       <c r="B645" t="n">
         <v>2021</v>
       </c>
-      <c r="C645" t="inlineStr"/>
+      <c r="C645" t="n">
+        <v>13461888</v>
+      </c>
       <c r="D645" t="inlineStr">
         <is>
           <t>2,364,984</t>
@@ -33992,7 +35280,9 @@
       <c r="B646" t="n">
         <v>2018</v>
       </c>
-      <c r="C646" t="inlineStr"/>
+      <c r="C646" t="n">
+        <v>209701</v>
+      </c>
       <c r="D646" t="inlineStr">
         <is>
           <t>38,256</t>
@@ -34044,7 +35334,9 @@
       <c r="B647" t="n">
         <v>2019</v>
       </c>
-      <c r="C647" t="inlineStr"/>
+      <c r="C647" t="n">
+        <v>211905</v>
+      </c>
       <c r="D647" t="inlineStr">
         <is>
           <t>38,262</t>
@@ -34096,7 +35388,9 @@
       <c r="B648" t="n">
         <v>2020</v>
       </c>
-      <c r="C648" t="inlineStr"/>
+      <c r="C648" t="n">
+        <v>214929</v>
+      </c>
       <c r="D648" t="inlineStr">
         <is>
           <t>38,449</t>
@@ -34148,7 +35442,9 @@
       <c r="B649" t="n">
         <v>2021</v>
       </c>
-      <c r="C649" t="inlineStr"/>
+      <c r="C649" t="n">
+        <v>218764</v>
+      </c>
       <c r="D649" t="inlineStr">
         <is>
           <t>38,813</t>
@@ -34200,7 +35496,9 @@
       <c r="B650" t="n">
         <v>2018</v>
       </c>
-      <c r="C650" t="inlineStr"/>
+      <c r="C650" t="n">
+        <v>34156</v>
+      </c>
       <c r="D650" t="inlineStr">
         <is>
           <t>33,209</t>
@@ -34252,7 +35550,9 @@
       <c r="B651" t="n">
         <v>2019</v>
       </c>
-      <c r="C651" t="inlineStr"/>
+      <c r="C651" t="n">
+        <v>34178</v>
+      </c>
       <c r="D651" t="inlineStr">
         <is>
           <t>33,278</t>
@@ -34304,7 +35604,9 @@
       <c r="B652" t="n">
         <v>2020</v>
       </c>
-      <c r="C652" t="inlineStr"/>
+      <c r="C652" t="n">
+        <v>34007</v>
+      </c>
       <c r="D652" t="inlineStr">
         <is>
           <t>33,156</t>
@@ -34356,7 +35658,9 @@
       <c r="B653" t="n">
         <v>2021</v>
       </c>
-      <c r="C653" t="inlineStr"/>
+      <c r="C653" t="n">
+        <v>33745</v>
+      </c>
       <c r="D653" t="inlineStr">
         <is>
           <t>32,942</t>
@@ -34408,7 +35712,9 @@
       <c r="B654" t="n">
         <v>2018</v>
       </c>
-      <c r="C654" t="inlineStr"/>
+      <c r="C654" t="n">
+        <v>211344</v>
+      </c>
       <c r="D654" t="inlineStr">
         <is>
           <t>153,865</t>
@@ -34460,7 +35766,9 @@
       <c r="B655" t="n">
         <v>2019</v>
       </c>
-      <c r="C655" t="inlineStr"/>
+      <c r="C655" t="n">
+        <v>214599</v>
+      </c>
       <c r="D655" t="inlineStr">
         <is>
           <t>157,941</t>
@@ -34512,7 +35820,9 @@
       <c r="B656" t="n">
         <v>2020</v>
       </c>
-      <c r="C656" t="inlineStr"/>
+      <c r="C656" t="n">
+        <v>218641</v>
+      </c>
       <c r="D656" t="inlineStr">
         <is>
           <t>162,568</t>
@@ -34564,7 +35874,9 @@
       <c r="B657" t="n">
         <v>2021</v>
       </c>
-      <c r="C657" t="inlineStr"/>
+      <c r="C657" t="n">
+        <v>223107</v>
+      </c>
       <c r="D657" t="inlineStr">
         <is>
           <t>167,493</t>
@@ -34616,7 +35928,9 @@
       <c r="B658" t="n">
         <v>2018</v>
       </c>
-      <c r="C658" t="inlineStr"/>
+      <c r="C658" t="n">
+        <v>35018133</v>
+      </c>
       <c r="D658" t="inlineStr">
         <is>
           <t>29,360,603</t>
@@ -34668,7 +35982,9 @@
       <c r="B659" t="n">
         <v>2019</v>
       </c>
-      <c r="C659" t="inlineStr"/>
+      <c r="C659" t="n">
+        <v>35827362</v>
+      </c>
       <c r="D659" t="inlineStr">
         <is>
           <t>30,118,272</t>
@@ -34720,7 +36036,9 @@
       <c r="B660" t="n">
         <v>2020</v>
       </c>
-      <c r="C660" t="inlineStr"/>
+      <c r="C660" t="n">
+        <v>35997107</v>
+      </c>
       <c r="D660" t="inlineStr">
         <is>
           <t>30,340,882</t>
@@ -34772,7 +36090,9 @@
       <c r="B661" t="n">
         <v>2021</v>
       </c>
-      <c r="C661" t="inlineStr"/>
+      <c r="C661" t="n">
+        <v>35950396</v>
+      </c>
       <c r="D661" t="inlineStr">
         <is>
           <t>30,380,961</t>
@@ -34824,7 +36144,9 @@
       <c r="B662" t="n">
         <v>2018</v>
       </c>
-      <c r="C662" t="inlineStr"/>
+      <c r="C662" t="n">
+        <v>15574909</v>
+      </c>
       <c r="D662" t="inlineStr">
         <is>
           <t>7,350,111</t>
@@ -34876,7 +36198,9 @@
       <c r="B663" t="n">
         <v>2019</v>
       </c>
-      <c r="C663" t="inlineStr"/>
+      <c r="C663" t="n">
+        <v>16000781</v>
+      </c>
       <c r="D663" t="inlineStr">
         <is>
           <t>7,624,852</t>
@@ -34928,7 +36252,9 @@
       <c r="B664" t="n">
         <v>2020</v>
       </c>
-      <c r="C664" t="inlineStr"/>
+      <c r="C664" t="n">
+        <v>16436120</v>
+      </c>
       <c r="D664" t="inlineStr">
         <is>
           <t>7,909,390</t>
@@ -34980,7 +36306,9 @@
       <c r="B665" t="n">
         <v>2021</v>
       </c>
-      <c r="C665" t="inlineStr"/>
+      <c r="C665" t="n">
+        <v>16876720</v>
+      </c>
       <c r="D665" t="inlineStr">
         <is>
           <t>8,202,086</t>
@@ -35032,7 +36360,9 @@
       <c r="B666" t="n">
         <v>2018</v>
       </c>
-      <c r="C666" t="inlineStr"/>
+      <c r="C666" t="n">
+        <v>6982604</v>
+      </c>
       <c r="D666" t="inlineStr">
         <is>
           <t>3,916,682</t>
@@ -35084,7 +36414,9 @@
       <c r="B667" t="n">
         <v>2019</v>
       </c>
-      <c r="C667" t="inlineStr"/>
+      <c r="C667" t="n">
+        <v>6945235</v>
+      </c>
       <c r="D667" t="inlineStr">
         <is>
           <t>3,907,389</t>
@@ -35136,7 +36468,9 @@
       <c r="B668" t="n">
         <v>2020</v>
       </c>
-      <c r="C668" t="inlineStr"/>
+      <c r="C668" t="n">
+        <v>6899126</v>
+      </c>
       <c r="D668" t="inlineStr">
         <is>
           <t>3,894,281</t>
@@ -35188,7 +36522,9 @@
       <c r="B669" t="n">
         <v>2021</v>
       </c>
-      <c r="C669" t="inlineStr"/>
+      <c r="C669" t="n">
+        <v>6834326</v>
+      </c>
       <c r="D669" t="inlineStr">
         <is>
           <t>3,871,714</t>
@@ -35240,7 +36576,9 @@
       <c r="B670" t="n">
         <v>2018</v>
       </c>
-      <c r="C670" t="inlineStr"/>
+      <c r="C670" t="n">
+        <v>96762</v>
+      </c>
       <c r="D670" t="inlineStr">
         <is>
           <t>54,855</t>
@@ -35292,7 +36630,9 @@
       <c r="B671" t="n">
         <v>2019</v>
       </c>
-      <c r="C671" t="inlineStr"/>
+      <c r="C671" t="n">
+        <v>97625</v>
+      </c>
       <c r="D671" t="inlineStr">
         <is>
           <t>55,762</t>
@@ -35344,7 +36684,9 @@
       <c r="B672" t="n">
         <v>2020</v>
       </c>
-      <c r="C672" t="inlineStr"/>
+      <c r="C672" t="n">
+        <v>98462</v>
+      </c>
       <c r="D672" t="inlineStr">
         <is>
           <t>56,661</t>
@@ -35396,7 +36738,9 @@
       <c r="B673" t="n">
         <v>2021</v>
       </c>
-      <c r="C673" t="inlineStr"/>
+      <c r="C673" t="n">
+        <v>99258</v>
+      </c>
       <c r="D673" t="inlineStr">
         <is>
           <t>57,542</t>
@@ -35448,7 +36792,9 @@
       <c r="B674" t="n">
         <v>2018</v>
       </c>
-      <c r="C674" t="inlineStr"/>
+      <c r="C674" t="n">
+        <v>7861281</v>
+      </c>
       <c r="D674" t="inlineStr">
         <is>
           <t>3,306,062</t>
@@ -35500,7 +36846,9 @@
       <c r="B675" t="n">
         <v>2019</v>
       </c>
-      <c r="C675" t="inlineStr"/>
+      <c r="C675" t="n">
+        <v>8046828</v>
+      </c>
       <c r="D675" t="inlineStr">
         <is>
           <t>3,418,614</t>
@@ -35552,7 +36900,9 @@
       <c r="B676" t="n">
         <v>2020</v>
       </c>
-      <c r="C676" t="inlineStr"/>
+      <c r="C676" t="n">
+        <v>8233970</v>
+      </c>
       <c r="D676" t="inlineStr">
         <is>
           <t>3,534,267</t>
@@ -35604,7 +36954,9 @@
       <c r="B677" t="n">
         <v>2021</v>
       </c>
-      <c r="C677" t="inlineStr"/>
+      <c r="C677" t="n">
+        <v>8420641</v>
+      </c>
       <c r="D677" t="inlineStr">
         <is>
           <t>3,652,200</t>
@@ -35656,7 +37008,9 @@
       <c r="B678" t="n">
         <v>2018</v>
       </c>
-      <c r="C678" t="inlineStr"/>
+      <c r="C678" t="n">
+        <v>5638676</v>
+      </c>
       <c r="D678" t="inlineStr">
         <is>
           <t>5,638,676</t>
@@ -35708,7 +37062,9 @@
       <c r="B679" t="n">
         <v>2019</v>
       </c>
-      <c r="C679" t="inlineStr"/>
+      <c r="C679" t="n">
+        <v>5703569</v>
+      </c>
       <c r="D679" t="inlineStr">
         <is>
           <t>5,703,569</t>
@@ -35760,7 +37116,9 @@
       <c r="B680" t="n">
         <v>2020</v>
       </c>
-      <c r="C680" t="inlineStr"/>
+      <c r="C680" t="n">
+        <v>5685807</v>
+      </c>
       <c r="D680" t="inlineStr">
         <is>
           <t>5,685,807</t>
@@ -35812,7 +37170,9 @@
       <c r="B681" t="n">
         <v>2021</v>
       </c>
-      <c r="C681" t="inlineStr"/>
+      <c r="C681" t="n">
+        <v>5453566</v>
+      </c>
       <c r="D681" t="inlineStr">
         <is>
           <t>5,453,566</t>
@@ -35864,7 +37224,9 @@
       <c r="B682" t="n">
         <v>2018</v>
       </c>
-      <c r="C682" t="inlineStr"/>
+      <c r="C682" t="n">
+        <v>40895</v>
+      </c>
       <c r="D682" t="inlineStr">
         <is>
           <t>40,895</t>
@@ -35916,7 +37278,9 @@
       <c r="B683" t="n">
         <v>2019</v>
       </c>
-      <c r="C683" t="inlineStr"/>
+      <c r="C683" t="n">
+        <v>41608</v>
+      </c>
       <c r="D683" t="inlineStr">
         <is>
           <t>41,608</t>
@@ -35968,7 +37332,9 @@
       <c r="B684" t="n">
         <v>2020</v>
       </c>
-      <c r="C684" t="inlineStr"/>
+      <c r="C684" t="n">
+        <v>42310</v>
+      </c>
       <c r="D684" t="inlineStr">
         <is>
           <t>42,310</t>
@@ -36020,7 +37386,9 @@
       <c r="B685" t="n">
         <v>2021</v>
       </c>
-      <c r="C685" t="inlineStr"/>
+      <c r="C685" t="n">
+        <v>42846</v>
+      </c>
       <c r="D685" t="inlineStr">
         <is>
           <t>42,846</t>
@@ -36072,7 +37440,9 @@
       <c r="B686" t="n">
         <v>2018</v>
       </c>
-      <c r="C686" t="inlineStr"/>
+      <c r="C686" t="n">
+        <v>5446771</v>
+      </c>
       <c r="D686" t="inlineStr">
         <is>
           <t>2,926,332</t>
@@ -36124,7 +37494,9 @@
       <c r="B687" t="n">
         <v>2019</v>
       </c>
-      <c r="C687" t="inlineStr"/>
+      <c r="C687" t="n">
+        <v>5454147</v>
+      </c>
       <c r="D687" t="inlineStr">
         <is>
           <t>2,930,459</t>
@@ -36176,7 +37548,9 @@
       <c r="B688" t="n">
         <v>2020</v>
       </c>
-      <c r="C688" t="inlineStr"/>
+      <c r="C688" t="n">
+        <v>5458827</v>
+      </c>
       <c r="D688" t="inlineStr">
         <is>
           <t>2,934,665</t>
@@ -36228,7 +37602,9 @@
       <c r="B689" t="n">
         <v>2021</v>
       </c>
-      <c r="C689" t="inlineStr"/>
+      <c r="C689" t="n">
+        <v>5447247</v>
+      </c>
       <c r="D689" t="inlineStr">
         <is>
           <t>2,931,708</t>
@@ -36280,7 +37656,9 @@
       <c r="B690" t="n">
         <v>2018</v>
       </c>
-      <c r="C690" t="inlineStr"/>
+      <c r="C690" t="n">
+        <v>2073894</v>
+      </c>
       <c r="D690" t="inlineStr">
         <is>
           <t>1,131,123</t>
@@ -36332,7 +37710,9 @@
       <c r="B691" t="n">
         <v>2019</v>
       </c>
-      <c r="C691" t="inlineStr"/>
+      <c r="C691" t="n">
+        <v>2088385</v>
+      </c>
       <c r="D691" t="inlineStr">
         <is>
           <t>1,144,894</t>
@@ -36384,7 +37764,9 @@
       <c r="B692" t="n">
         <v>2020</v>
       </c>
-      <c r="C692" t="inlineStr"/>
+      <c r="C692" t="n">
+        <v>2102419</v>
+      </c>
       <c r="D692" t="inlineStr">
         <is>
           <t>1,158,811</t>
@@ -36436,7 +37818,9 @@
       <c r="B693" t="n">
         <v>2021</v>
       </c>
-      <c r="C693" t="inlineStr"/>
+      <c r="C693" t="n">
+        <v>2108079</v>
+      </c>
       <c r="D693" t="inlineStr">
         <is>
           <t>1,168,445</t>
@@ -36488,7 +37872,9 @@
       <c r="B694" t="n">
         <v>2018</v>
       </c>
-      <c r="C694" t="inlineStr"/>
+      <c r="C694" t="n">
+        <v>659249</v>
+      </c>
       <c r="D694" t="inlineStr">
         <is>
           <t>156,565</t>
@@ -36540,7 +37926,9 @@
       <c r="B695" t="n">
         <v>2019</v>
       </c>
-      <c r="C695" t="inlineStr"/>
+      <c r="C695" t="n">
+        <v>674993</v>
+      </c>
       <c r="D695" t="inlineStr">
         <is>
           <t>163,416</t>
@@ -36592,7 +37980,9 @@
       <c r="B696" t="n">
         <v>2020</v>
       </c>
-      <c r="C696" t="inlineStr"/>
+      <c r="C696" t="n">
+        <v>691191</v>
+      </c>
       <c r="D696" t="inlineStr">
         <is>
           <t>170,517</t>
@@ -36644,7 +38034,9 @@
       <c r="B697" t="n">
         <v>2021</v>
       </c>
-      <c r="C697" t="inlineStr"/>
+      <c r="C697" t="n">
+        <v>707851</v>
+      </c>
       <c r="D697" t="inlineStr">
         <is>
           <t>177,869</t>
@@ -36696,7 +38088,9 @@
       <c r="B698" t="n">
         <v>2018</v>
       </c>
-      <c r="C698" t="inlineStr"/>
+      <c r="C698" t="n">
+        <v>15411094</v>
+      </c>
       <c r="D698" t="inlineStr">
         <is>
           <t>6,930,523</t>
@@ -36748,7 +38142,9 @@
       <c r="B699" t="n">
         <v>2019</v>
       </c>
-      <c r="C699" t="inlineStr"/>
+      <c r="C699" t="n">
+        <v>15981300</v>
+      </c>
       <c r="D699" t="inlineStr">
         <is>
           <t>7,280,121</t>
@@ -36800,7 +38196,9 @@
       <c r="B700" t="n">
         <v>2020</v>
       </c>
-      <c r="C700" t="inlineStr"/>
+      <c r="C700" t="n">
+        <v>16537016</v>
+      </c>
       <c r="D700" t="inlineStr">
         <is>
           <t>7,630,345</t>
@@ -36852,7 +38250,9 @@
       <c r="B701" t="n">
         <v>2021</v>
       </c>
-      <c r="C701" t="inlineStr"/>
+      <c r="C701" t="n">
+        <v>17065581</v>
+      </c>
       <c r="D701" t="inlineStr">
         <is>
           <t>7,974,917</t>
@@ -36904,7 +38304,9 @@
       <c r="B702" t="n">
         <v>2018</v>
       </c>
-      <c r="C702" t="inlineStr"/>
+      <c r="C702" t="n">
+        <v>57339635</v>
+      </c>
       <c r="D702" t="inlineStr">
         <is>
           <t>38,047,715</t>
@@ -36956,7 +38358,9 @@
       <c r="B703" t="n">
         <v>2019</v>
       </c>
-      <c r="C703" t="inlineStr"/>
+      <c r="C703" t="n">
+        <v>58087055</v>
+      </c>
       <c r="D703" t="inlineStr">
         <is>
           <t>38,834,681</t>
@@ -37008,7 +38412,9 @@
       <c r="B704" t="n">
         <v>2020</v>
       </c>
-      <c r="C704" t="inlineStr"/>
+      <c r="C704" t="n">
+        <v>58801927</v>
+      </c>
       <c r="D704" t="inlineStr">
         <is>
           <t>39,605,450</t>
@@ -37060,7 +38466,9 @@
       <c r="B705" t="n">
         <v>2021</v>
       </c>
-      <c r="C705" t="inlineStr"/>
+      <c r="C705" t="n">
+        <v>59392255</v>
+      </c>
       <c r="D705" t="inlineStr">
         <is>
           <t>40,295,863</t>
@@ -37112,7 +38520,9 @@
       <c r="B706" t="n">
         <v>2018</v>
       </c>
-      <c r="C706" t="inlineStr"/>
+      <c r="C706" t="n">
+        <v>51585058</v>
+      </c>
       <c r="D706" t="inlineStr">
         <is>
           <t>42,020,672</t>
@@ -37164,7 +38574,9 @@
       <c r="B707" t="n">
         <v>2019</v>
       </c>
-      <c r="C707" t="inlineStr"/>
+      <c r="C707" t="n">
+        <v>51764822</v>
+      </c>
       <c r="D707" t="inlineStr">
         <is>
           <t>42,152,095</t>
@@ -37216,7 +38628,9 @@
       <c r="B708" t="n">
         <v>2020</v>
       </c>
-      <c r="C708" t="inlineStr"/>
+      <c r="C708" t="n">
+        <v>51836239</v>
+      </c>
       <c r="D708" t="inlineStr">
         <is>
           <t>42,201,956</t>
@@ -37268,7 +38682,9 @@
       <c r="B709" t="n">
         <v>2021</v>
       </c>
-      <c r="C709" t="inlineStr"/>
+      <c r="C709" t="n">
+        <v>51744876</v>
+      </c>
       <c r="D709" t="inlineStr">
         <is>
           <t>42,127,573</t>
@@ -37320,7 +38736,9 @@
       <c r="B710" t="n">
         <v>2018</v>
       </c>
-      <c r="C710" t="inlineStr"/>
+      <c r="C710" t="n">
+        <v>10395329</v>
+      </c>
       <c r="D710" t="inlineStr">
         <is>
           <t>2,039,044</t>
@@ -37372,7 +38790,9 @@
       <c r="B711" t="n">
         <v>2019</v>
       </c>
-      <c r="C711" t="inlineStr"/>
+      <c r="C711" t="n">
+        <v>10447666</v>
+      </c>
       <c r="D711" t="inlineStr">
         <is>
           <t>2,078,981</t>
@@ -37424,7 +38844,9 @@
       <c r="B712" t="n">
         <v>2020</v>
       </c>
-      <c r="C712" t="inlineStr"/>
+      <c r="C712" t="n">
+        <v>10606227</v>
+      </c>
       <c r="D712" t="inlineStr">
         <is>
           <t>2,142,352</t>
@@ -37476,7 +38898,9 @@
       <c r="B713" t="n">
         <v>2021</v>
       </c>
-      <c r="C713" t="inlineStr"/>
+      <c r="C713" t="n">
+        <v>10748272</v>
+      </c>
       <c r="D713" t="inlineStr">
         <is>
           <t>2,204,901</t>
@@ -37528,7 +38952,9 @@
       <c r="B714" t="n">
         <v>2018</v>
       </c>
-      <c r="C714" t="inlineStr"/>
+      <c r="C714" t="n">
+        <v>46797754</v>
+      </c>
       <c r="D714" t="inlineStr">
         <is>
           <t>37,588,424</t>
@@ -37580,7 +39006,9 @@
       <c r="B715" t="n">
         <v>2019</v>
       </c>
-      <c r="C715" t="inlineStr"/>
+      <c r="C715" t="n">
+        <v>47134837</v>
+      </c>
       <c r="D715" t="inlineStr">
         <is>
           <t>37,974,181</t>
@@ -37632,7 +39060,9 @@
       <c r="B716" t="n">
         <v>2020</v>
       </c>
-      <c r="C716" t="inlineStr"/>
+      <c r="C716" t="n">
+        <v>47365655</v>
+      </c>
       <c r="D716" t="inlineStr">
         <is>
           <t>38,276,186</t>
@@ -37684,7 +39114,9 @@
       <c r="B717" t="n">
         <v>2021</v>
       </c>
-      <c r="C717" t="inlineStr"/>
+      <c r="C717" t="n">
+        <v>47415750</v>
+      </c>
       <c r="D717" t="inlineStr">
         <is>
           <t>38,433,310</t>
@@ -37736,7 +39168,9 @@
       <c r="B718" t="n">
         <v>2018</v>
       </c>
-      <c r="C718" t="inlineStr"/>
+      <c r="C718" t="n">
+        <v>21670000</v>
+      </c>
       <c r="D718" t="inlineStr">
         <is>
           <t>4,003,749</t>
@@ -37788,7 +39222,9 @@
       <c r="B719" t="n">
         <v>2019</v>
       </c>
-      <c r="C719" t="inlineStr"/>
+      <c r="C719" t="n">
+        <v>21803000</v>
+      </c>
       <c r="D719" t="inlineStr">
         <is>
           <t>4,052,088</t>
@@ -37840,7 +39276,9 @@
       <c r="B720" t="n">
         <v>2020</v>
       </c>
-      <c r="C720" t="inlineStr"/>
+      <c r="C720" t="n">
+        <v>21919000</v>
+      </c>
       <c r="D720" t="inlineStr">
         <is>
           <t>4,101,702</t>
@@ -37892,7 +39330,9 @@
       <c r="B721" t="n">
         <v>2021</v>
       </c>
-      <c r="C721" t="inlineStr"/>
+      <c r="C721" t="n">
+        <v>22156000</v>
+      </c>
       <c r="D721" t="inlineStr">
         <is>
           <t>4,178,622</t>
@@ -37944,7 +39384,9 @@
       <c r="B722" t="n">
         <v>2018</v>
       </c>
-      <c r="C722" t="inlineStr"/>
+      <c r="C722" t="n">
+        <v>47761</v>
+      </c>
       <c r="D722" t="inlineStr">
         <is>
           <t>14,699</t>
@@ -37996,7 +39438,9 @@
       <c r="B723" t="n">
         <v>2019</v>
       </c>
-      <c r="C723" t="inlineStr"/>
+      <c r="C723" t="n">
+        <v>47712</v>
+      </c>
       <c r="D723" t="inlineStr">
         <is>
           <t>14,695</t>
@@ -38048,7 +39492,9 @@
       <c r="B724" t="n">
         <v>2020</v>
       </c>
-      <c r="C724" t="inlineStr"/>
+      <c r="C724" t="n">
+        <v>47642</v>
+      </c>
       <c r="D724" t="inlineStr">
         <is>
           <t>14,694</t>
@@ -38100,7 +39546,9 @@
       <c r="B725" t="n">
         <v>2021</v>
       </c>
-      <c r="C725" t="inlineStr"/>
+      <c r="C725" t="n">
+        <v>47606</v>
+      </c>
       <c r="D725" t="inlineStr">
         <is>
           <t>14,713</t>
@@ -38152,7 +39600,9 @@
       <c r="B726" t="n">
         <v>2018</v>
       </c>
-      <c r="C726" t="inlineStr"/>
+      <c r="C726" t="n">
+        <v>177888</v>
+      </c>
       <c r="D726" t="inlineStr">
         <is>
           <t>33,226</t>
@@ -38204,7 +39654,9 @@
       <c r="B727" t="n">
         <v>2019</v>
       </c>
-      <c r="C727" t="inlineStr"/>
+      <c r="C727" t="n">
+        <v>178583</v>
+      </c>
       <c r="D727" t="inlineStr">
         <is>
           <t>33,491</t>
@@ -38256,7 +39708,9 @@
       <c r="B728" t="n">
         <v>2020</v>
       </c>
-      <c r="C728" t="inlineStr"/>
+      <c r="C728" t="n">
+        <v>179237</v>
+      </c>
       <c r="D728" t="inlineStr">
         <is>
           <t>33,770</t>
@@ -38308,7 +39762,9 @@
       <c r="B729" t="n">
         <v>2021</v>
       </c>
-      <c r="C729" t="inlineStr"/>
+      <c r="C729" t="n">
+        <v>179651</v>
+      </c>
       <c r="D729" t="inlineStr">
         <is>
           <t>34,026</t>
@@ -38360,7 +39816,9 @@
       <c r="B730" t="n">
         <v>2018</v>
       </c>
-      <c r="C730" t="inlineStr"/>
+      <c r="C730" t="n">
+        <v>33852</v>
+      </c>
       <c r="D730" t="inlineStr">
         <is>
           <t>-</t>
@@ -38412,7 +39870,9 @@
       <c r="B731" t="n">
         <v>2019</v>
       </c>
-      <c r="C731" t="inlineStr"/>
+      <c r="C731" t="n">
+        <v>33121</v>
+      </c>
       <c r="D731" t="inlineStr">
         <is>
           <t>-</t>
@@ -38464,7 +39924,9 @@
       <c r="B732" t="n">
         <v>2020</v>
       </c>
-      <c r="C732" t="inlineStr"/>
+      <c r="C732" t="n">
+        <v>32553</v>
+      </c>
       <c r="D732" t="inlineStr">
         <is>
           <t>-</t>
@@ -38516,7 +39978,9 @@
       <c r="B733" t="n">
         <v>2021</v>
       </c>
-      <c r="C733" t="inlineStr"/>
+      <c r="C733" t="n">
+        <v>31948</v>
+      </c>
       <c r="D733" t="inlineStr">
         <is>
           <t>-</t>
@@ -38568,7 +40032,9 @@
       <c r="B734" t="n">
         <v>2018</v>
       </c>
-      <c r="C734" t="inlineStr"/>
+      <c r="C734" t="n">
+        <v>105281</v>
+      </c>
       <c r="D734" t="inlineStr">
         <is>
           <t>54,955</t>
@@ -38620,7 +40086,9 @@
       <c r="B735" t="n">
         <v>2019</v>
       </c>
-      <c r="C735" t="inlineStr"/>
+      <c r="C735" t="n">
+        <v>104924</v>
+      </c>
       <c r="D735" t="inlineStr">
         <is>
           <t>55,205</t>
@@ -38672,7 +40140,9 @@
       <c r="B736" t="n">
         <v>2020</v>
       </c>
-      <c r="C736" t="inlineStr"/>
+      <c r="C736" t="n">
+        <v>104632</v>
+      </c>
       <c r="D736" t="inlineStr">
         <is>
           <t>55,488</t>
@@ -38724,7 +40194,9 @@
       <c r="B737" t="n">
         <v>2021</v>
       </c>
-      <c r="C737" t="inlineStr"/>
+      <c r="C737" t="n">
+        <v>104332</v>
+      </c>
       <c r="D737" t="inlineStr">
         <is>
           <t>55,768</t>
@@ -38776,7 +40248,9 @@
       <c r="B738" t="n">
         <v>2018</v>
       </c>
-      <c r="C738" t="inlineStr"/>
+      <c r="C738" t="n">
+        <v>41999059</v>
+      </c>
       <c r="D738" t="inlineStr">
         <is>
           <t>14,549,314</t>
@@ -38828,7 +40302,9 @@
       <c r="B739" t="n">
         <v>2019</v>
       </c>
-      <c r="C739" t="inlineStr"/>
+      <c r="C739" t="n">
+        <v>43232093</v>
+      </c>
       <c r="D739" t="inlineStr">
         <is>
           <t>15,103,564</t>
@@ -38880,7 +40356,9 @@
       <c r="B740" t="n">
         <v>2020</v>
       </c>
-      <c r="C740" t="inlineStr"/>
+      <c r="C740" t="n">
+        <v>44440486</v>
+      </c>
       <c r="D740" t="inlineStr">
         <is>
           <t>15,666,605</t>
@@ -38932,7 +40410,9 @@
       <c r="B741" t="n">
         <v>2021</v>
       </c>
-      <c r="C741" t="inlineStr"/>
+      <c r="C741" t="n">
+        <v>45657202</v>
+      </c>
       <c r="D741" t="inlineStr">
         <is>
           <t>16,250,768</t>
@@ -38984,7 +40464,9 @@
       <c r="B742" t="n">
         <v>2018</v>
       </c>
-      <c r="C742" t="inlineStr"/>
+      <c r="C742" t="n">
+        <v>593715</v>
+      </c>
       <c r="D742" t="inlineStr">
         <is>
           <t>392,208</t>
@@ -39036,7 +40518,9 @@
       <c r="B743" t="n">
         <v>2019</v>
       </c>
-      <c r="C743" t="inlineStr"/>
+      <c r="C743" t="n">
+        <v>600301</v>
+      </c>
       <c r="D743" t="inlineStr">
         <is>
           <t>396,769</t>
@@ -39088,7 +40572,9 @@
       <c r="B744" t="n">
         <v>2020</v>
       </c>
-      <c r="C744" t="inlineStr"/>
+      <c r="C744" t="n">
+        <v>607065</v>
+      </c>
       <c r="D744" t="inlineStr">
         <is>
           <t>401,567</t>
@@ -39140,7 +40626,9 @@
       <c r="B745" t="n">
         <v>2021</v>
       </c>
-      <c r="C745" t="inlineStr"/>
+      <c r="C745" t="n">
+        <v>612985</v>
+      </c>
       <c r="D745" t="inlineStr">
         <is>
           <t>405,913</t>
@@ -39192,7 +40680,9 @@
       <c r="B746" t="n">
         <v>2018</v>
       </c>
-      <c r="C746" t="inlineStr"/>
+      <c r="C746" t="n">
+        <v>10175214</v>
+      </c>
       <c r="D746" t="inlineStr">
         <is>
           <t>8,896,291</t>
@@ -39244,7 +40734,9 @@
       <c r="B747" t="n">
         <v>2019</v>
       </c>
-      <c r="C747" t="inlineStr"/>
+      <c r="C747" t="n">
+        <v>10278887</v>
+      </c>
       <c r="D747" t="inlineStr">
         <is>
           <t>9,015,406</t>
@@ -39296,7 +40788,9 @@
       <c r="B748" t="n">
         <v>2020</v>
       </c>
-      <c r="C748" t="inlineStr"/>
+      <c r="C748" t="n">
+        <v>10353442</v>
+      </c>
       <c r="D748" t="inlineStr">
         <is>
           <t>9,108,648</t>
@@ -39348,7 +40842,9 @@
       <c r="B749" t="n">
         <v>2021</v>
       </c>
-      <c r="C749" t="inlineStr"/>
+      <c r="C749" t="n">
+        <v>10415811</v>
+      </c>
       <c r="D749" t="inlineStr">
         <is>
           <t>9,190,703</t>
@@ -39400,7 +40896,9 @@
       <c r="B750" t="n">
         <v>2018</v>
       </c>
-      <c r="C750" t="inlineStr"/>
+      <c r="C750" t="n">
+        <v>8514329</v>
+      </c>
       <c r="D750" t="inlineStr">
         <is>
           <t>6,283,319</t>
@@ -39452,7 +40950,9 @@
       <c r="B751" t="n">
         <v>2019</v>
       </c>
-      <c r="C751" t="inlineStr"/>
+      <c r="C751" t="n">
+        <v>8575280</v>
+      </c>
       <c r="D751" t="inlineStr">
         <is>
           <t>6,332,759</t>
@@ -39504,7 +41004,9 @@
       <c r="B752" t="n">
         <v>2020</v>
       </c>
-      <c r="C752" t="inlineStr"/>
+      <c r="C752" t="n">
+        <v>8638167</v>
+      </c>
       <c r="D752" t="inlineStr">
         <is>
           <t>6,384,901</t>
@@ -39556,7 +41058,9 @@
       <c r="B753" t="n">
         <v>2021</v>
       </c>
-      <c r="C753" t="inlineStr"/>
+      <c r="C753" t="n">
+        <v>8703405</v>
+      </c>
       <c r="D753" t="inlineStr">
         <is>
           <t>6,440,172</t>
@@ -39608,7 +41112,9 @@
       <c r="B754" t="n">
         <v>2018</v>
       </c>
-      <c r="C754" t="inlineStr"/>
+      <c r="C754" t="n">
+        <v>19333463</v>
+      </c>
       <c r="D754" t="inlineStr">
         <is>
           <t>10,471,390</t>
@@ -39660,7 +41166,9 @@
       <c r="B755" t="n">
         <v>2019</v>
       </c>
-      <c r="C755" t="inlineStr"/>
+      <c r="C755" t="n">
+        <v>20098251</v>
+      </c>
       <c r="D755" t="inlineStr">
         <is>
           <t>11,018,062</t>
@@ -39712,7 +41220,9 @@
       <c r="B756" t="n">
         <v>2020</v>
       </c>
-      <c r="C756" t="inlineStr"/>
+      <c r="C756" t="n">
+        <v>20772595</v>
+      </c>
       <c r="D756" t="inlineStr">
         <is>
           <t>11,523,597</t>
@@ -39764,7 +41274,9 @@
       <c r="B757" t="n">
         <v>2021</v>
       </c>
-      <c r="C757" t="inlineStr"/>
+      <c r="C757" t="n">
+        <v>21324367</v>
+      </c>
       <c r="D757" t="inlineStr">
         <is>
           <t>11,968,088</t>
@@ -39816,7 +41328,9 @@
       <c r="B758" t="n">
         <v>2018</v>
       </c>
-      <c r="C758" t="inlineStr"/>
+      <c r="C758" t="n">
+        <v>9128132</v>
+      </c>
       <c r="D758" t="inlineStr">
         <is>
           <t>2,476,827</t>
@@ -39868,7 +41382,9 @@
       <c r="B759" t="n">
         <v>2019</v>
       </c>
-      <c r="C759" t="inlineStr"/>
+      <c r="C759" t="n">
+        <v>9337003</v>
+      </c>
       <c r="D759" t="inlineStr">
         <is>
           <t>2,549,842</t>
@@ -39920,7 +41436,9 @@
       <c r="B760" t="n">
         <v>2020</v>
       </c>
-      <c r="C760" t="inlineStr"/>
+      <c r="C760" t="n">
+        <v>9543207</v>
+      </c>
       <c r="D760" t="inlineStr">
         <is>
           <t>2,624,955</t>
@@ -39972,7 +41490,9 @@
       <c r="B761" t="n">
         <v>2021</v>
       </c>
-      <c r="C761" t="inlineStr"/>
+      <c r="C761" t="n">
+        <v>9750064</v>
+      </c>
       <c r="D761" t="inlineStr">
         <is>
           <t>2,703,303</t>
@@ -40024,7 +41544,9 @@
       <c r="B762" t="n">
         <v>2018</v>
       </c>
-      <c r="C762" t="inlineStr"/>
+      <c r="C762" t="n">
+        <v>58090443</v>
+      </c>
       <c r="D762" t="inlineStr">
         <is>
           <t>19,620,628</t>
@@ -40076,7 +41598,9 @@
       <c r="B763" t="n">
         <v>2019</v>
       </c>
-      <c r="C763" t="inlineStr"/>
+      <c r="C763" t="n">
+        <v>59872579</v>
+      </c>
       <c r="D763" t="inlineStr">
         <is>
           <t>20,656,040</t>
@@ -40128,7 +41652,9 @@
       <c r="B764" t="n">
         <v>2020</v>
       </c>
-      <c r="C764" t="inlineStr"/>
+      <c r="C764" t="n">
+        <v>61704518</v>
+      </c>
       <c r="D764" t="inlineStr">
         <is>
           <t>21,736,651</t>
@@ -40180,7 +41706,9 @@
       <c r="B765" t="n">
         <v>2021</v>
       </c>
-      <c r="C765" t="inlineStr"/>
+      <c r="C765" t="n">
+        <v>63588334</v>
+      </c>
       <c r="D765" t="inlineStr">
         <is>
           <t>22,862,550</t>
@@ -40232,7 +41760,9 @@
       <c r="B766" t="n">
         <v>2018</v>
       </c>
-      <c r="C766" t="inlineStr"/>
+      <c r="C766" t="n">
+        <v>71127802</v>
+      </c>
       <c r="D766" t="inlineStr">
         <is>
           <t>35,527,626</t>
@@ -40284,7 +41814,9 @@
       <c r="B767" t="n">
         <v>2019</v>
       </c>
-      <c r="C767" t="inlineStr"/>
+      <c r="C767" t="n">
+        <v>71307763</v>
+      </c>
       <c r="D767" t="inlineStr">
         <is>
           <t>36,147,331</t>
@@ -40336,7 +41868,9 @@
       <c r="B768" t="n">
         <v>2020</v>
       </c>
-      <c r="C768" t="inlineStr"/>
+      <c r="C768" t="n">
+        <v>71475664</v>
+      </c>
       <c r="D768" t="inlineStr">
         <is>
           <t>36,759,934</t>
@@ -40388,7 +41922,9 @@
       <c r="B769" t="n">
         <v>2021</v>
       </c>
-      <c r="C769" t="inlineStr"/>
+      <c r="C769" t="n">
+        <v>71601103</v>
+      </c>
       <c r="D769" t="inlineStr">
         <is>
           <t>37,349,283</t>
@@ -40440,7 +41976,9 @@
       <c r="B770" t="n">
         <v>2018</v>
       </c>
-      <c r="C770" t="inlineStr"/>
+      <c r="C770" t="n">
+        <v>1261845</v>
+      </c>
       <c r="D770" t="inlineStr">
         <is>
           <t>385,847</t>
@@ -40492,7 +42030,9 @@
       <c r="B771" t="n">
         <v>2019</v>
       </c>
-      <c r="C771" t="inlineStr"/>
+      <c r="C771" t="n">
+        <v>1280438</v>
+      </c>
       <c r="D771" t="inlineStr">
         <is>
           <t>396,257</t>
@@ -40544,7 +42084,9 @@
       <c r="B772" t="n">
         <v>2020</v>
       </c>
-      <c r="C772" t="inlineStr"/>
+      <c r="C772" t="n">
+        <v>1299995</v>
+      </c>
       <c r="D772" t="inlineStr">
         <is>
           <t>407,158</t>
@@ -40596,7 +42138,9 @@
       <c r="B773" t="n">
         <v>2021</v>
       </c>
-      <c r="C773" t="inlineStr"/>
+      <c r="C773" t="n">
+        <v>1320942</v>
+      </c>
       <c r="D773" t="inlineStr">
         <is>
           <t>418,673</t>
@@ -40648,7 +42192,9 @@
       <c r="B774" t="n">
         <v>2018</v>
       </c>
-      <c r="C774" t="inlineStr"/>
+      <c r="C774" t="n">
+        <v>8046679</v>
+      </c>
       <c r="D774" t="inlineStr">
         <is>
           <t>3,355,626</t>
@@ -40700,7 +42246,9 @@
       <c r="B775" t="n">
         <v>2019</v>
       </c>
-      <c r="C775" t="inlineStr"/>
+      <c r="C775" t="n">
+        <v>8243094</v>
+      </c>
       <c r="D775" t="inlineStr">
         <is>
           <t>3,482,542</t>
@@ -40752,7 +42300,9 @@
       <c r="B776" t="n">
         <v>2020</v>
       </c>
-      <c r="C776" t="inlineStr"/>
+      <c r="C776" t="n">
+        <v>8442580</v>
+      </c>
       <c r="D776" t="inlineStr">
         <is>
           <t>3,613,424</t>
@@ -40804,7 +42354,9 @@
       <c r="B777" t="n">
         <v>2021</v>
       </c>
-      <c r="C777" t="inlineStr"/>
+      <c r="C777" t="n">
+        <v>8644829</v>
+      </c>
       <c r="D777" t="inlineStr">
         <is>
           <t>3,748,225</t>
@@ -40856,7 +42408,9 @@
       <c r="B778" t="n">
         <v>2018</v>
       </c>
-      <c r="C778" t="inlineStr"/>
+      <c r="C778" t="n">
+        <v>105150</v>
+      </c>
       <c r="D778" t="inlineStr">
         <is>
           <t>24,322</t>
@@ -40908,7 +42462,9 @@
       <c r="B779" t="n">
         <v>2019</v>
       </c>
-      <c r="C779" t="inlineStr"/>
+      <c r="C779" t="n">
+        <v>104951</v>
+      </c>
       <c r="D779" t="inlineStr">
         <is>
           <t>24,251</t>
@@ -40960,7 +42516,9 @@
       <c r="B780" t="n">
         <v>2020</v>
       </c>
-      <c r="C780" t="inlineStr"/>
+      <c r="C780" t="n">
+        <v>105254</v>
+      </c>
       <c r="D780" t="inlineStr">
         <is>
           <t>24,313</t>
@@ -41012,7 +42570,9 @@
       <c r="B781" t="n">
         <v>2021</v>
       </c>
-      <c r="C781" t="inlineStr"/>
+      <c r="C781" t="n">
+        <v>106017</v>
+      </c>
       <c r="D781" t="inlineStr">
         <is>
           <t>24,494</t>
@@ -41064,7 +42624,9 @@
       <c r="B782" t="n">
         <v>2018</v>
       </c>
-      <c r="C782" t="inlineStr"/>
+      <c r="C782" t="n">
+        <v>1504709</v>
+      </c>
       <c r="D782" t="inlineStr">
         <is>
           <t>800,264</t>
@@ -41116,7 +42678,9 @@
       <c r="B783" t="n">
         <v>2019</v>
       </c>
-      <c r="C783" t="inlineStr"/>
+      <c r="C783" t="n">
+        <v>1519955</v>
+      </c>
       <c r="D783" t="inlineStr">
         <is>
           <t>808,418</t>
@@ -41168,7 +42732,9 @@
       <c r="B784" t="n">
         <v>2020</v>
       </c>
-      <c r="C784" t="inlineStr"/>
+      <c r="C784" t="n">
+        <v>1518147</v>
+      </c>
       <c r="D784" t="inlineStr">
         <is>
           <t>807,867</t>
@@ -41220,7 +42786,9 @@
       <c r="B785" t="n">
         <v>2021</v>
       </c>
-      <c r="C785" t="inlineStr"/>
+      <c r="C785" t="n">
+        <v>1525663</v>
+      </c>
       <c r="D785" t="inlineStr">
         <is>
           <t>812,644</t>
@@ -41272,7 +42840,9 @@
       <c r="B786" t="n">
         <v>2018</v>
       </c>
-      <c r="C786" t="inlineStr"/>
+      <c r="C786" t="n">
+        <v>11933041</v>
+      </c>
       <c r="D786" t="inlineStr">
         <is>
           <t>8,227,235</t>
@@ -41324,7 +42894,9 @@
       <c r="B787" t="n">
         <v>2019</v>
       </c>
-      <c r="C787" t="inlineStr"/>
+      <c r="C787" t="n">
+        <v>12049314</v>
+      </c>
       <c r="D787" t="inlineStr">
         <is>
           <t>8,344,632</t>
@@ -41376,7 +42948,9 @@
       <c r="B788" t="n">
         <v>2020</v>
       </c>
-      <c r="C788" t="inlineStr"/>
+      <c r="C788" t="n">
+        <v>12161723</v>
+      </c>
       <c r="D788" t="inlineStr">
         <is>
           <t>8,460,667</t>
@@ -41428,7 +43002,9 @@
       <c r="B789" t="n">
         <v>2021</v>
       </c>
-      <c r="C789" t="inlineStr"/>
+      <c r="C789" t="n">
+        <v>12262946</v>
+      </c>
       <c r="D789" t="inlineStr">
         <is>
           <t>8,570,328</t>
@@ -41480,7 +43056,9 @@
       <c r="B790" t="n">
         <v>2018</v>
       </c>
-      <c r="C790" t="inlineStr"/>
+      <c r="C790" t="n">
+        <v>82809304</v>
+      </c>
       <c r="D790" t="inlineStr">
         <is>
           <t>62,225,395</t>
@@ -41532,7 +43110,9 @@
       <c r="B791" t="n">
         <v>2019</v>
       </c>
-      <c r="C791" t="inlineStr"/>
+      <c r="C791" t="n">
+        <v>83481684</v>
+      </c>
       <c r="D791" t="inlineStr">
         <is>
           <t>63,137,198</t>
@@ -41584,7 +43164,9 @@
       <c r="B792" t="n">
         <v>2020</v>
       </c>
-      <c r="C792" t="inlineStr"/>
+      <c r="C792" t="n">
+        <v>84135428</v>
+      </c>
       <c r="D792" t="inlineStr">
         <is>
           <t>64,031,267</t>
@@ -41636,7 +43218,9 @@
       <c r="B793" t="n">
         <v>2021</v>
       </c>
-      <c r="C793" t="inlineStr"/>
+      <c r="C793" t="n">
+        <v>84775404</v>
+      </c>
       <c r="D793" t="inlineStr">
         <is>
           <t>64,911,679</t>
@@ -41688,7 +43272,9 @@
       <c r="B794" t="n">
         <v>2018</v>
       </c>
-      <c r="C794" t="inlineStr"/>
+      <c r="C794" t="n">
+        <v>6065066</v>
+      </c>
       <c r="D794" t="inlineStr">
         <is>
           <t>3,129,150</t>
@@ -41740,7 +43326,9 @@
       <c r="B795" t="n">
         <v>2019</v>
       </c>
-      <c r="C795" t="inlineStr"/>
+      <c r="C795" t="n">
+        <v>6158420</v>
+      </c>
       <c r="D795" t="inlineStr">
         <is>
           <t>3,205,334</t>
@@ -41792,7 +43380,9 @@
       <c r="B796" t="n">
         <v>2020</v>
       </c>
-      <c r="C796" t="inlineStr"/>
+      <c r="C796" t="n">
+        <v>6250438</v>
+      </c>
       <c r="D796" t="inlineStr">
         <is>
           <t>3,282,480</t>
@@ -41844,7 +43434,9 @@
       <c r="B797" t="n">
         <v>2021</v>
       </c>
-      <c r="C797" t="inlineStr"/>
+      <c r="C797" t="n">
+        <v>6341855</v>
+      </c>
       <c r="D797" t="inlineStr">
         <is>
           <t>3,361,056</t>
@@ -41896,7 +43488,9 @@
       <c r="B798" t="n">
         <v>2018</v>
       </c>
-      <c r="C798" t="inlineStr"/>
+      <c r="C798" t="n">
+        <v>41487</v>
+      </c>
       <c r="D798" t="inlineStr">
         <is>
           <t>38,624</t>
@@ -41948,7 +43542,9 @@
       <c r="B799" t="n">
         <v>2019</v>
       </c>
-      <c r="C799" t="inlineStr"/>
+      <c r="C799" t="n">
+        <v>43080</v>
+      </c>
       <c r="D799" t="inlineStr">
         <is>
           <t>40,219</t>
@@ -42000,7 +43596,9 @@
       <c r="B800" t="n">
         <v>2020</v>
       </c>
-      <c r="C800" t="inlineStr"/>
+      <c r="C800" t="n">
+        <v>44276</v>
+      </c>
       <c r="D800" t="inlineStr">
         <is>
           <t>41,445</t>
@@ -42052,7 +43650,9 @@
       <c r="B801" t="n">
         <v>2021</v>
       </c>
-      <c r="C801" t="inlineStr"/>
+      <c r="C801" t="n">
+        <v>45114</v>
+      </c>
       <c r="D801" t="inlineStr">
         <is>
           <t>42,332</t>
@@ -42104,7 +43704,9 @@
       <c r="B802" t="n">
         <v>2018</v>
       </c>
-      <c r="C802" t="inlineStr"/>
+      <c r="C802" t="n">
+        <v>10865</v>
+      </c>
       <c r="D802" t="inlineStr">
         <is>
           <t>6,778</t>
@@ -42156,7 +43758,9 @@
       <c r="B803" t="n">
         <v>2019</v>
       </c>
-      <c r="C803" t="inlineStr"/>
+      <c r="C803" t="n">
+        <v>10956</v>
+      </c>
       <c r="D803" t="inlineStr">
         <is>
           <t>6,926</t>
@@ -42208,7 +43812,9 @@
       <c r="B804" t="n">
         <v>2020</v>
       </c>
-      <c r="C804" t="inlineStr"/>
+      <c r="C804" t="n">
+        <v>11069</v>
+      </c>
       <c r="D804" t="inlineStr">
         <is>
           <t>7,086</t>
@@ -42260,7 +43866,9 @@
       <c r="B805" t="n">
         <v>2021</v>
       </c>
-      <c r="C805" t="inlineStr"/>
+      <c r="C805" t="n">
+        <v>11204</v>
+      </c>
       <c r="D805" t="inlineStr">
         <is>
           <t>7,259</t>
@@ -42312,7 +43920,9 @@
       <c r="B806" t="n">
         <v>2018</v>
       </c>
-      <c r="C806" t="inlineStr"/>
+      <c r="C806" t="n">
+        <v>9140169</v>
+      </c>
       <c r="D806" t="inlineStr">
         <is>
           <t>7,908,257</t>
@@ -42364,7 +43974,9 @@
       <c r="B807" t="n">
         <v>2019</v>
       </c>
-      <c r="C807" t="inlineStr"/>
+      <c r="C807" t="n">
+        <v>9211657</v>
+      </c>
       <c r="D807" t="inlineStr">
         <is>
           <t>7,994,705</t>
@@ -42416,7 +44028,9 @@
       <c r="B808" t="n">
         <v>2020</v>
       </c>
-      <c r="C808" t="inlineStr"/>
+      <c r="C808" t="n">
+        <v>9287289</v>
+      </c>
       <c r="D808" t="inlineStr">
         <is>
           <t>8,084,399</t>
@@ -42468,7 +44082,9 @@
       <c r="B809" t="n">
         <v>2021</v>
       </c>
-      <c r="C809" t="inlineStr"/>
+      <c r="C809" t="n">
+        <v>9365145</v>
+      </c>
       <c r="D809" t="inlineStr">
         <is>
           <t>8,175,678</t>
@@ -42520,7 +44136,9 @@
       <c r="B810" t="n">
         <v>2018</v>
       </c>
-      <c r="C810" t="inlineStr"/>
+      <c r="C810" t="n">
+        <v>41515395</v>
+      </c>
       <c r="D810" t="inlineStr">
         <is>
           <t>9,869,870</t>
@@ -42572,7 +44190,9 @@
       <c r="B811" t="n">
         <v>2019</v>
       </c>
-      <c r="C811" t="inlineStr"/>
+      <c r="C811" t="n">
+        <v>42949080</v>
+      </c>
       <c r="D811" t="inlineStr">
         <is>
           <t>10,462,825</t>
@@ -42624,7 +44244,9 @@
       <c r="B812" t="n">
         <v>2020</v>
       </c>
-      <c r="C812" t="inlineStr"/>
+      <c r="C812" t="n">
+        <v>44404611</v>
+      </c>
       <c r="D812" t="inlineStr">
         <is>
           <t>11,080,727</t>
@@ -42676,7 +44298,9 @@
       <c r="B813" t="n">
         <v>2021</v>
       </c>
-      <c r="C813" t="inlineStr"/>
+      <c r="C813" t="n">
+        <v>45853778</v>
+      </c>
       <c r="D813" t="inlineStr">
         <is>
           <t>11,717,016</t>
@@ -42728,7 +44352,9 @@
       <c r="B814" t="n">
         <v>2018</v>
       </c>
-      <c r="C814" t="inlineStr"/>
+      <c r="C814" t="n">
+        <v>44622518</v>
+      </c>
       <c r="D814" t="inlineStr">
         <is>
           <t>30,946,609</t>
@@ -42780,7 +44406,9 @@
       <c r="B815" t="n">
         <v>2019</v>
       </c>
-      <c r="C815" t="inlineStr"/>
+      <c r="C815" t="n">
+        <v>44386203</v>
+      </c>
       <c r="D815" t="inlineStr">
         <is>
           <t>30,836,427</t>
@@ -42832,7 +44460,9 @@
       <c r="B816" t="n">
         <v>2020</v>
       </c>
-      <c r="C816" t="inlineStr"/>
+      <c r="C816" t="n">
+        <v>44132049</v>
+      </c>
       <c r="D816" t="inlineStr">
         <is>
           <t>30,719,437</t>
@@ -42884,7 +44514,9 @@
       <c r="B817" t="n">
         <v>2021</v>
       </c>
-      <c r="C817" t="inlineStr"/>
+      <c r="C817" t="n">
+        <v>43792855</v>
+      </c>
       <c r="D817" t="inlineStr">
         <is>
           <t>30,548,582</t>
@@ -42936,7 +44568,9 @@
       <c r="B818" t="n">
         <v>2018</v>
       </c>
-      <c r="C818" t="inlineStr"/>
+      <c r="C818" t="n">
+        <v>66460344</v>
+      </c>
       <c r="D818" t="inlineStr">
         <is>
           <t>55,426,598</t>
@@ -42988,7 +44622,9 @@
       <c r="B819" t="n">
         <v>2019</v>
       </c>
-      <c r="C819" t="inlineStr"/>
+      <c r="C819" t="n">
+        <v>66836327</v>
+      </c>
       <c r="D819" t="inlineStr">
         <is>
           <t>55,909,924</t>
@@ -43040,7 +44676,9 @@
       <c r="B820" t="n">
         <v>2020</v>
       </c>
-      <c r="C820" t="inlineStr"/>
+      <c r="C820" t="n">
+        <v>67081234</v>
+      </c>
       <c r="D820" t="inlineStr">
         <is>
           <t>56,283,168</t>
@@ -43092,7 +44730,9 @@
       <c r="B821" t="n">
         <v>2021</v>
       </c>
-      <c r="C821" t="inlineStr"/>
+      <c r="C821" t="n">
+        <v>67026300</v>
+      </c>
       <c r="D821" t="inlineStr">
         <is>
           <t>56,403,972</t>
@@ -43144,7 +44784,9 @@
       <c r="B822" t="n">
         <v>2018</v>
       </c>
-      <c r="C822" t="inlineStr"/>
+      <c r="C822" t="n">
+        <v>326838199</v>
+      </c>
       <c r="D822" t="inlineStr">
         <is>
           <t>268,844,029</t>
@@ -43196,7 +44838,9 @@
       <c r="B823" t="n">
         <v>2019</v>
       </c>
-      <c r="C823" t="inlineStr"/>
+      <c r="C823" t="n">
+        <v>328329953</v>
+      </c>
       <c r="D823" t="inlineStr">
         <is>
           <t>270,737,596</t>
@@ -43248,7 +44892,9 @@
       <c r="B824" t="n">
         <v>2020</v>
       </c>
-      <c r="C824" t="inlineStr"/>
+      <c r="C824" t="n">
+        <v>331511512</v>
+      </c>
       <c r="D824" t="inlineStr">
         <is>
           <t>274,040,676</t>
@@ -43300,7 +44946,9 @@
       <c r="B825" t="n">
         <v>2021</v>
       </c>
-      <c r="C825" t="inlineStr"/>
+      <c r="C825" t="n">
+        <v>332031554</v>
+      </c>
       <c r="D825" t="inlineStr">
         <is>
           <t>275,164,510</t>
@@ -43352,7 +45000,9 @@
       <c r="B826" t="n">
         <v>2018</v>
       </c>
-      <c r="C826" t="inlineStr"/>
+      <c r="C826" t="n">
+        <v>3427042</v>
+      </c>
       <c r="D826" t="inlineStr">
         <is>
           <t>3,267,136</t>
@@ -43404,7 +45054,9 @@
       <c r="B827" t="n">
         <v>2019</v>
       </c>
-      <c r="C827" t="inlineStr"/>
+      <c r="C827" t="n">
+        <v>3428409</v>
+      </c>
       <c r="D827" t="inlineStr">
         <is>
           <t>3,271,594</t>
@@ -43456,7 +45108,9 @@
       <c r="B828" t="n">
         <v>2020</v>
       </c>
-      <c r="C828" t="inlineStr"/>
+      <c r="C828" t="n">
+        <v>3429086</v>
+      </c>
       <c r="D828" t="inlineStr">
         <is>
           <t>3,275,291</t>
@@ -43508,7 +45162,9 @@
       <c r="B829" t="n">
         <v>2021</v>
       </c>
-      <c r="C829" t="inlineStr"/>
+      <c r="C829" t="n">
+        <v>3426260</v>
+      </c>
       <c r="D829" t="inlineStr">
         <is>
           <t>3,275,607</t>
@@ -43560,7 +45216,9 @@
       <c r="B830" t="n">
         <v>2018</v>
       </c>
-      <c r="C830" t="inlineStr"/>
+      <c r="C830" t="n">
+        <v>32956100</v>
+      </c>
       <c r="D830" t="inlineStr">
         <is>
           <t>16,635,580</t>
@@ -43612,7 +45270,9 @@
       <c r="B831" t="n">
         <v>2019</v>
       </c>
-      <c r="C831" t="inlineStr"/>
+      <c r="C831" t="n">
+        <v>33580350</v>
+      </c>
       <c r="D831" t="inlineStr">
         <is>
           <t>16,935,578</t>
@@ -43664,7 +45324,9 @@
       <c r="B832" t="n">
         <v>2020</v>
       </c>
-      <c r="C832" t="inlineStr"/>
+      <c r="C832" t="n">
+        <v>34232050</v>
+      </c>
       <c r="D832" t="inlineStr">
         <is>
           <t>17,258,430</t>
@@ -43716,7 +45378,9 @@
       <c r="B833" t="n">
         <v>2021</v>
       </c>
-      <c r="C833" t="inlineStr"/>
+      <c r="C833" t="n">
+        <v>34915100</v>
+      </c>
       <c r="D833" t="inlineStr">
         <is>
           <t>17,606,637</t>
@@ -43768,7 +45432,9 @@
       <c r="B834" t="n">
         <v>2018</v>
       </c>
-      <c r="C834" t="inlineStr"/>
+      <c r="C834" t="n">
+        <v>297298</v>
+      </c>
       <c r="D834" t="inlineStr">
         <is>
           <t>75,139</t>
@@ -43820,7 +45486,9 @@
       <c r="B835" t="n">
         <v>2019</v>
       </c>
-      <c r="C835" t="inlineStr"/>
+      <c r="C835" t="n">
+        <v>304404</v>
+      </c>
       <c r="D835" t="inlineStr">
         <is>
           <t>77,300</t>
@@ -43872,7 +45540,9 @@
       <c r="B836" t="n">
         <v>2020</v>
       </c>
-      <c r="C836" t="inlineStr"/>
+      <c r="C836" t="n">
+        <v>311685</v>
+      </c>
       <c r="D836" t="inlineStr">
         <is>
           <t>79,558</t>
@@ -43924,7 +45594,9 @@
       <c r="B837" t="n">
         <v>2021</v>
       </c>
-      <c r="C837" t="inlineStr"/>
+      <c r="C837" t="n">
+        <v>319137</v>
+      </c>
       <c r="D837" t="inlineStr">
         <is>
           <t>81,907</t>
@@ -43976,7 +45648,9 @@
       <c r="B838" t="n">
         <v>2018</v>
       </c>
-      <c r="C838" t="inlineStr"/>
+      <c r="C838" t="n">
+        <v>29825653</v>
+      </c>
       <c r="D838" t="inlineStr">
         <is>
           <t>26,308,612</t>
@@ -44028,7 +45702,9 @@
       <c r="B839" t="n">
         <v>2019</v>
       </c>
-      <c r="C839" t="inlineStr"/>
+      <c r="C839" t="n">
+        <v>28971683</v>
+      </c>
       <c r="D839" t="inlineStr">
         <is>
           <t>25,564,613</t>
@@ -44080,7 +45756,9 @@
       <c r="B840" t="n">
         <v>2020</v>
       </c>
-      <c r="C840" t="inlineStr"/>
+      <c r="C840" t="n">
+        <v>28490453</v>
+      </c>
       <c r="D840" t="inlineStr">
         <is>
           <t>25,151,087</t>
@@ -44132,7 +45810,9 @@
       <c r="B841" t="n">
         <v>2021</v>
       </c>
-      <c r="C841" t="inlineStr"/>
+      <c r="C841" t="n">
+        <v>28199867</v>
+      </c>
       <c r="D841" t="inlineStr">
         <is>
           <t>24,907,533</t>
@@ -44184,7 +45864,9 @@
       <c r="B842" t="n">
         <v>2018</v>
       </c>
-      <c r="C842" t="inlineStr"/>
+      <c r="C842" t="n">
+        <v>94914330</v>
+      </c>
       <c r="D842" t="inlineStr">
         <is>
           <t>34,092,278</t>
@@ -44236,7 +45918,9 @@
       <c r="B843" t="n">
         <v>2019</v>
       </c>
-      <c r="C843" t="inlineStr"/>
+      <c r="C843" t="n">
+        <v>95776716</v>
+      </c>
       <c r="D843" t="inlineStr">
         <is>
           <t>35,081,096</t>
@@ -44288,7 +45972,9 @@
       <c r="B844" t="n">
         <v>2020</v>
       </c>
-      <c r="C844" t="inlineStr"/>
+      <c r="C844" t="n">
+        <v>96648685</v>
+      </c>
       <c r="D844" t="inlineStr">
         <is>
           <t>36,088,619</t>
@@ -44340,7 +46026,9 @@
       <c r="B845" t="n">
         <v>2021</v>
       </c>
-      <c r="C845" t="inlineStr"/>
+      <c r="C845" t="n">
+        <v>97468029</v>
+      </c>
       <c r="D845" t="inlineStr">
         <is>
           <t>37,088,534</t>
@@ -44392,7 +46080,9 @@
       <c r="B846" t="n">
         <v>2018</v>
       </c>
-      <c r="C846" t="inlineStr"/>
+      <c r="C846" t="n">
+        <v>107001</v>
+      </c>
       <c r="D846" t="inlineStr">
         <is>
           <t>102,422</t>
@@ -44444,7 +46134,9 @@
       <c r="B847" t="n">
         <v>2019</v>
       </c>
-      <c r="C847" t="inlineStr"/>
+      <c r="C847" t="n">
+        <v>106669</v>
+      </c>
       <c r="D847" t="inlineStr">
         <is>
           <t>102,223</t>
@@ -44496,7 +46188,9 @@
       <c r="B848" t="n">
         <v>2020</v>
       </c>
-      <c r="C848" t="inlineStr"/>
+      <c r="C848" t="n">
+        <v>106290</v>
+      </c>
       <c r="D848" t="inlineStr">
         <is>
           <t>101,974</t>
@@ -44548,7 +46242,9 @@
       <c r="B849" t="n">
         <v>2021</v>
       </c>
-      <c r="C849" t="inlineStr"/>
+      <c r="C849" t="n">
+        <v>105870</v>
+      </c>
       <c r="D849" t="inlineStr">
         <is>
           <t>101,678</t>
@@ -44600,7 +46296,9 @@
       <c r="B850" t="n">
         <v>2018</v>
       </c>
-      <c r="C850" t="inlineStr"/>
+      <c r="C850" t="n">
+        <v>4569087</v>
+      </c>
       <c r="D850" t="inlineStr">
         <is>
           <t>3,479,999</t>
@@ -44652,7 +46350,9 @@
       <c r="B851" t="n">
         <v>2019</v>
       </c>
-      <c r="C851" t="inlineStr"/>
+      <c r="C851" t="n">
+        <v>4685306</v>
+      </c>
       <c r="D851" t="inlineStr">
         <is>
           <t>3,581,448</t>
@@ -44704,7 +46404,9 @@
       <c r="B852" t="n">
         <v>2020</v>
       </c>
-      <c r="C852" t="inlineStr"/>
+      <c r="C852" t="n">
+        <v>4803269</v>
+      </c>
       <c r="D852" t="inlineStr">
         <is>
           <t>3,685,020</t>
@@ -44756,7 +46458,9 @@
       <c r="B853" t="n">
         <v>2021</v>
       </c>
-      <c r="C853" t="inlineStr"/>
+      <c r="C853" t="n">
+        <v>4922749</v>
+      </c>
       <c r="D853" t="inlineStr">
         <is>
           <t>3,790,664</t>
@@ -44808,7 +46512,9 @@
       <c r="B854" t="n">
         <v>2018</v>
       </c>
-      <c r="C854" t="inlineStr"/>
+      <c r="C854" t="n">
+        <v>30790513</v>
+      </c>
       <c r="D854" t="inlineStr">
         <is>
           <t>11,282,260</t>
@@ -44860,7 +46566,9 @@
       <c r="B855" t="n">
         <v>2019</v>
       </c>
-      <c r="C855" t="inlineStr"/>
+      <c r="C855" t="n">
+        <v>31546691</v>
+      </c>
       <c r="D855" t="inlineStr">
         <is>
           <t>11,758,398</t>
@@ -44912,7 +46620,9 @@
       <c r="B856" t="n">
         <v>2020</v>
       </c>
-      <c r="C856" t="inlineStr"/>
+      <c r="C856" t="n">
+        <v>32284046</v>
+      </c>
       <c r="D856" t="inlineStr">
         <is>
           <t>12,238,236</t>
@@ -44964,7 +46674,9 @@
       <c r="B857" t="n">
         <v>2021</v>
       </c>
-      <c r="C857" t="inlineStr"/>
+      <c r="C857" t="n">
+        <v>32981641</v>
+      </c>
       <c r="D857" t="inlineStr">
         <is>
           <t>12,713,103</t>
@@ -45016,7 +46728,9 @@
       <c r="B858" t="n">
         <v>2018</v>
       </c>
-      <c r="C858" t="inlineStr"/>
+      <c r="C858" t="n">
+        <v>17835893</v>
+      </c>
       <c r="D858" t="inlineStr">
         <is>
           <t>7,762,359</t>
@@ -45068,7 +46782,9 @@
       <c r="B859" t="n">
         <v>2019</v>
       </c>
-      <c r="C859" t="inlineStr"/>
+      <c r="C859" t="n">
+        <v>18380477</v>
+      </c>
       <c r="D859" t="inlineStr">
         <is>
           <t>8,100,644</t>
@@ -45120,7 +46836,9 @@
       <c r="B860" t="n">
         <v>2020</v>
       </c>
-      <c r="C860" t="inlineStr"/>
+      <c r="C860" t="n">
+        <v>18927715</v>
+      </c>
       <c r="D860" t="inlineStr">
         <is>
           <t>8,447,250</t>
@@ -45172,7 +46890,9 @@
       <c r="B861" t="n">
         <v>2021</v>
       </c>
-      <c r="C861" t="inlineStr"/>
+      <c r="C861" t="n">
+        <v>19473125</v>
+      </c>
       <c r="D861" t="inlineStr">
         <is>
           <t>8,800,295</t>
@@ -45224,7 +46944,9 @@
       <c r="B862" t="n">
         <v>2018</v>
       </c>
-      <c r="C862" t="inlineStr"/>
+      <c r="C862" t="n">
+        <v>15052184</v>
+      </c>
       <c r="D862" t="inlineStr">
         <is>
           <t>4,848,158</t>
@@ -45276,7 +46998,9 @@
       <c r="B863" t="n">
         <v>2019</v>
       </c>
-      <c r="C863" t="inlineStr"/>
+      <c r="C863" t="n">
+        <v>15354608</v>
+      </c>
       <c r="D863" t="inlineStr">
         <is>
           <t>4,945,719</t>
@@ -45328,7 +47052,9 @@
       <c r="B864" t="n">
         <v>2020</v>
       </c>
-      <c r="C864" t="inlineStr"/>
+      <c r="C864" t="n">
+        <v>15669666</v>
+      </c>
       <c r="D864" t="inlineStr">
         <is>
           <t>5,052,214</t>
@@ -45380,7 +47106,9 @@
       <c r="B865" t="n">
         <v>2021</v>
       </c>
-      <c r="C865" t="inlineStr"/>
+      <c r="C865" t="n">
+        <v>15993524</v>
+      </c>
       <c r="D865" t="inlineStr">
         <is>
           <t>5,166,388</t>
